--- a/tools/anssi/anssi-guide-hygiene-detail.xlsx
+++ b/tools/anssi/anssi-guide-hygiene-detail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericlaubacher/Documents/GitHub/ciso-assistant-community/tools/anssi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9CFE4E1-6F4D-AC40-845E-F76A9F7F2A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77DC2078-F0B4-3A4A-9947-77E2D878DF09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="35060" windowHeight="20580" activeTab="1" xr2:uid="{125C4C37-F3C0-444B-A950-381456F8AB10}"/>
   </bookViews>
@@ -334,12 +334,6 @@
     <t>Afin de limiter les conséquences d’une compromission, il est par ailleurs essentiel, après changement des éléments d’authentification par défaut, de procéder à leur renouvellement régulier.</t>
   </si>
   <si>
-    <t>Il est vivement recommandé de mettre en œuvre une authentification forte nécessitant l’utilisation de deux facteurs d’authentification différents parmi les suivants :
-&gt; quelque chose que je sais (mot de passe, tracé de déverrouillage, signature) ;
-&gt; quelque chose que je possède (carte à puce, jeton USB, carte magnétique, RFID, un téléphone pour recevoir un code SMS) ;
-&gt; quelque chose que je suis (une empreinte biométrique).</t>
-  </si>
-  <si>
     <t>Les cartes à puces doivent être privilégiées ou, à défaut, les mécanismes de mots de passe à usage unique (ou One Time Password) avec jeton physique. Les opérations cryptographiques mises en place dans ces deux facteurs offrent généralement de bonnes garanties de sécurité.
 Les cartes à puce peuvent être plus complexes à mettre en place car nécessitant une infrastructure de gestion des clés adaptée. Elles présentent cependant l’avantage d’être réutilisables à plusieurs fins : chiffrement, authentification de messagerie, authentification sur le poste de travail, etc.</t>
   </si>
@@ -406,27 +400,6 @@
 Les équipes opérationnelles, pour être à l’état de l’art de la sécurité des systèmes d’information, doivent donc suivre - à leur prise de poste puis à intervalles réguliers - des formations sur :</t>
   </si>
   <si>
-    <t>la législation en vigueur ;</t>
-  </si>
-  <si>
-    <t>les principaux risques et menaces ;</t>
-  </si>
-  <si>
-    <t>le maintien en condition de sécurité ;</t>
-  </si>
-  <si>
-    <t>l’authentification et le contrôle d’accès ;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">le paramétrage fin et le durcissement des systèmes ; </t>
-  </si>
-  <si>
-    <t>le cloisonnement réseau ;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">et la journalisation. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Cette liste doit être précisée selon le métier des collaborateurs en considérant des aspects tels que l’intégration de la sécurité pour les chefs de projet, le développement sécurisé pour les développeurs, les référentiels de sécurité pour les RSSI, etc. </t>
   </si>
   <si>
@@ -470,22 +443,6 @@
   </si>
   <si>
     <t>3</t>
-  </si>
-  <si>
-    <t>les objectifs et enjeux que rencontre l’entité en matière de sécurité des systèmes d’information ;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">les informations considérées comme sensibles ;
-</t>
-  </si>
-  <si>
-    <t>les réglementations et obligations légales ;</t>
-  </si>
-  <si>
-    <t>les règles et consignes de sécurité régissant l’activité quotidienne : respect de la politique de sécurité, non-connexion d’équipements personnels au réseau de l’entité, non-divulgation de mots de passe à un tiers, non-réutilisation de mots de passe professionnels dans la sphère privée et inversement, signalement d’événements suspects, etc. ;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">les moyens disponibles et participant à la sécurité du système : verrouillage systématique de la session lorsque l’utilisateur quitte son poste, outil de protection des mots de passe, etc. </t>
   </si>
   <si>
     <t>Plan de sensibilisation</t>
@@ -502,12 +459,6 @@
   </si>
   <si>
     <t>Pour formaliser ces engagements, le prestataire fournira au commanditaire un plan d’assurance sécurité (PAS)  prévu par l’appel d’offre. Il s’agit d’un document contractuel décrivant l’ensemble des dispositions spécifiques que les candidats s’engagent à mettre en œuvre pour garantir le respect des exigences de sécurité spécifiées par l’entité.</t>
-  </si>
-  <si>
-    <t>d’imposer une liste d’exigences précises au prestataire : réversibilité du contrat, réalisation d’audits, sauvegarde et restitution des données dans un format ouvert normalisé, maintien à niveau de la sécurité dans le temps, etc.</t>
-  </si>
-  <si>
-    <t>d’étudier attentivement les conditions des offres, la possibilité de les adapter à des besoins spécifiques et les limites de responsabilité du prestataire ;</t>
   </si>
   <si>
     <t>Cahier des charges de sécurité</t>
@@ -553,15 +504,6 @@
     <t>Les comptes bénéficiant de droits spécifiques sont des cibles privilégiées par les attaquants qui souhaitent obtenir un accès le plus large possible au système d’information. Ils doivent donc faire l’objet d’une attention toute particulière. Il s’agit pour cela d’effectuer un inventaire de ces comptes, de le mettre à jour régulièrement et d’y renseigner les informations suivantes :</t>
   </si>
   <si>
-    <t>les utilisateurs ayant un compte administrateur ou des droits supérieurs à ceux d’un utilisateur standard sur le système d’information ;</t>
-  </si>
-  <si>
-    <t>les utilisateurs disposant de suffisamment de droits pour accéder aux répertoires de travail des responsables ou de l’ensemble des utilisateurs ;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">les utilisateurs utilisant un poste non administré par le service informatique et qui ne fait pas l’objet de mesures de sécurité édictées par la politique de sécurité générale de l’entité. </t>
-  </si>
-  <si>
     <t>Procédure d’accès privilégié
 Inventaire des comptes à privilèges</t>
   </si>
@@ -573,18 +515,6 @@
   </si>
   <si>
     <t>Les effectifs d’une entité, qu’elle soit publique ou privée, évoluent sans cesse : arrivées, départs, mobilité interne. Il est par conséquent nécessaire que les droits et les accès au système d’information soient mis à jour en fonction de ces évolutions. Il est notamment essentiel que l’ensemble des droits affectés à une personne soient révoqués lors de son départ ou en cas de changement de fonction. Les procédures d’arrivée et de départ doivent donc être définies, en lien avec la fonction ressources humaines. Elles doivent au minimum prendre en compte :</t>
-  </si>
-  <si>
-    <t>la création et la suppression des comptes informatiques et boîtes aux lettres associées ;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> la gestion des accès physiques aux locaux (attribution, restitution des badges et des clés, etc.) ;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> l’affectation des équipements mobiles (ordinateur portable, clé USB, disque dur, ordiphone, etc.) ;</t>
-  </si>
-  <si>
-    <t>la gestion des documents et informations sensibles (transfert de mots de passe, changement des mots de passe ou des codes sur les systèmes existants).</t>
   </si>
   <si>
     <t>Politique de sécurité des fournisseurs tiers
@@ -665,15 +595,6 @@
     <t>Certaines des ressources du système peuvent constituer une source d’information précieuse aux yeux d’un attaquant  (répertoires contenant des données sensibles, bases de données, boîtes aux lettres électroniques, etc.). Il est donc primordial d’établir une liste précise de ces ressources et pour chacune d’entre elles :</t>
   </si>
   <si>
-    <t>de définir quelle population peut y avoir accès ;</t>
-  </si>
-  <si>
-    <t>de contrôler strictement son accès, en s’assurant que les utilisateurs sont authentifiés et font partie de la population ciblée ;</t>
-  </si>
-  <si>
-    <t>d’éviter sa dispersion et sa duplication à des endroits non maîtrisés ou soumis à un contrôle d’accès moins strict.</t>
-  </si>
-  <si>
     <t>Registre des biens</t>
   </si>
   <si>
@@ -688,15 +609,6 @@
   </si>
   <si>
     <t>Pour encadrer et vérifier l’application de ces règles de choix et de dimensionnement, l’entité pourra recourir à différentes mesures parmi lesquelles :</t>
-  </si>
-  <si>
-    <t>le blocage des comptes à l’issue de plusieurs échecs de connexion ;</t>
-  </si>
-  <si>
-    <t>la désactivation des options de connexion anonyme ;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> l’utilisation d’un outil d’audit de la robustesse des mots de passe.</t>
   </si>
   <si>
     <t>La complexité, la diversité ou encore l’utilisation peu fréquente de certains mots de passe, peuvent encourager leur stockage sur un support physique
@@ -1030,12 +942,6 @@
     <t>Que l’entité héberge ou fasse héberger son système de messagerie, elle doit s’assurer :</t>
   </si>
   <si>
-    <t>de disposer d’un système d’analyse antivirus en amont des boîtes aux lettres des utilisateurs pour prévenir la réception de fichiers infectés ;</t>
-  </si>
-  <si>
-    <t>de l’activation du chiffrement TLS des échanges entre serveurs de messagerie (de l’entité ou publics) ainsi qu’entre les postes utilisateur et les serveurs hébergeant les boîtes aux lettres.</t>
-  </si>
-  <si>
     <t>Alors que le spam - malveillant ou non - constitue la majorité des courriels échangés sur Internet, le déploiement d’un service anti-spam doit permettre d’éliminer cette source de risques.</t>
   </si>
   <si>
@@ -1171,15 +1077,6 @@
   </si>
   <si>
     <t>Selon les besoins de sécurité de l’entité, il est recommandé :</t>
-  </si>
-  <si>
-    <t>de privilégier en premier lieu un cloisonnement physique des réseaux dès que cela est possible, cette solution pouvant représenter des coûts et un temps de déploiement importants;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">au minimum, de mettre en œuvre un cloisonnement logique par VLAN. </t>
-  </si>
-  <si>
-    <t>à défaut, de mettre en œuvre un cloisonnement logique cryptographique reposant sur la mise en place de tunnels IPsec. Ceci permet d’assurer l’intégrité et la confidentialité des informations véhiculées sur le réseau d’administration vis-à-vis du réseau bureautique des utilisateurs ;</t>
   </si>
   <si>
     <t xml:space="preserve">De nombreux utilisateurs, y compris au sommet des hiérarchies, sont tentés de demander à leur service informatique de pouvoir disposer, par analogie avec leur usage personnel, de privilèges plus importants sur leurs postes de travail : installation de logiciels, configuration du système, etc. Par défaut, il est recommandé qu’un utilisateur du SI, quelle que soit sa position hiérarchique et ses attributions, ne dispose pas de privilèges d’administration sur son poste de travail. Cette mesure, apparemment contraignante, vise à limiter les conséquences de l’exécution malencontreuse d’un code malveillant. La mise à disposition d’un magasin étoffé d’applications validées par l’entité du point de vue de la sécurité permettra de répondre à la majorité des besoins. 
@@ -1237,9 +1134,6 @@
     <t>Pour les besoins spécifiques d’authentification aux portails captifs, l’entité peut choisir de déroger à la connexion automatique en autorisant une connexion à la demande ou maintenir cette recommandation en encourageant l’utilisateur à utiliser un partage de connexion sur un téléphone mobile de confiance.</t>
   </si>
   <si>
-    <t>Indispensable en 2025</t>
-  </si>
-  <si>
     <t>VPN IPSec</t>
   </si>
   <si>
@@ -1288,18 +1182,6 @@
     <t xml:space="preserve">Les composants obsolètes qui ne sont plus supportés par leurs fabricants doivent être isolés du reste du système. Cette recommandation s’applique aussi bien au niveau réseau par un filtrage strict des flux, qu’au niveau des secrets d’authentification qui doivent être dédiés à ces systèmes. </t>
   </si>
   <si>
-    <t>la manière dont l’inventaire des composants du système d’information est réalisé ;</t>
-  </si>
-  <si>
-    <t>les sources d’information relatives à la publication des mises à jour ;</t>
-  </si>
-  <si>
-    <t>les outils pour déployer les correctifs sur le parc (par exemple WSUS pour les mises à jour des composants Microsoft, des outils gratuits ou payants pour les composants tiers et autres systèmes d’exploitation) ;</t>
-  </si>
-  <si>
-    <t>l’éventuelle qualification des correctifs et leur déploiement progressif sur le parc.</t>
-  </si>
-  <si>
     <t>Procédures de mise à jour</t>
   </si>
   <si>
@@ -1311,27 +1193,6 @@
 Pour anticiper ces obsolescences, un certain nombre de précautions existent :</t>
   </si>
   <si>
-    <t>établir et tenir à jour un inventaire des systèmes et applications du système d’information ;</t>
-  </si>
-  <si>
-    <t>choisir des solutions dont le support est assuré pour une durée correspondant à leur utilisation ;</t>
-  </si>
-  <si>
-    <t>assurer un suivi des mises à jour et des dates de fin de support des logiciels ;</t>
-  </si>
-  <si>
-    <t>maintenir un parc logiciel homogène (la coexistence de versions différentes d’un même produit multiplie les risques et complique le suivi) ;</t>
-  </si>
-  <si>
-    <t>limiter les adhérences logicielles, c’est-à-dire les dépendances de fonctionnement d’un logiciel par rapport à un autre, en particulier lorsque le support de ce dernier arrive à son terme ;</t>
-  </si>
-  <si>
-    <t>inclure dans les contrats avec les prestataires et fournisseurs des clauses garantissant le suivi des correctifs de sécurité et la gestion des obsolescences ;</t>
-  </si>
-  <si>
-    <t>identifier les délais et ressources nécessaires (matérielles, humaines, budgétaires) à la migration de chaque logiciel en fin de vie (tests de non-régression, procédure de sauvegarde, procédure de migration des données, etc.).</t>
-  </si>
-  <si>
     <t>CMDB</t>
   </si>
   <si>
@@ -1354,15 +1215,6 @@
   </si>
   <si>
     <t>Une étude contextuelle du système d’information doit être effectuée et les éléments suivants doivent être journalisés :</t>
-  </si>
-  <si>
-    <t>pare-feu : paquets bloqués ;</t>
-  </si>
-  <si>
-    <t>systèmes et applications : authentifications et autorisations (échecs et succès), arrêts inopinés ;</t>
-  </si>
-  <si>
-    <t>services : erreurs de protocoles (par exemples les erreurs 403, 404 et 500 pour les services hTTP), traçabilité des flux applicatifs aux interconnexions (URL sur un relai hTTP, en-têtes des messages sur un relai SMTP, etc.).</t>
   </si>
   <si>
     <t>Registre des biens
@@ -1394,39 +1246,9 @@
     <t>Cette politique doit au moins intégrer les éléments suivants :</t>
   </si>
   <si>
-    <t>la liste des données jugées vitales pour l’organisme et les serveurs concernés ;</t>
-  </si>
-  <si>
-    <t>les différents types de sauvegarde (par exemple le mode hors ligne) ;</t>
-  </si>
-  <si>
-    <t>la fréquence des sauvegardes ;</t>
-  </si>
-  <si>
-    <t>la procédure d’administration et d’exécution des sauvegardes ;</t>
-  </si>
-  <si>
-    <t>les informations de stockage et les restrictions d’accès aux sauvegardes ;</t>
-  </si>
-  <si>
-    <t>les procédures de test de restauration ;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> la destruction des supports ayant contenu les sauvegardes.</t>
-  </si>
-  <si>
     <t>Les tests de restauration peuvent être réalisés de plusieurs manières :</t>
   </si>
   <si>
-    <t>systématique, par un ordonnanceur de tâches pour les applications importantes ;</t>
-  </si>
-  <si>
-    <t>ponctuelle, en cas d’erreur sur les fichiers ;</t>
-  </si>
-  <si>
-    <t>générale, pour une sauvegarde et restauration entières du système d’information.</t>
-  </si>
-  <si>
     <t>Procédure de sauvegarde</t>
   </si>
   <si>
@@ -1461,13 +1283,6 @@
   </si>
   <si>
     <t xml:space="preserve">Toute entité doit disposer d’un référent en sécurité des systèmes d’information qui sera soutenu par la direction ou par une instance décisionnelle spécialisée selon le niveau de maturité de  la structure. </t>
-  </si>
-  <si>
-    <t>Ce référent devra être connu de tous les utilisateurs et sera le premier contact pour toutes les questions relatives à la sécurité des systèmes d’information :
-&gt;  définition des règles à appliquer selon le contexte ;
-&gt;  vérification de l’application des règles ;
-&gt; sensibilisation des utilisateurs et définition d’un plan de formation des acteurs informatiques ;
-&gt; centralisation et traitement des incidents de sécurité constatés ou remontés par les utilisateurs.</t>
   </si>
   <si>
     <t>Ce référent devra être formé à la sécurité des systèmes d’information et à la gestion de crise.</t>
@@ -1506,13 +1321,6 @@
   </si>
   <si>
     <t>42</t>
-  </si>
-  <si>
-    <t>Trois types d’approches peuvent être envisagés pour maîtriser les risques associés à son système d’information :
-&gt;  le recours aux bonnes pratiques de sécurité informatique ;
-&gt; une analyse de risques systématique fondée sur les retours d’expérience des utilisateurs ;
-&gt;  une gestion structurée des risques formalisée par une méthodologie dédiée.
-Dans ce dernier cas, la méthode EBIOS référencée par l’ANSSI est recommandée. Elle permet d’exprimer les besoins de sécurité, d’identifier les objectifs de sécurité et de déterminer les exigences de sécurité.</t>
   </si>
   <si>
     <t>Chaque entité évolue dans un environnement informationnel complexe qui lui est propre. Aussi, toute prise de position ou plan d’action impliquant la sécurité du système d’information doit être considéré à la lumière des risques pressentis par la direction. En effet, qu’il s’agisse de mesures organisationnelles ou techniques, leur mise en œuvre représente un coût pour l’entité qui nécessite de s’assurer qu’elles permettent de réduire au bon niveau un risque identifié.
@@ -1899,6 +1707,198 @@
   </si>
   <si>
     <t>1:PROC.PAM</t>
+  </si>
+  <si>
+    <t>L'authentification MFA est indispensable en 2025, compte-tenu de la puissance d'attaque en force brute disponible pour les attaquants.</t>
+  </si>
+  <si>
+    <t>• la législation en vigueur ;</t>
+  </si>
+  <si>
+    <t>• les principaux risques et menaces ;</t>
+  </si>
+  <si>
+    <t>• le maintien en condition de sécurité ;</t>
+  </si>
+  <si>
+    <t>• l’authentification et le contrôle d’accès ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• le paramétrage fin et le durcissement des systèmes ; </t>
+  </si>
+  <si>
+    <t>• le cloisonnement réseau ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• et la journalisation. </t>
+  </si>
+  <si>
+    <t>• les objectifs et enjeux que rencontre l’entité en matière de sécurité des systèmes d’information ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• les informations considérées comme sensibles ;
+</t>
+  </si>
+  <si>
+    <t>• les réglementations et obligations légales ;</t>
+  </si>
+  <si>
+    <t>• les règles et consignes de sécurité régissant l’activité quotidienne : respect de la politique de sécurité, non-connexion d’équipements personnels au réseau de l’entité, non-divulgation de mots de passe à un tiers, non-réutilisation de mots de passe professionnels dans la sphère privée et inversement, signalement d’événements suspects, etc. ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• les moyens disponibles et participant à la sécurité du système : verrouillage systématique de la session lorsque l’utilisateur quitte son poste, outil de protection des mots de passe, etc. </t>
+  </si>
+  <si>
+    <t>• d’étudier attentivement les conditions des offres, la possibilité de les adapter à des besoins spécifiques et les limites de responsabilité du prestataire ;</t>
+  </si>
+  <si>
+    <t>• d’imposer une liste d’exigences précises au prestataire : réversibilité du contrat, réalisation d’audits, sauvegarde et restitution des données dans un format ouvert normalisé, maintien à niveau de la sécurité dans le temps, etc.</t>
+  </si>
+  <si>
+    <t>• les utilisateurs ayant un compte administrateur ou des droits supérieurs à ceux d’un utilisateur standard sur le système d’information ;</t>
+  </si>
+  <si>
+    <t>• les utilisateurs disposant de suffisamment de droits pour accéder aux répertoires de travail des responsables ou de l’ensemble des utilisateurs ;</t>
+  </si>
+  <si>
+    <t>• la création et la suppression des comptes informatiques et boîtes aux lettres associées ;</t>
+  </si>
+  <si>
+    <t>• la gestion des accès physiques aux locaux (attribution, restitution des badges et des clés, etc.) ;</t>
+  </si>
+  <si>
+    <t>• l’affectation des équipements mobiles (ordinateur portable, clé USB, disque dur, ordiphone, etc.) ;</t>
+  </si>
+  <si>
+    <t>• la gestion des documents et informations sensibles (transfert de mots de passe, changement des mots de passe ou des codes sur les systèmes existants).</t>
+  </si>
+  <si>
+    <t>• de définir quelle population peut y avoir accès ;</t>
+  </si>
+  <si>
+    <t>• de contrôler strictement son accès, en s’assurant que les utilisateurs sont authentifiés et font partie de la population ciblée ;</t>
+  </si>
+  <si>
+    <t>• d’éviter sa dispersion et sa duplication à des endroits non maîtrisés ou soumis à un contrôle d’accès moins strict.</t>
+  </si>
+  <si>
+    <t>• le blocage des comptes à l’issue de plusieurs échecs de connexion ;</t>
+  </si>
+  <si>
+    <t>• la désactivation des options de connexion anonyme ;</t>
+  </si>
+  <si>
+    <t>• l’utilisation d’un outil d’audit de la robustesse des mots de passe.</t>
+  </si>
+  <si>
+    <t>Il est vivement recommandé de mettre en œuvre une authentification forte nécessitant l’utilisation de deux facteurs d’authentification différents parmi les suivants :
+• quelque chose que je sais (mot de passe, tracé de déverrouillage, signature) ;
+• quelque chose que je possède (carte à puce, jeton USB, carte magnétique, RFID, un téléphone pour recevoir un code SMS) ;
+• quelque chose que je suis (une empreinte biométrique).</t>
+  </si>
+  <si>
+    <t>• de disposer d’un système d’analyse antivirus en amont des boîtes aux lettres des utilisateurs pour prévenir la réception de fichiers infectés ;</t>
+  </si>
+  <si>
+    <t>• de l’activation du chiffrement TLS des échanges entre serveurs de messagerie (de l’entité ou publics) ainsi qu’entre les postes utilisateur et les serveurs hébergeant les boîtes aux lettres.</t>
+  </si>
+  <si>
+    <t>• de privilégier en premier lieu un cloisonnement physique des réseaux dès que cela est possible, cette solution pouvant représenter des coûts et un temps de déploiement importants;</t>
+  </si>
+  <si>
+    <t>• à défaut, de mettre en œuvre un cloisonnement logique cryptographique reposant sur la mise en place de tunnels IPsec. Ceci permet d’assurer l’intégrité et la confidentialité des informations véhiculées sur le réseau d’administration vis-à-vis du réseau bureautique des utilisateurs ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• au minimum, de mettre en œuvre un cloisonnement logique par VLAN. </t>
+  </si>
+  <si>
+    <t>• la manière dont l’inventaire des composants du système d’information est réalisé ;</t>
+  </si>
+  <si>
+    <t>• les sources d’information relatives à la publication des mises à jour ;</t>
+  </si>
+  <si>
+    <t>• les outils pour déployer les correctifs sur le parc (par exemple WSUS pour les mises à jour des composants Microsoft, des outils gratuits ou payants pour les composants tiers et autres systèmes d’exploitation) ;</t>
+  </si>
+  <si>
+    <t>• l’éventuelle qualification des correctifs et leur déploiement progressif sur le parc.</t>
+  </si>
+  <si>
+    <t>• établir et tenir à jour un inventaire des systèmes et applications du système d’information ;</t>
+  </si>
+  <si>
+    <t>• choisir des solutions dont le support est assuré pour une durée correspondant à leur utilisation ;</t>
+  </si>
+  <si>
+    <t>• assurer un suivi des mises à jour et des dates de fin de support des logiciels ;</t>
+  </si>
+  <si>
+    <t>• maintenir un parc logiciel homogène (la coexistence de versions différentes d’un même produit multiplie les risques et complique le suivi) ;</t>
+  </si>
+  <si>
+    <t>• limiter les adhérences logicielles, c’est-à-dire les dépendances de fonctionnement d’un logiciel par rapport à un autre, en particulier lorsque le support de ce dernier arrive à son terme ;</t>
+  </si>
+  <si>
+    <t>• inclure dans les contrats avec les prestataires et fournisseurs des clauses garantissant le suivi des correctifs de sécurité et la gestion des obsolescences ;</t>
+  </si>
+  <si>
+    <t>• identifier les délais et ressources nécessaires (matérielles, humaines, budgétaires) à la migration de chaque logiciel en fin de vie (tests de non-régression, procédure de sauvegarde, procédure de migration des données, etc.).</t>
+  </si>
+  <si>
+    <t>• pare-feu : paquets bloqués ;</t>
+  </si>
+  <si>
+    <t>• systèmes et applications : authentifications et autorisations (échecs et succès), arrêts inopinés ;</t>
+  </si>
+  <si>
+    <t>• services : erreurs de protocoles (par exemples les erreurs 403, 404 et 500 pour les services hTTP), traçabilité des flux applicatifs aux interconnexions (URL sur un relai HTTP, en-têtes des messages sur un relai SMTP, etc.).</t>
+  </si>
+  <si>
+    <t>• la liste des données jugées vitales pour l’organisme et les serveurs concernés ;</t>
+  </si>
+  <si>
+    <t>• les différents types de sauvegarde (par exemple le mode hors ligne) ;</t>
+  </si>
+  <si>
+    <t>• la fréquence des sauvegardes ;</t>
+  </si>
+  <si>
+    <t>• la procédure d’administration et d’exécution des sauvegardes ;</t>
+  </si>
+  <si>
+    <t>• les informations de stockage et les restrictions d’accès aux sauvegardes ;</t>
+  </si>
+  <si>
+    <t>• les procédures de test de restauration ;</t>
+  </si>
+  <si>
+    <t>•  la destruction des supports ayant contenu les sauvegardes.</t>
+  </si>
+  <si>
+    <t>• systématique, par un ordonnanceur de tâches pour les applications importantes ;</t>
+  </si>
+  <si>
+    <t>• ponctuelle, en cas d’erreur sur les fichiers ;</t>
+  </si>
+  <si>
+    <t>• générale, pour une sauvegarde et restauration entières du système d’information.</t>
+  </si>
+  <si>
+    <t>Ce référent devra être connu de tous les utilisateurs et sera le premier contact pour toutes les questions relatives à la sécurité des systèmes d’information :
+•  définition des règles à appliquer selon le contexte ;
+•  vérification de l’application des règles ;
+• sensibilisation des utilisateurs et définition d’un plan de formation des acteurs informatiques ;
+• centralisation et traitement des incidents de sécurité constatés ou remontés par les utilisateurs.</t>
+  </si>
+  <si>
+    <t>Trois types d’approches peuvent être envisagés pour maîtriser les risques associés à son système d’information :
+•  le recours aux bonnes pratiques de sécurité informatique ;
+• une analyse de risques systématique fondée sur les retours d’expérience des utilisateurs ;
+•  une gestion structurée des risques formalisée par une méthodologie dédiée.
+Dans ce dernier cas, la méthode EBIOS référencée par l’ANSSI est recommandée. Elle permet d’exprimer les besoins de sécurité, d’identifier les objectifs de sécurité et de déterminer les exigences de sécurité.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• les utilisateurs utilisant un poste non administré par le service informatique et qui ne fait pas l’objet de mesures de sécurité édictées par la politique de sécurité générale de l’entité. </t>
   </si>
 </sst>
 </file>
@@ -1977,7 +1977,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2041,6 +2041,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2394,7 +2397,7 @@
         <v>65</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -2418,7 +2421,7 @@
         <v>68</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2426,7 +2429,7 @@
         <v>69</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -2434,7 +2437,7 @@
         <v>70</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -2466,7 +2469,7 @@
         <v>75</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -2474,7 +2477,7 @@
         <v>76</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -2482,7 +2485,7 @@
         <v>77</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -2490,7 +2493,7 @@
         <v>78</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -2509,7 +2512,7 @@
         <v>79</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C15" t="s">
         <v>89</v>
@@ -2517,10 +2520,10 @@
     </row>
     <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>475</v>
+        <v>415</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>563</v>
+        <v>503</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -2544,9 +2547,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59F3B91E-FB51-FE47-B7BA-EB94A985CF95}">
   <dimension ref="A1:I260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A153" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G162" sqref="G162"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2582,13 +2585,13 @@
         <v>58</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>461</v>
+        <v>401</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>474</v>
+        <v>414</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>462</v>
+        <v>402</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -2629,13 +2632,13 @@
         <v>85</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>515</v>
+        <v>455</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>463</v>
+        <v>403</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -2648,14 +2651,14 @@
       <c r="C5" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>116</v>
+      <c r="F5" s="23" t="s">
+        <v>509</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>508</v>
+        <v>448</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -2668,14 +2671,14 @@
       <c r="C6" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>117</v>
+      <c r="F6" s="23" t="s">
+        <v>510</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>509</v>
+        <v>449</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -2688,14 +2691,14 @@
       <c r="C7" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>118</v>
+      <c r="F7" s="23" t="s">
+        <v>511</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>510</v>
+        <v>450</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -2708,14 +2711,14 @@
       <c r="C8" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>119</v>
+      <c r="F8" s="23" t="s">
+        <v>512</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>511</v>
+        <v>451</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -2728,14 +2731,14 @@
       <c r="C9" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>120</v>
+      <c r="F9" s="23" t="s">
+        <v>513</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>512</v>
+        <v>452</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -2748,14 +2751,14 @@
       <c r="C10" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>121</v>
+      <c r="F10" s="23" t="s">
+        <v>514</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>513</v>
+        <v>453</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -2768,14 +2771,14 @@
       <c r="C11" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>122</v>
+      <c r="F11" s="23" t="s">
+        <v>515</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>514</v>
+        <v>454</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="34" x14ac:dyDescent="0.2">
@@ -2789,13 +2792,13 @@
         <v>85</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="G12" t="s">
-        <v>516</v>
+        <v>456</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="34" x14ac:dyDescent="0.2">
@@ -2809,10 +2812,10 @@
         <v>85</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>476</v>
+        <v>416</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
@@ -2820,10 +2823,10 @@
         <v>2</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>1</v>
@@ -2842,13 +2845,13 @@
         <v>85</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>517</v>
+        <v>457</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="34" x14ac:dyDescent="0.2">
@@ -2862,13 +2865,13 @@
         <v>85</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>516</v>
+        <v>456</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -2876,19 +2879,19 @@
         <v>63</v>
       </c>
       <c r="B17" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>138</v>
+      <c r="F17" s="23" t="s">
+        <v>516</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>516</v>
+        <v>456</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="34" x14ac:dyDescent="0.2">
@@ -2896,19 +2899,19 @@
         <v>63</v>
       </c>
       <c r="B18" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>139</v>
+      <c r="F18" s="23" t="s">
+        <v>517</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>516</v>
+        <v>456</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -2916,19 +2919,19 @@
         <v>63</v>
       </c>
       <c r="B19" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F19" s="4" t="s">
-        <v>140</v>
+      <c r="F19" s="23" t="s">
+        <v>518</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>516</v>
+        <v>456</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="51" x14ac:dyDescent="0.2">
@@ -2936,19 +2939,19 @@
         <v>63</v>
       </c>
       <c r="B20" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F20" s="4" t="s">
-        <v>141</v>
+      <c r="F20" s="23" t="s">
+        <v>519</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>516</v>
+        <v>456</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="34" x14ac:dyDescent="0.2">
@@ -2956,19 +2959,19 @@
         <v>63</v>
       </c>
       <c r="B21" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F21" s="4" t="s">
-        <v>142</v>
+      <c r="F21" s="23" t="s">
+        <v>520</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>516</v>
+        <v>456</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="34" x14ac:dyDescent="0.2">
@@ -2985,13 +2988,13 @@
         <v>90</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>518</v>
+        <v>458</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>259</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="10" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -3002,7 +3005,7 @@
         <v>85</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>27</v>
@@ -3019,13 +3022,13 @@
         <v>85</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>519</v>
+        <v>459</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="51" x14ac:dyDescent="0.2">
@@ -3036,7 +3039,7 @@
         <v>85</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="G25" s="4"/>
     </row>
@@ -3050,14 +3053,14 @@
       <c r="C26" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F26" s="4" t="s">
-        <v>149</v>
+      <c r="F26" s="23" t="s">
+        <v>521</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>476</v>
+        <v>416</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="34" x14ac:dyDescent="0.2">
@@ -3070,14 +3073,14 @@
       <c r="C27" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F27" s="4" t="s">
-        <v>148</v>
+      <c r="F27" s="23" t="s">
+        <v>522</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>476</v>
+        <v>416</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="51" x14ac:dyDescent="0.2">
@@ -3091,13 +3094,13 @@
         <v>85</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>520</v>
+        <v>460</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="34" x14ac:dyDescent="0.2">
@@ -3111,16 +3114,16 @@
         <v>85</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>521</v>
+        <v>461</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>258</v>
+        <v>230</v>
       </c>
     </row>
     <row r="30" spans="1:9" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -3161,13 +3164,13 @@
         <v>85</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>522</v>
+        <v>462</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -3181,13 +3184,13 @@
         <v>85</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>523</v>
+        <v>463</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -3201,13 +3204,13 @@
         <v>85</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>524</v>
+        <v>464</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -3221,13 +3224,13 @@
         <v>85</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>524</v>
+        <v>464</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
     </row>
     <row r="36" spans="1:8" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
@@ -3257,13 +3260,13 @@
         <v>85</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>525</v>
+        <v>465</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -3276,14 +3279,14 @@
       <c r="C38" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F38" s="4" t="s">
-        <v>163</v>
+      <c r="F38" s="23" t="s">
+        <v>523</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>525</v>
+        <v>465</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -3296,14 +3299,14 @@
       <c r="C39" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F39" s="4" t="s">
-        <v>164</v>
+      <c r="F39" s="23" t="s">
+        <v>524</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>525</v>
+        <v>465</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -3316,14 +3319,14 @@
       <c r="C40" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F40" s="4" t="s">
-        <v>165</v>
+      <c r="F40" s="23" t="s">
+        <v>567</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>525</v>
+        <v>465</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -3337,13 +3340,13 @@
         <v>85</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="G41" t="s">
-        <v>495</v>
+        <v>435</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -3357,13 +3360,13 @@
         <v>85</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>477</v>
+        <v>417</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
     </row>
     <row r="43" spans="1:8" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
@@ -3371,7 +3374,7 @@
         <v>2</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D43" s="14">
         <v>6</v>
@@ -3390,13 +3393,13 @@
         <v>3</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>477</v>
+        <v>417</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -3409,14 +3412,14 @@
       <c r="C45" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F45" s="4" t="s">
-        <v>170</v>
+      <c r="F45" s="23" t="s">
+        <v>525</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>496</v>
+        <v>436</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -3429,14 +3432,14 @@
       <c r="C46" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F46" s="4" t="s">
-        <v>171</v>
+      <c r="F46" s="23" t="s">
+        <v>526</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>497</v>
+        <v>437</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -3449,14 +3452,14 @@
       <c r="C47" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F47" s="4" t="s">
-        <v>172</v>
+      <c r="F47" s="23" t="s">
+        <v>527</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>478</v>
+        <v>418</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -3469,14 +3472,14 @@
       <c r="C48" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F48" s="4" t="s">
-        <v>173</v>
+      <c r="F48" s="23" t="s">
+        <v>528</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>479</v>
+        <v>419</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -3484,7 +3487,7 @@
         <v>63</v>
       </c>
       <c r="B49" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>86</v>
@@ -3493,10 +3496,10 @@
         <v>91</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>523</v>
+        <v>463</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
     </row>
     <row r="50" spans="1:9" s="13" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -3504,7 +3507,7 @@
         <v>2</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D50" s="14">
         <v>7</v>
@@ -3526,13 +3529,13 @@
         <v>85</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>480</v>
+        <v>420</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="51" x14ac:dyDescent="0.2">
@@ -3546,13 +3549,13 @@
         <v>85</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>481</v>
+        <v>421</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="34" x14ac:dyDescent="0.2">
@@ -3566,13 +3569,13 @@
         <v>85</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>480</v>
+        <v>420</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="34" x14ac:dyDescent="0.2">
@@ -3589,13 +3592,13 @@
         <v>92</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>537</v>
+        <v>477</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>262</v>
+        <v>234</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>263</v>
+        <v>235</v>
       </c>
     </row>
     <row r="55" spans="1:9" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -3614,7 +3617,7 @@
         <v>2</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D56" s="14">
         <v>8</v>
@@ -3636,13 +3639,13 @@
         <v>85</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>477</v>
+        <v>417</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="68" x14ac:dyDescent="0.2">
@@ -3656,13 +3659,13 @@
         <v>85</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>526</v>
+        <v>466</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="68" x14ac:dyDescent="0.2">
@@ -3676,13 +3679,13 @@
         <v>85</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>526</v>
+        <v>466</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="51" x14ac:dyDescent="0.2">
@@ -3699,13 +3702,13 @@
         <v>93</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>538</v>
+        <v>478</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>261</v>
+        <v>233</v>
       </c>
     </row>
     <row r="61" spans="1:9" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
@@ -3735,13 +3738,13 @@
         <v>85</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>521</v>
+        <v>461</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -3754,14 +3757,14 @@
       <c r="C63" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F63" s="4" t="s">
-        <v>196</v>
+      <c r="F63" s="23" t="s">
+        <v>529</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>477</v>
+        <v>417</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="34" x14ac:dyDescent="0.2">
@@ -3774,14 +3777,14 @@
       <c r="C64" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F64" s="4" t="s">
-        <v>197</v>
+      <c r="F64" s="23" t="s">
+        <v>530</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>498</v>
+        <v>438</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -3794,14 +3797,14 @@
       <c r="C65" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F65" s="4" t="s">
-        <v>198</v>
+      <c r="F65" s="23" t="s">
+        <v>531</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>481</v>
+        <v>421</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -3815,13 +3818,13 @@
         <v>85</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>477</v>
+        <v>417</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="34" x14ac:dyDescent="0.2">
@@ -3835,13 +3838,13 @@
         <v>85</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>480</v>
+        <v>420</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -3855,13 +3858,13 @@
         <v>85</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>495</v>
+        <v>435</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
     </row>
     <row r="69" spans="1:9" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
@@ -3891,16 +3894,16 @@
         <v>85</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>477</v>
+        <v>417</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -3914,13 +3917,13 @@
         <v>85</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>477</v>
+        <v>417</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -3933,14 +3936,14 @@
       <c r="C72" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F72" s="4" t="s">
-        <v>204</v>
+      <c r="F72" s="23" t="s">
+        <v>532</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>477</v>
+        <v>417</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -3953,14 +3956,14 @@
       <c r="C73" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F73" s="4" t="s">
-        <v>205</v>
+      <c r="F73" s="23" t="s">
+        <v>533</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>477</v>
+        <v>417</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -3973,14 +3976,14 @@
       <c r="C74" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F74" s="4" t="s">
-        <v>206</v>
+      <c r="F74" s="23" t="s">
+        <v>534</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>477</v>
+        <v>417</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="34" x14ac:dyDescent="0.2">
@@ -3994,13 +3997,13 @@
         <v>85</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>516</v>
+        <v>456</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="76" spans="1:9" s="13" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -4030,16 +4033,16 @@
         <v>85</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>207</v>
+        <v>179</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>539</v>
+        <v>479</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>209</v>
+        <v>181</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>464</v>
+        <v>404</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="34" x14ac:dyDescent="0.2">
@@ -4053,13 +4056,13 @@
         <v>85</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>527</v>
+        <v>467</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
     </row>
     <row r="79" spans="1:9" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
@@ -4089,13 +4092,13 @@
         <v>85</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>477</v>
+        <v>417</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="34" x14ac:dyDescent="0.2">
@@ -4109,11 +4112,11 @@
         <v>85</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
       <c r="G81" s="4"/>
       <c r="I81" s="5" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="34" x14ac:dyDescent="0.2">
@@ -4130,10 +4133,10 @@
         <v>95</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>477</v>
+        <v>417</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
     </row>
     <row r="83" spans="1:9" s="13" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -4163,16 +4166,16 @@
         <v>85</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>96</v>
+        <v>535</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>477</v>
+        <v>417</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="I84" s="5" t="s">
-        <v>210</v>
+        <v>182</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="68" x14ac:dyDescent="0.2">
@@ -4186,16 +4189,16 @@
         <v>86</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>477</v>
+        <v>417</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="I85" s="5" t="s">
-        <v>211</v>
+        <v>183</v>
       </c>
     </row>
     <row r="86" spans="1:9" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -4214,7 +4217,7 @@
         <v>2</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D87" s="14">
         <v>14</v>
@@ -4236,13 +4239,13 @@
         <v>85</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>478</v>
+        <v>418</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -4256,16 +4259,16 @@
         <v>85</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>540</v>
+        <v>480</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="51" x14ac:dyDescent="0.2">
@@ -4279,16 +4282,16 @@
         <v>85</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>541</v>
+        <v>481</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="I90" s="4" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -4302,16 +4305,16 @@
         <v>85</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>542</v>
+        <v>482</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="I91" s="5" t="s">
-        <v>226</v>
+        <v>198</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -4325,13 +4328,13 @@
         <v>85</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>499</v>
+        <v>439</v>
       </c>
       <c r="I92" s="4" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="34" x14ac:dyDescent="0.2">
@@ -4345,16 +4348,16 @@
         <v>85</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>217</v>
+        <v>189</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>480</v>
+        <v>420</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="I93" s="5" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="68" x14ac:dyDescent="0.2">
@@ -4368,14 +4371,14 @@
         <v>86</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>543</v>
+        <v>483</v>
       </c>
       <c r="H94" s="4"/>
       <c r="I94" s="4" t="s">
-        <v>465</v>
+        <v>405</v>
       </c>
     </row>
     <row r="95" spans="1:9" s="13" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -4383,7 +4386,7 @@
         <v>2</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D95" s="14">
         <v>15</v>
@@ -4405,16 +4408,16 @@
         <v>85</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>478</v>
+        <v>418</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="51" x14ac:dyDescent="0.2">
@@ -4428,16 +4431,16 @@
         <v>85</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>234</v>
+        <v>206</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>544</v>
+        <v>484</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>236</v>
+        <v>208</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="34" x14ac:dyDescent="0.2">
@@ -4451,16 +4454,16 @@
         <v>86</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>544</v>
+        <v>484</v>
       </c>
       <c r="H98" s="5" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="I98" s="5" t="s">
-        <v>236</v>
+        <v>208</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="34" x14ac:dyDescent="0.2">
@@ -4474,13 +4477,13 @@
         <v>86</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>500</v>
+        <v>440</v>
       </c>
       <c r="H99" s="5" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
     </row>
     <row r="100" spans="1:9" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
@@ -4513,13 +4516,13 @@
         <v>57</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>540</v>
+        <v>480</v>
       </c>
       <c r="H101" s="5" t="s">
-        <v>240</v>
+        <v>212</v>
       </c>
       <c r="I101" s="4" t="s">
-        <v>241</v>
+        <v>213</v>
       </c>
     </row>
     <row r="102" spans="1:9" s="13" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -4549,16 +4552,16 @@
         <v>85</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>544</v>
+        <v>484</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="I103" s="4" t="s">
-        <v>249</v>
+        <v>221</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="51" x14ac:dyDescent="0.2">
@@ -4572,13 +4575,13 @@
         <v>86</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>544</v>
+        <v>484</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="51" x14ac:dyDescent="0.2">
@@ -4592,13 +4595,13 @@
         <v>86</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>528</v>
+        <v>468</v>
       </c>
       <c r="H105" s="5" t="s">
-        <v>246</v>
+        <v>218</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="34" x14ac:dyDescent="0.2">
@@ -4612,16 +4615,16 @@
         <v>86</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>245</v>
+        <v>217</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>545</v>
+        <v>485</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>247</v>
+        <v>219</v>
       </c>
       <c r="I106" s="5" t="s">
-        <v>248</v>
+        <v>220</v>
       </c>
     </row>
     <row r="107" spans="1:9" s="13" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -4651,16 +4654,16 @@
         <v>85</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>250</v>
+        <v>222</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>564</v>
+        <v>504</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>254</v>
+        <v>226</v>
       </c>
       <c r="I108" s="4" t="s">
-        <v>255</v>
+        <v>227</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="51" x14ac:dyDescent="0.2">
@@ -4674,16 +4677,16 @@
         <v>85</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>482</v>
+        <v>422</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>256</v>
+        <v>228</v>
       </c>
       <c r="I109" s="5" t="s">
-        <v>257</v>
+        <v>229</v>
       </c>
     </row>
     <row r="110" spans="1:9" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -4724,13 +4727,13 @@
         <v>85</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>264</v>
+        <v>236</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>480</v>
+        <v>420</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>269</v>
+        <v>241</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="51" x14ac:dyDescent="0.2">
@@ -4744,13 +4747,13 @@
         <v>85</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>265</v>
+        <v>237</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>562</v>
+        <v>502</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>270</v>
+        <v>242</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="34" x14ac:dyDescent="0.2">
@@ -4764,16 +4767,16 @@
         <v>85</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>266</v>
+        <v>238</v>
       </c>
       <c r="G114" s="22" t="s">
-        <v>546</v>
+        <v>486</v>
       </c>
       <c r="H114" s="5" t="s">
-        <v>267</v>
+        <v>239</v>
       </c>
       <c r="I114" s="5" t="s">
-        <v>268</v>
+        <v>240</v>
       </c>
     </row>
     <row r="115" spans="1:9" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
@@ -4803,16 +4806,16 @@
         <v>85</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>271</v>
+        <v>243</v>
       </c>
       <c r="G116" s="22" t="s">
-        <v>562</v>
+        <v>502</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>270</v>
+        <v>242</v>
       </c>
       <c r="I116" s="5" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="51" x14ac:dyDescent="0.2">
@@ -4826,13 +4829,13 @@
         <v>85</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>272</v>
+        <v>244</v>
       </c>
       <c r="G117" s="22" t="s">
-        <v>547</v>
+        <v>487</v>
       </c>
       <c r="I117" s="4" t="s">
-        <v>469</v>
+        <v>409</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="34" x14ac:dyDescent="0.2">
@@ -4846,13 +4849,13 @@
         <v>85</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>273</v>
+        <v>245</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>480</v>
+        <v>420</v>
       </c>
       <c r="H118" s="5" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="34" x14ac:dyDescent="0.2">
@@ -4866,16 +4869,16 @@
         <v>85</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>276</v>
+        <v>248</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>480</v>
+        <v>420</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>277</v>
+        <v>249</v>
       </c>
       <c r="I119" s="5" t="s">
-        <v>278</v>
+        <v>250</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="34" x14ac:dyDescent="0.2">
@@ -4889,16 +4892,16 @@
         <v>85</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>480</v>
+        <v>420</v>
       </c>
       <c r="H120" s="5" t="s">
-        <v>279</v>
+        <v>251</v>
       </c>
       <c r="I120" s="5" t="s">
-        <v>470</v>
+        <v>410</v>
       </c>
     </row>
     <row r="121" spans="1:9" s="13" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -4928,16 +4931,16 @@
         <v>85</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>280</v>
+        <v>252</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>482</v>
+        <v>422</v>
       </c>
       <c r="H122" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="I122" s="5" t="s">
         <v>253</v>
-      </c>
-      <c r="I122" s="5" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="123" spans="1:9" s="13" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -4945,7 +4948,7 @@
         <v>2</v>
       </c>
       <c r="C123" s="13" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D123" s="14">
         <v>22</v>
@@ -4967,13 +4970,13 @@
         <v>85</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>480</v>
+        <v>420</v>
       </c>
       <c r="H124" s="5" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="51" x14ac:dyDescent="0.2">
@@ -4987,16 +4990,16 @@
         <v>85</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>283</v>
+        <v>255</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>565</v>
+        <v>505</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="I125" s="5" t="s">
-        <v>300</v>
+        <v>272</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="34" x14ac:dyDescent="0.2">
@@ -5010,11 +5013,11 @@
         <v>86</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>286</v>
+        <v>258</v>
       </c>
       <c r="G126" s="4"/>
       <c r="H126" s="4" t="s">
-        <v>299</v>
+        <v>271</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5028,13 +5031,13 @@
         <v>86</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>287</v>
+        <v>259</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>483</v>
+        <v>423</v>
       </c>
       <c r="H127" s="4" t="s">
-        <v>290</v>
+        <v>262</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5048,11 +5051,11 @@
         <v>86</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
       <c r="G128" s="4"/>
       <c r="H128" s="4" t="s">
-        <v>291</v>
+        <v>263</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="34" x14ac:dyDescent="0.2">
@@ -5066,13 +5069,13 @@
         <v>86</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>289</v>
+        <v>261</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>565</v>
+        <v>505</v>
       </c>
       <c r="H129" s="4" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="34" x14ac:dyDescent="0.2">
@@ -5086,16 +5089,16 @@
         <v>86</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>288</v>
+        <v>260</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>548</v>
+        <v>488</v>
       </c>
       <c r="H130" s="5" t="s">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="I130" s="5" t="s">
-        <v>293</v>
+        <v>265</v>
       </c>
     </row>
     <row r="131" spans="1:9" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
@@ -5125,13 +5128,13 @@
         <v>85</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>294</v>
+        <v>266</v>
       </c>
       <c r="G132" s="22" t="s">
-        <v>529</v>
+        <v>469</v>
       </c>
       <c r="H132" s="4" t="s">
-        <v>471</v>
+        <v>411</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="34" x14ac:dyDescent="0.2">
@@ -5145,16 +5148,16 @@
         <v>85</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>295</v>
+        <v>267</v>
       </c>
       <c r="G133" s="22" t="s">
-        <v>560</v>
+        <v>500</v>
       </c>
       <c r="H133" s="4" t="s">
-        <v>297</v>
+        <v>269</v>
       </c>
       <c r="I133" s="5" t="s">
-        <v>472</v>
+        <v>412</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="51" x14ac:dyDescent="0.2">
@@ -5168,13 +5171,13 @@
         <v>85</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>296</v>
+        <v>268</v>
       </c>
       <c r="G134" s="22" t="s">
-        <v>561</v>
+        <v>501</v>
       </c>
       <c r="H134" s="4" t="s">
-        <v>298</v>
+        <v>270</v>
       </c>
     </row>
     <row r="135" spans="1:9" s="13" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -5182,7 +5185,7 @@
         <v>2</v>
       </c>
       <c r="C135" s="13" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D135" s="14">
         <v>24</v>
@@ -5204,16 +5207,16 @@
         <v>85</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>301</v>
+        <v>273</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>516</v>
+        <v>456</v>
       </c>
       <c r="H136" s="4" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="I136" s="5" t="s">
-        <v>466</v>
+        <v>406</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="34" x14ac:dyDescent="0.2">
@@ -5227,16 +5230,16 @@
         <v>85</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>302</v>
+        <v>274</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>484</v>
+        <v>424</v>
       </c>
       <c r="H137" s="5" t="s">
-        <v>309</v>
+        <v>279</v>
       </c>
       <c r="I137" s="5" t="s">
-        <v>310</v>
+        <v>280</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="34" x14ac:dyDescent="0.2">
@@ -5250,13 +5253,13 @@
         <v>85</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>303</v>
+        <v>275</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>481</v>
+        <v>421</v>
       </c>
       <c r="H138" s="5" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5267,7 +5270,7 @@
         <v>85</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="G139" s="4"/>
     </row>
@@ -5282,13 +5285,13 @@
         <v>85</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>305</v>
+        <v>536</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>566</v>
+        <v>506</v>
       </c>
       <c r="H140" s="4" t="s">
-        <v>311</v>
+        <v>281</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="34" x14ac:dyDescent="0.2">
@@ -5302,13 +5305,13 @@
         <v>85</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>306</v>
+        <v>537</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>482</v>
+        <v>422</v>
       </c>
       <c r="H141" s="4" t="s">
-        <v>253</v>
+        <v>225</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="34" x14ac:dyDescent="0.2">
@@ -5322,16 +5325,16 @@
         <v>86</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>312</v>
+        <v>282</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>559</v>
+        <v>499</v>
       </c>
       <c r="H142" s="5" t="s">
-        <v>315</v>
+        <v>285</v>
       </c>
       <c r="I142" s="5" t="s">
-        <v>316</v>
+        <v>286</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="34" x14ac:dyDescent="0.2">
@@ -5345,16 +5348,16 @@
         <v>86</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>307</v>
+        <v>277</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>559</v>
+        <v>499</v>
       </c>
       <c r="H143" s="5" t="s">
-        <v>313</v>
+        <v>283</v>
       </c>
       <c r="I143" s="5" t="s">
-        <v>314</v>
+        <v>284</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="34" x14ac:dyDescent="0.2">
@@ -5368,16 +5371,16 @@
         <v>86</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>308</v>
+        <v>278</v>
       </c>
       <c r="G144" s="22" t="s">
-        <v>501</v>
+        <v>441</v>
       </c>
       <c r="H144" s="5" t="s">
-        <v>317</v>
+        <v>287</v>
       </c>
       <c r="I144" s="5" t="s">
-        <v>473</v>
+        <v>413</v>
       </c>
     </row>
     <row r="145" spans="1:9" s="13" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -5385,7 +5388,7 @@
         <v>2</v>
       </c>
       <c r="C145" s="13" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D145" s="14">
         <v>25</v>
@@ -5407,16 +5410,16 @@
         <v>85</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>318</v>
+        <v>288</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>548</v>
+        <v>488</v>
       </c>
       <c r="H146" s="5" t="s">
-        <v>323</v>
+        <v>293</v>
       </c>
       <c r="I146" s="5" t="s">
-        <v>324</v>
+        <v>294</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="51" x14ac:dyDescent="0.2">
@@ -5430,13 +5433,13 @@
         <v>85</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>319</v>
+        <v>289</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>560</v>
+        <v>500</v>
       </c>
       <c r="H147" s="5" t="s">
-        <v>326</v>
+        <v>296</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="34" x14ac:dyDescent="0.2">
@@ -5450,13 +5453,13 @@
         <v>86</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>320</v>
+        <v>290</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>560</v>
+        <v>500</v>
       </c>
       <c r="H148" s="5" t="s">
-        <v>325</v>
+        <v>295</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5470,13 +5473,13 @@
         <v>86</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>321</v>
+        <v>291</v>
       </c>
       <c r="G149" s="22" t="s">
-        <v>549</v>
+        <v>489</v>
       </c>
       <c r="H149" s="5" t="s">
-        <v>327</v>
+        <v>297</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5490,13 +5493,13 @@
         <v>86</v>
       </c>
       <c r="F150" s="4" t="s">
-        <v>322</v>
+        <v>292</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>502</v>
+        <v>442</v>
       </c>
       <c r="H150" s="5" t="s">
-        <v>328</v>
+        <v>298</v>
       </c>
     </row>
     <row r="151" spans="1:9" s="13" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -5526,13 +5529,13 @@
         <v>85</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>329</v>
+        <v>299</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>485</v>
+        <v>425</v>
       </c>
       <c r="H152" s="16" t="s">
-        <v>334</v>
+        <v>304</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5546,13 +5549,13 @@
         <v>85</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>485</v>
+        <v>425</v>
       </c>
       <c r="H153" s="16" t="s">
-        <v>334</v>
+        <v>304</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="34" x14ac:dyDescent="0.2">
@@ -5566,13 +5569,13 @@
         <v>85</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>335</v>
+        <v>305</v>
       </c>
       <c r="G154" t="s">
-        <v>497</v>
+        <v>437</v>
       </c>
       <c r="H154" s="5" t="s">
-        <v>337</v>
+        <v>307</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5586,13 +5589,13 @@
         <v>85</v>
       </c>
       <c r="F155" s="4" t="s">
-        <v>331</v>
+        <v>301</v>
       </c>
       <c r="G155" t="s">
-        <v>497</v>
+        <v>437</v>
       </c>
       <c r="H155" s="5" t="s">
-        <v>336</v>
+        <v>306</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="34" x14ac:dyDescent="0.2">
@@ -5606,13 +5609,13 @@
         <v>85</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>333</v>
+        <v>303</v>
       </c>
       <c r="G156" s="19" t="s">
-        <v>503</v>
+        <v>443</v>
       </c>
       <c r="H156" s="5" t="s">
-        <v>338</v>
+        <v>308</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="34" x14ac:dyDescent="0.2">
@@ -5626,13 +5629,13 @@
         <v>85</v>
       </c>
       <c r="F157" s="4" t="s">
-        <v>332</v>
+        <v>302</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>480</v>
+        <v>420</v>
       </c>
       <c r="H157" s="5" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
     </row>
     <row r="158" spans="1:9" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -5651,7 +5654,7 @@
         <v>2</v>
       </c>
       <c r="C159" s="13" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D159" s="14">
         <v>27</v>
@@ -5673,13 +5676,13 @@
         <v>85</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>339</v>
+        <v>309</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>480</v>
+        <v>420</v>
       </c>
       <c r="H160" s="5" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="68" x14ac:dyDescent="0.2">
@@ -5693,16 +5696,16 @@
         <v>85</v>
       </c>
       <c r="F161" s="4" t="s">
-        <v>340</v>
+        <v>310</v>
       </c>
       <c r="G161" s="22" t="s">
-        <v>567</v>
+        <v>507</v>
       </c>
       <c r="H161" s="4" t="s">
-        <v>341</v>
+        <v>311</v>
       </c>
       <c r="I161" s="5" t="s">
-        <v>468</v>
+        <v>408</v>
       </c>
     </row>
     <row r="162" spans="1:9" ht="34" x14ac:dyDescent="0.2">
@@ -5716,16 +5719,16 @@
         <v>86</v>
       </c>
       <c r="F162" s="4" t="s">
-        <v>345</v>
+        <v>315</v>
       </c>
       <c r="G162" s="22" t="s">
-        <v>504</v>
+        <v>444</v>
       </c>
       <c r="H162" s="4" t="s">
-        <v>348</v>
+        <v>318</v>
       </c>
       <c r="I162" s="5" t="s">
-        <v>349</v>
+        <v>319</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5739,16 +5742,16 @@
         <v>86</v>
       </c>
       <c r="F163" s="4" t="s">
-        <v>346</v>
+        <v>316</v>
       </c>
       <c r="G163" s="22" t="s">
-        <v>504</v>
+        <v>444</v>
       </c>
       <c r="H163" s="4" t="s">
-        <v>347</v>
+        <v>317</v>
       </c>
       <c r="I163" s="5" t="s">
-        <v>344</v>
+        <v>314</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5762,13 +5765,13 @@
         <v>86</v>
       </c>
       <c r="F164" s="4" t="s">
-        <v>342</v>
+        <v>312</v>
       </c>
       <c r="G164" s="22" t="s">
-        <v>504</v>
+        <v>444</v>
       </c>
       <c r="H164" s="5" t="s">
-        <v>343</v>
+        <v>313</v>
       </c>
     </row>
     <row r="165" spans="1:9" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
@@ -5776,7 +5779,7 @@
         <v>2</v>
       </c>
       <c r="C165" s="13" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D165" s="14">
         <v>28</v>
@@ -5798,13 +5801,13 @@
         <v>85</v>
       </c>
       <c r="F166" s="4" t="s">
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>480</v>
+        <v>420</v>
       </c>
       <c r="H166" s="5" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
     </row>
     <row r="167" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5815,7 +5818,7 @@
         <v>85</v>
       </c>
       <c r="F167" s="4" t="s">
-        <v>351</v>
+        <v>321</v>
       </c>
       <c r="G167" s="4"/>
     </row>
@@ -5830,13 +5833,13 @@
         <v>86</v>
       </c>
       <c r="F168" s="4" t="s">
-        <v>352</v>
+        <v>538</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>480</v>
+        <v>420</v>
       </c>
       <c r="H168" s="5" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
     </row>
     <row r="169" spans="1:9" ht="34" x14ac:dyDescent="0.2">
@@ -5850,13 +5853,13 @@
         <v>85</v>
       </c>
       <c r="F169" s="4" t="s">
-        <v>354</v>
+        <v>539</v>
       </c>
       <c r="G169" s="4" t="s">
-        <v>480</v>
+        <v>420</v>
       </c>
       <c r="H169" s="5" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5870,13 +5873,13 @@
         <v>85</v>
       </c>
       <c r="F170" s="4" t="s">
-        <v>353</v>
+        <v>540</v>
       </c>
       <c r="G170" s="4" t="s">
-        <v>480</v>
+        <v>420</v>
       </c>
       <c r="H170" s="5" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
     </row>
     <row r="171" spans="1:9" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
@@ -5906,13 +5909,13 @@
         <v>85</v>
       </c>
       <c r="F172" s="4" t="s">
-        <v>355</v>
+        <v>322</v>
       </c>
       <c r="G172" s="4" t="s">
-        <v>478</v>
+        <v>418</v>
       </c>
       <c r="H172" s="5" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
     </row>
     <row r="173" spans="1:9" ht="68" x14ac:dyDescent="0.2">
@@ -5926,13 +5929,13 @@
         <v>85</v>
       </c>
       <c r="F173" s="4" t="s">
-        <v>356</v>
+        <v>323</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>530</v>
+        <v>470</v>
       </c>
       <c r="H173" s="17" t="s">
-        <v>357</v>
+        <v>324</v>
       </c>
     </row>
     <row r="174" spans="1:9" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -5951,7 +5954,7 @@
         <v>2</v>
       </c>
       <c r="C175" s="13" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D175" s="14">
         <v>30</v>
@@ -5973,13 +5976,13 @@
         <v>85</v>
       </c>
       <c r="F176" s="4" t="s">
-        <v>358</v>
+        <v>325</v>
       </c>
       <c r="G176" s="19" t="s">
-        <v>478</v>
+        <v>418</v>
       </c>
       <c r="H176" s="5" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
     </row>
     <row r="177" spans="1:9" ht="51" x14ac:dyDescent="0.2">
@@ -5993,13 +5996,13 @@
         <v>85</v>
       </c>
       <c r="F177" s="4" t="s">
-        <v>359</v>
+        <v>326</v>
       </c>
       <c r="G177" s="4" t="s">
-        <v>515</v>
+        <v>455</v>
       </c>
       <c r="H177" s="4" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
     </row>
     <row r="178" spans="1:9" ht="34" x14ac:dyDescent="0.2">
@@ -6013,13 +6016,13 @@
         <v>85</v>
       </c>
       <c r="F178" s="4" t="s">
-        <v>361</v>
+        <v>328</v>
       </c>
       <c r="G178" s="4" t="s">
-        <v>516</v>
+        <v>456</v>
       </c>
       <c r="H178" s="5" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="179" spans="1:9" ht="34" x14ac:dyDescent="0.2">
@@ -6033,13 +6036,13 @@
         <v>85</v>
       </c>
       <c r="F179" s="4" t="s">
-        <v>360</v>
+        <v>327</v>
       </c>
       <c r="G179" s="4" t="s">
-        <v>550</v>
+        <v>490</v>
       </c>
       <c r="H179" s="5" t="s">
-        <v>362</v>
+        <v>329</v>
       </c>
     </row>
     <row r="180" spans="1:9" ht="34" x14ac:dyDescent="0.2">
@@ -6053,13 +6056,13 @@
         <v>86</v>
       </c>
       <c r="F180" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G180" s="4" t="s">
-        <v>542</v>
+        <v>482</v>
       </c>
       <c r="H180" s="4" t="s">
-        <v>363</v>
+        <v>330</v>
       </c>
     </row>
     <row r="181" spans="1:9" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
@@ -6089,13 +6092,13 @@
         <v>85</v>
       </c>
       <c r="F182" s="4" t="s">
-        <v>364</v>
+        <v>331</v>
       </c>
       <c r="G182" s="4" t="s">
-        <v>486</v>
+        <v>426</v>
       </c>
       <c r="H182" s="4" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
     </row>
     <row r="183" spans="1:9" ht="34" x14ac:dyDescent="0.2">
@@ -6109,13 +6112,13 @@
         <v>85</v>
       </c>
       <c r="F183" s="4" t="s">
-        <v>365</v>
+        <v>332</v>
       </c>
       <c r="G183" s="4" t="s">
-        <v>551</v>
+        <v>491</v>
       </c>
       <c r="H183" s="4" t="s">
-        <v>367</v>
+        <v>334</v>
       </c>
     </row>
     <row r="184" spans="1:9" ht="51" x14ac:dyDescent="0.2">
@@ -6129,13 +6132,13 @@
         <v>85</v>
       </c>
       <c r="F184" s="4" t="s">
-        <v>366</v>
+        <v>333</v>
       </c>
       <c r="G184" s="4" t="s">
-        <v>542</v>
+        <v>482</v>
       </c>
       <c r="H184" s="5" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
     </row>
     <row r="185" spans="1:9" s="13" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -6143,7 +6146,7 @@
         <v>2</v>
       </c>
       <c r="C185" s="13" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D185" s="14">
         <v>32</v>
@@ -6165,13 +6168,13 @@
         <v>85</v>
       </c>
       <c r="F186" s="4" t="s">
-        <v>368</v>
+        <v>335</v>
       </c>
       <c r="G186" s="4" t="s">
-        <v>548</v>
+        <v>488</v>
       </c>
       <c r="H186" s="5" t="s">
-        <v>372</v>
+        <v>338</v>
       </c>
     </row>
     <row r="187" spans="1:9" ht="34" x14ac:dyDescent="0.2">
@@ -6185,13 +6188,13 @@
         <v>85</v>
       </c>
       <c r="F187" s="4" t="s">
-        <v>369</v>
+        <v>336</v>
       </c>
       <c r="G187" s="4" t="s">
-        <v>552</v>
+        <v>492</v>
       </c>
       <c r="H187" s="4" t="s">
-        <v>373</v>
+        <v>339</v>
       </c>
     </row>
     <row r="188" spans="1:9" ht="51" x14ac:dyDescent="0.2">
@@ -6205,16 +6208,16 @@
         <v>85</v>
       </c>
       <c r="F188" s="4" t="s">
-        <v>370</v>
+        <v>337</v>
       </c>
       <c r="G188" s="4" t="s">
-        <v>548</v>
+        <v>488</v>
       </c>
       <c r="H188" s="5" t="s">
-        <v>374</v>
+        <v>340</v>
       </c>
       <c r="I188" s="5" t="s">
-        <v>375</v>
+        <v>341</v>
       </c>
     </row>
     <row r="189" spans="1:9" ht="51" x14ac:dyDescent="0.2">
@@ -6228,16 +6231,16 @@
         <v>86</v>
       </c>
       <c r="F189" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G189" s="4" t="s">
-        <v>553</v>
+        <v>493</v>
       </c>
       <c r="H189" s="5" t="s">
-        <v>376</v>
+        <v>342</v>
       </c>
       <c r="I189" s="5" t="s">
-        <v>371</v>
+        <v>508</v>
       </c>
     </row>
     <row r="190" spans="1:9" s="13" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -6245,7 +6248,7 @@
         <v>2</v>
       </c>
       <c r="C190" s="13" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D190" s="14">
         <v>33</v>
@@ -6267,13 +6270,13 @@
         <v>85</v>
       </c>
       <c r="F191" s="4" t="s">
-        <v>377</v>
+        <v>343</v>
       </c>
       <c r="G191" s="4" t="s">
-        <v>487</v>
+        <v>427</v>
       </c>
       <c r="H191" s="4" t="s">
-        <v>381</v>
+        <v>347</v>
       </c>
     </row>
     <row r="192" spans="1:9" ht="85" x14ac:dyDescent="0.2">
@@ -6287,13 +6290,13 @@
         <v>85</v>
       </c>
       <c r="F192" s="4" t="s">
-        <v>378</v>
+        <v>344</v>
       </c>
       <c r="G192" s="4" t="s">
-        <v>540</v>
+        <v>480</v>
       </c>
       <c r="H192" s="5" t="s">
-        <v>382</v>
+        <v>348</v>
       </c>
     </row>
     <row r="193" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -6307,13 +6310,13 @@
         <v>85</v>
       </c>
       <c r="F193" s="4" t="s">
-        <v>379</v>
+        <v>345</v>
       </c>
       <c r="G193" s="4" t="s">
-        <v>478</v>
+        <v>418</v>
       </c>
       <c r="H193" s="5" t="s">
-        <v>380</v>
+        <v>346</v>
       </c>
     </row>
     <row r="194" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -6327,13 +6330,13 @@
         <v>86</v>
       </c>
       <c r="F194" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G194" s="4" t="s">
-        <v>554</v>
+        <v>494</v>
       </c>
       <c r="H194" s="4" t="s">
-        <v>383</v>
+        <v>349</v>
       </c>
     </row>
     <row r="195" spans="1:8" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -6374,13 +6377,13 @@
         <v>85</v>
       </c>
       <c r="F197" s="4" t="s">
-        <v>384</v>
+        <v>350</v>
       </c>
       <c r="G197" s="4" t="s">
-        <v>483</v>
+        <v>423</v>
       </c>
       <c r="H197" s="5" t="s">
-        <v>290</v>
+        <v>262</v>
       </c>
     </row>
     <row r="198" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -6391,7 +6394,7 @@
         <v>85</v>
       </c>
       <c r="F198" s="4" t="s">
-        <v>385</v>
+        <v>351</v>
       </c>
       <c r="G198" s="4"/>
     </row>
@@ -6406,13 +6409,13 @@
         <v>85</v>
       </c>
       <c r="F199" s="4" t="s">
-        <v>387</v>
+        <v>541</v>
       </c>
       <c r="G199" s="19" t="s">
-        <v>504</v>
+        <v>444</v>
       </c>
       <c r="H199" s="5" t="s">
-        <v>391</v>
+        <v>353</v>
       </c>
     </row>
     <row r="200" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -6426,13 +6429,13 @@
         <v>85</v>
       </c>
       <c r="F200" s="4" t="s">
-        <v>388</v>
+        <v>542</v>
       </c>
       <c r="G200" s="4" t="s">
-        <v>505</v>
+        <v>445</v>
       </c>
       <c r="H200" s="4" t="s">
-        <v>392</v>
+        <v>354</v>
       </c>
     </row>
     <row r="201" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -6446,13 +6449,13 @@
         <v>85</v>
       </c>
       <c r="F201" s="4" t="s">
-        <v>389</v>
+        <v>543</v>
       </c>
       <c r="G201" s="4" t="s">
-        <v>504</v>
+        <v>444</v>
       </c>
       <c r="H201" s="5" t="s">
-        <v>391</v>
+        <v>353</v>
       </c>
     </row>
     <row r="202" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -6466,13 +6469,13 @@
         <v>85</v>
       </c>
       <c r="F202" s="4" t="s">
-        <v>390</v>
+        <v>544</v>
       </c>
       <c r="G202" s="19" t="s">
-        <v>504</v>
+        <v>444</v>
       </c>
       <c r="H202" s="5" t="s">
-        <v>391</v>
+        <v>353</v>
       </c>
     </row>
     <row r="203" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -6486,13 +6489,13 @@
         <v>85</v>
       </c>
       <c r="F203" s="4" t="s">
-        <v>386</v>
+        <v>352</v>
       </c>
       <c r="G203" s="4" t="s">
-        <v>480</v>
+        <v>420</v>
       </c>
       <c r="H203" s="5" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
     </row>
     <row r="204" spans="1:8" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
@@ -6519,7 +6522,7 @@
         <v>85</v>
       </c>
       <c r="F205" s="4" t="s">
-        <v>393</v>
+        <v>355</v>
       </c>
       <c r="G205" s="4"/>
     </row>
@@ -6534,13 +6537,13 @@
         <v>85</v>
       </c>
       <c r="F206" s="4" t="s">
-        <v>394</v>
+        <v>545</v>
       </c>
       <c r="G206" s="21" t="s">
-        <v>555</v>
+        <v>495</v>
       </c>
       <c r="H206" s="5" t="s">
-        <v>401</v>
+        <v>356</v>
       </c>
     </row>
     <row r="207" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -6554,13 +6557,13 @@
         <v>85</v>
       </c>
       <c r="F207" s="4" t="s">
-        <v>395</v>
+        <v>546</v>
       </c>
       <c r="G207" s="4" t="s">
-        <v>483</v>
+        <v>423</v>
       </c>
       <c r="H207" s="5" t="s">
-        <v>290</v>
+        <v>262</v>
       </c>
     </row>
     <row r="208" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -6574,13 +6577,13 @@
         <v>85</v>
       </c>
       <c r="F208" s="4" t="s">
-        <v>396</v>
+        <v>547</v>
       </c>
       <c r="G208" s="21" t="s">
-        <v>555</v>
+        <v>495</v>
       </c>
       <c r="H208" s="5" t="s">
-        <v>401</v>
+        <v>356</v>
       </c>
     </row>
     <row r="209" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -6594,13 +6597,13 @@
         <v>85</v>
       </c>
       <c r="F209" s="4" t="s">
-        <v>397</v>
+        <v>548</v>
       </c>
       <c r="G209" s="4" t="s">
-        <v>483</v>
+        <v>423</v>
       </c>
       <c r="H209" s="5" t="s">
-        <v>290</v>
+        <v>262</v>
       </c>
     </row>
     <row r="210" spans="1:9" ht="34" x14ac:dyDescent="0.2">
@@ -6614,13 +6617,13 @@
         <v>85</v>
       </c>
       <c r="F210" s="4" t="s">
-        <v>398</v>
+        <v>549</v>
       </c>
       <c r="G210" s="22" t="s">
-        <v>531</v>
+        <v>471</v>
       </c>
       <c r="I210" s="5" t="s">
-        <v>467</v>
+        <v>407</v>
       </c>
     </row>
     <row r="211" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -6634,13 +6637,13 @@
         <v>85</v>
       </c>
       <c r="F211" s="4" t="s">
-        <v>399</v>
+        <v>550</v>
       </c>
       <c r="G211" s="4" t="s">
-        <v>476</v>
+        <v>416</v>
       </c>
       <c r="H211" s="5" t="s">
-        <v>402</v>
+        <v>357</v>
       </c>
     </row>
     <row r="212" spans="1:9" ht="34" x14ac:dyDescent="0.2">
@@ -6654,13 +6657,13 @@
         <v>85</v>
       </c>
       <c r="F212" s="4" t="s">
-        <v>400</v>
+        <v>551</v>
       </c>
       <c r="G212" s="4" t="s">
-        <v>483</v>
+        <v>423</v>
       </c>
       <c r="H212" s="5" t="s">
-        <v>290</v>
+        <v>262</v>
       </c>
     </row>
     <row r="213" spans="1:9" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -6679,7 +6682,7 @@
         <v>2</v>
       </c>
       <c r="C214" s="13" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D214" s="14">
         <v>36</v>
@@ -6701,13 +6704,13 @@
         <v>85</v>
       </c>
       <c r="F215" s="4" t="s">
-        <v>403</v>
+        <v>358</v>
       </c>
       <c r="G215" s="4" t="s">
-        <v>488</v>
+        <v>428</v>
       </c>
       <c r="H215" s="5" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
     </row>
     <row r="216" spans="1:9" ht="34" x14ac:dyDescent="0.2">
@@ -6721,13 +6724,13 @@
         <v>85</v>
       </c>
       <c r="F216" s="4" t="s">
-        <v>404</v>
+        <v>359</v>
       </c>
       <c r="G216" s="4" t="s">
-        <v>532</v>
+        <v>472</v>
       </c>
       <c r="H216" s="4" t="s">
-        <v>412</v>
+        <v>364</v>
       </c>
     </row>
     <row r="217" spans="1:9" ht="34" x14ac:dyDescent="0.2">
@@ -6741,13 +6744,13 @@
         <v>85</v>
       </c>
       <c r="F217" s="4" t="s">
-        <v>405</v>
+        <v>360</v>
       </c>
       <c r="G217" s="4" t="s">
-        <v>506</v>
+        <v>446</v>
       </c>
       <c r="H217" s="5" t="s">
-        <v>413</v>
+        <v>365</v>
       </c>
     </row>
     <row r="218" spans="1:9" ht="34" x14ac:dyDescent="0.2">
@@ -6761,13 +6764,13 @@
         <v>85</v>
       </c>
       <c r="F218" s="4" t="s">
-        <v>406</v>
+        <v>361</v>
       </c>
       <c r="G218" s="4" t="s">
-        <v>488</v>
+        <v>428</v>
       </c>
       <c r="H218" s="5" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
     </row>
     <row r="219" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -6781,13 +6784,13 @@
         <v>85</v>
       </c>
       <c r="F219" s="4" t="s">
-        <v>408</v>
+        <v>363</v>
       </c>
       <c r="G219" s="4" t="s">
-        <v>506</v>
+        <v>446</v>
       </c>
       <c r="H219" s="5" t="s">
-        <v>413</v>
+        <v>365</v>
       </c>
     </row>
     <row r="220" spans="1:9" ht="68" x14ac:dyDescent="0.2">
@@ -6801,13 +6804,13 @@
         <v>85</v>
       </c>
       <c r="F220" s="4" t="s">
-        <v>409</v>
+        <v>552</v>
       </c>
       <c r="G220" s="4" t="s">
-        <v>556</v>
+        <v>496</v>
       </c>
       <c r="H220" s="4" t="s">
-        <v>416</v>
+        <v>368</v>
       </c>
     </row>
     <row r="221" spans="1:9" ht="34" x14ac:dyDescent="0.2">
@@ -6821,13 +6824,13 @@
         <v>85</v>
       </c>
       <c r="F221" s="4" t="s">
-        <v>410</v>
+        <v>553</v>
       </c>
       <c r="G221" s="4" t="s">
-        <v>557</v>
+        <v>497</v>
       </c>
       <c r="H221" s="4" t="s">
-        <v>417</v>
+        <v>369</v>
       </c>
     </row>
     <row r="222" spans="1:9" ht="34" x14ac:dyDescent="0.2">
@@ -6841,13 +6844,13 @@
         <v>85</v>
       </c>
       <c r="F222" s="4" t="s">
-        <v>411</v>
+        <v>554</v>
       </c>
       <c r="G222" s="4" t="s">
-        <v>557</v>
+        <v>497</v>
       </c>
       <c r="H222" s="4" t="s">
-        <v>417</v>
+        <v>369</v>
       </c>
     </row>
     <row r="223" spans="1:9" ht="34" x14ac:dyDescent="0.2">
@@ -6861,13 +6864,13 @@
         <v>85</v>
       </c>
       <c r="F223" s="4" t="s">
-        <v>407</v>
+        <v>362</v>
       </c>
       <c r="G223" s="4" t="s">
-        <v>507</v>
+        <v>447</v>
       </c>
       <c r="H223" s="5" t="s">
-        <v>414</v>
+        <v>366</v>
       </c>
     </row>
     <row r="224" spans="1:9" ht="51" x14ac:dyDescent="0.2">
@@ -6881,13 +6884,13 @@
         <v>86</v>
       </c>
       <c r="F224" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G224" s="4" t="s">
-        <v>558</v>
+        <v>498</v>
       </c>
       <c r="H224" s="5" t="s">
-        <v>415</v>
+        <v>367</v>
       </c>
     </row>
     <row r="225" spans="1:9" s="13" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -6895,7 +6898,7 @@
         <v>2</v>
       </c>
       <c r="C225" s="13" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D225" s="14">
         <v>37</v>
@@ -6917,13 +6920,13 @@
         <v>85</v>
       </c>
       <c r="F226" s="4" t="s">
-        <v>418</v>
+        <v>370</v>
       </c>
       <c r="G226" s="4" t="s">
-        <v>489</v>
+        <v>429</v>
       </c>
       <c r="H226" s="5" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
     </row>
     <row r="227" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -6934,7 +6937,7 @@
         <v>85</v>
       </c>
       <c r="F227" s="4" t="s">
-        <v>419</v>
+        <v>371</v>
       </c>
       <c r="G227" s="4"/>
     </row>
@@ -6949,13 +6952,13 @@
         <v>85</v>
       </c>
       <c r="F228" s="4" t="s">
-        <v>420</v>
+        <v>555</v>
       </c>
       <c r="G228" s="4" t="s">
-        <v>489</v>
+        <v>429</v>
       </c>
       <c r="H228" s="5" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
     </row>
     <row r="229" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -6969,13 +6972,13 @@
         <v>85</v>
       </c>
       <c r="F229" s="4" t="s">
-        <v>421</v>
+        <v>556</v>
       </c>
       <c r="G229" s="4" t="s">
-        <v>489</v>
+        <v>429</v>
       </c>
       <c r="H229" s="5" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
     </row>
     <row r="230" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -6989,13 +6992,13 @@
         <v>85</v>
       </c>
       <c r="F230" s="4" t="s">
-        <v>422</v>
+        <v>557</v>
       </c>
       <c r="G230" s="4" t="s">
-        <v>489</v>
+        <v>429</v>
       </c>
       <c r="H230" s="5" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
     </row>
     <row r="231" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -7009,13 +7012,13 @@
         <v>85</v>
       </c>
       <c r="F231" s="4" t="s">
-        <v>423</v>
+        <v>558</v>
       </c>
       <c r="G231" s="4" t="s">
-        <v>489</v>
+        <v>429</v>
       </c>
       <c r="H231" s="5" t="s">
-        <v>431</v>
+        <v>373</v>
       </c>
     </row>
     <row r="232" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -7029,13 +7032,13 @@
         <v>85</v>
       </c>
       <c r="F232" s="4" t="s">
-        <v>424</v>
+        <v>559</v>
       </c>
       <c r="G232" s="4" t="s">
-        <v>489</v>
+        <v>429</v>
       </c>
       <c r="H232" s="5" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
     </row>
     <row r="233" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -7049,13 +7052,13 @@
         <v>85</v>
       </c>
       <c r="F233" s="4" t="s">
-        <v>425</v>
+        <v>560</v>
       </c>
       <c r="G233" s="4" t="s">
-        <v>489</v>
+        <v>429</v>
       </c>
       <c r="H233" s="5" t="s">
-        <v>432</v>
+        <v>374</v>
       </c>
     </row>
     <row r="234" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -7069,13 +7072,13 @@
         <v>85</v>
       </c>
       <c r="F234" s="4" t="s">
-        <v>426</v>
+        <v>561</v>
       </c>
       <c r="G234" s="4" t="s">
-        <v>500</v>
+        <v>440</v>
       </c>
       <c r="H234" s="5" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
     </row>
     <row r="235" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -7086,7 +7089,7 @@
         <v>85</v>
       </c>
       <c r="F235" s="4" t="s">
-        <v>427</v>
+        <v>372</v>
       </c>
       <c r="G235" s="4"/>
     </row>
@@ -7101,13 +7104,13 @@
         <v>85</v>
       </c>
       <c r="F236" s="4" t="s">
-        <v>428</v>
+        <v>562</v>
       </c>
       <c r="G236" s="4" t="s">
-        <v>489</v>
+        <v>429</v>
       </c>
       <c r="H236" s="5" t="s">
-        <v>432</v>
+        <v>374</v>
       </c>
     </row>
     <row r="237" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -7121,13 +7124,13 @@
         <v>85</v>
       </c>
       <c r="F237" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="G237" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="G237" s="4" t="s">
-        <v>489</v>
-      </c>
       <c r="H237" s="5" t="s">
-        <v>432</v>
+        <v>374</v>
       </c>
     </row>
     <row r="238" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -7141,13 +7144,13 @@
         <v>85</v>
       </c>
       <c r="F238" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="G238" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="G238" s="4" t="s">
-        <v>490</v>
-      </c>
       <c r="H238" s="5" t="s">
-        <v>433</v>
+        <v>375</v>
       </c>
     </row>
     <row r="239" spans="1:9" ht="34" x14ac:dyDescent="0.2">
@@ -7161,16 +7164,16 @@
         <v>86</v>
       </c>
       <c r="F239" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G239" s="4" t="s">
-        <v>490</v>
+        <v>430</v>
       </c>
       <c r="H239" s="5" t="s">
-        <v>433</v>
+        <v>375</v>
       </c>
       <c r="I239" s="5" t="s">
-        <v>434</v>
+        <v>376</v>
       </c>
     </row>
     <row r="240" spans="1:9" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
@@ -7181,10 +7184,10 @@
         <v>86</v>
       </c>
       <c r="D240" s="14" t="s">
-        <v>460</v>
+        <v>400</v>
       </c>
       <c r="E240" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F240" s="15"/>
       <c r="G240" s="15"/>
@@ -7202,13 +7205,13 @@
       <c r="D241" s="5"/>
       <c r="E241" s="5"/>
       <c r="F241" s="4" t="s">
-        <v>435</v>
+        <v>377</v>
       </c>
       <c r="G241" s="4" t="s">
-        <v>491</v>
+        <v>431</v>
       </c>
       <c r="H241" s="4" t="s">
-        <v>439</v>
+        <v>381</v>
       </c>
     </row>
     <row r="242" spans="1:9" ht="51" x14ac:dyDescent="0.2">
@@ -7224,13 +7227,13 @@
       <c r="D242" s="5"/>
       <c r="E242" s="5"/>
       <c r="F242" s="4" t="s">
-        <v>436</v>
+        <v>378</v>
       </c>
       <c r="G242" s="4" t="s">
-        <v>533</v>
+        <v>473</v>
       </c>
       <c r="H242" s="4" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
     </row>
     <row r="243" spans="1:9" ht="51" x14ac:dyDescent="0.2">
@@ -7246,13 +7249,13 @@
       <c r="D243" s="5"/>
       <c r="E243" s="5"/>
       <c r="F243" s="4" t="s">
-        <v>438</v>
+        <v>380</v>
       </c>
       <c r="G243" s="4" t="s">
-        <v>534</v>
+        <v>474</v>
       </c>
       <c r="H243" s="4" t="s">
-        <v>441</v>
+        <v>383</v>
       </c>
     </row>
     <row r="244" spans="1:9" ht="34" x14ac:dyDescent="0.2">
@@ -7268,13 +7271,13 @@
       <c r="D244" s="5"/>
       <c r="E244" s="5"/>
       <c r="F244" s="4" t="s">
-        <v>437</v>
+        <v>379</v>
       </c>
       <c r="G244" s="4" t="s">
-        <v>492</v>
+        <v>432</v>
       </c>
       <c r="H244" s="5" t="s">
-        <v>440</v>
+        <v>382</v>
       </c>
     </row>
     <row r="245" spans="1:9" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
@@ -7304,13 +7307,13 @@
         <v>85</v>
       </c>
       <c r="F246" s="4" t="s">
-        <v>442</v>
+        <v>384</v>
       </c>
       <c r="G246" s="19" t="s">
-        <v>535</v>
+        <v>475</v>
       </c>
       <c r="H246" s="5" t="s">
-        <v>446</v>
+        <v>387</v>
       </c>
     </row>
     <row r="247" spans="1:9" ht="85" x14ac:dyDescent="0.2">
@@ -7324,16 +7327,16 @@
         <v>85</v>
       </c>
       <c r="F247" s="4" t="s">
-        <v>443</v>
+        <v>565</v>
       </c>
       <c r="G247" s="4" t="s">
-        <v>516</v>
+        <v>456</v>
       </c>
       <c r="H247" s="5" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="I247" s="5" t="s">
-        <v>447</v>
+        <v>388</v>
       </c>
     </row>
     <row r="248" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -7347,13 +7350,13 @@
         <v>85</v>
       </c>
       <c r="F248" s="4" t="s">
-        <v>444</v>
+        <v>385</v>
       </c>
       <c r="G248" s="4" t="s">
-        <v>516</v>
+        <v>456</v>
       </c>
       <c r="H248" s="5" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="249" spans="1:9" ht="51" x14ac:dyDescent="0.2">
@@ -7367,13 +7370,13 @@
         <v>85</v>
       </c>
       <c r="F249" s="4" t="s">
-        <v>445</v>
+        <v>386</v>
       </c>
       <c r="G249" s="20" t="s">
-        <v>535</v>
+        <v>475</v>
       </c>
       <c r="H249" s="5" t="s">
-        <v>446</v>
+        <v>387</v>
       </c>
     </row>
     <row r="250" spans="1:9" s="13" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -7403,13 +7406,13 @@
         <v>85</v>
       </c>
       <c r="F251" s="4" t="s">
-        <v>448</v>
+        <v>389</v>
       </c>
       <c r="G251" s="4" t="s">
-        <v>493</v>
+        <v>433</v>
       </c>
       <c r="H251" s="5" t="s">
-        <v>450</v>
+        <v>391</v>
       </c>
     </row>
     <row r="252" spans="1:9" ht="51" x14ac:dyDescent="0.2">
@@ -7423,13 +7426,13 @@
         <v>85</v>
       </c>
       <c r="F252" s="4" t="s">
-        <v>449</v>
+        <v>390</v>
       </c>
       <c r="G252" s="4" t="s">
-        <v>502</v>
+        <v>442</v>
       </c>
       <c r="H252" s="5" t="s">
-        <v>328</v>
+        <v>298</v>
       </c>
     </row>
     <row r="253" spans="1:9" ht="85" x14ac:dyDescent="0.2">
@@ -7443,13 +7446,13 @@
         <v>85</v>
       </c>
       <c r="F253" s="4" t="s">
-        <v>451</v>
+        <v>392</v>
       </c>
       <c r="G253" s="4" t="s">
-        <v>493</v>
+        <v>433</v>
       </c>
       <c r="H253" s="5" t="s">
-        <v>450</v>
+        <v>391</v>
       </c>
     </row>
     <row r="254" spans="1:9" ht="34" x14ac:dyDescent="0.2">
@@ -7463,13 +7466,13 @@
         <v>85</v>
       </c>
       <c r="F254" s="4" t="s">
-        <v>452</v>
+        <v>393</v>
       </c>
       <c r="G254" s="4" t="s">
-        <v>536</v>
+        <v>476</v>
       </c>
       <c r="H254" s="4" t="s">
-        <v>453</v>
+        <v>394</v>
       </c>
     </row>
     <row r="255" spans="1:9" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -7491,10 +7494,10 @@
         <v>86</v>
       </c>
       <c r="D256" s="14" t="s">
-        <v>454</v>
+        <v>395</v>
       </c>
       <c r="E256" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F256" s="15"/>
       <c r="G256" s="15"/>
@@ -7510,13 +7513,13 @@
         <v>86</v>
       </c>
       <c r="F257" s="4" t="s">
-        <v>457</v>
+        <v>397</v>
       </c>
       <c r="G257" s="4" t="s">
-        <v>494</v>
+        <v>434</v>
       </c>
       <c r="H257" s="5" t="s">
-        <v>458</v>
+        <v>398</v>
       </c>
     </row>
     <row r="258" spans="1:8" ht="102" x14ac:dyDescent="0.2">
@@ -7530,13 +7533,13 @@
         <v>86</v>
       </c>
       <c r="F258" s="4" t="s">
-        <v>456</v>
+        <v>566</v>
       </c>
       <c r="G258" s="4" t="s">
-        <v>491</v>
+        <v>431</v>
       </c>
       <c r="H258" s="4" t="s">
-        <v>459</v>
+        <v>399</v>
       </c>
     </row>
     <row r="259" spans="1:8" s="13" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -7547,10 +7550,10 @@
         <v>86</v>
       </c>
       <c r="D259" s="14" t="s">
-        <v>455</v>
+        <v>396</v>
       </c>
       <c r="E259" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F259" s="15"/>
       <c r="G259" s="15"/>
@@ -7566,13 +7569,13 @@
         <v>86</v>
       </c>
       <c r="F260" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G260" s="4" t="s">
-        <v>476</v>
+        <v>416</v>
       </c>
       <c r="H260" s="5" t="s">
-        <v>402</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>

--- a/tools/anssi/anssi-guide-hygiene-detail.xlsx
+++ b/tools/anssi/anssi-guide-hygiene-detail.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericlaubacher/Documents/GitHub/ciso-assistant-community/tools/anssi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77DC2078-F0B4-3A4A-9947-77E2D878DF09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C9B573-5E06-0141-879B-B6EA04EC9250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="500" windowWidth="35060" windowHeight="20580" activeTab="1" xr2:uid="{125C4C37-F3C0-444B-A950-381456F8AB10}"/>
+    <workbookView xWindow="780" yWindow="500" windowWidth="35060" windowHeight="20580" xr2:uid="{125C4C37-F3C0-444B-A950-381456F8AB10}"/>
   </bookViews>
   <sheets>
     <sheet name="library_content" sheetId="4" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="570">
   <si>
     <t>Sensibiliser et former</t>
   </si>
@@ -1899,6 +1899,12 @@
   </si>
   <si>
     <t xml:space="preserve">• les utilisateurs utilisant un poste non administré par le service informatique et qui ne fait pas l’objet de mesures de sécurité édictées par la politique de sécurité générale de l’entité. </t>
+  </si>
+  <si>
+    <t>library_dependencies</t>
+  </si>
+  <si>
+    <t>urn:intuitem:risk:library:doc-pol</t>
   </si>
 </sst>
 </file>
@@ -1977,7 +1983,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2039,9 +2045,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2380,10 +2383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58679FA1-8C3E-D64B-9B35-083A1517BC84}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView topLeftCell="B5" zoomScale="242" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="242" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2466,45 +2469,42 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>568</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>110</v>
+        <v>569</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>77</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="14" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>78</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>79</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C14" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -2512,31 +2512,42 @@
         <v>79</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>415</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="C16">
+      <c r="C17">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" s="3"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B19" s="3"/>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B20" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2547,7 +2558,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59F3B91E-FB51-FE47-B7BA-EB94A985CF95}">
   <dimension ref="A1:I260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F40" sqref="F40"/>
     </sheetView>
@@ -2651,7 +2662,7 @@
       <c r="C5" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="22" t="s">
         <v>509</v>
       </c>
       <c r="G5" s="4" t="s">
@@ -2671,7 +2682,7 @@
       <c r="C6" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="22" t="s">
         <v>510</v>
       </c>
       <c r="G6" s="4" t="s">
@@ -2691,7 +2702,7 @@
       <c r="C7" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="22" t="s">
         <v>511</v>
       </c>
       <c r="G7" s="4" t="s">
@@ -2711,7 +2722,7 @@
       <c r="C8" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="22" t="s">
         <v>512</v>
       </c>
       <c r="G8" s="4" t="s">
@@ -2731,7 +2742,7 @@
       <c r="C9" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="22" t="s">
         <v>513</v>
       </c>
       <c r="G9" s="4" t="s">
@@ -2751,7 +2762,7 @@
       <c r="C10" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="22" t="s">
         <v>514</v>
       </c>
       <c r="G10" s="4" t="s">
@@ -2771,7 +2782,7 @@
       <c r="C11" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="22" t="s">
         <v>515</v>
       </c>
       <c r="G11" s="4" t="s">
@@ -2884,7 +2895,7 @@
       <c r="C17" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F17" s="23" t="s">
+      <c r="F17" s="22" t="s">
         <v>516</v>
       </c>
       <c r="G17" s="4" t="s">
@@ -2904,7 +2915,7 @@
       <c r="C18" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F18" s="23" t="s">
+      <c r="F18" s="22" t="s">
         <v>517</v>
       </c>
       <c r="G18" s="4" t="s">
@@ -2924,7 +2935,7 @@
       <c r="C19" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F19" s="23" t="s">
+      <c r="F19" s="22" t="s">
         <v>518</v>
       </c>
       <c r="G19" s="4" t="s">
@@ -2944,7 +2955,7 @@
       <c r="C20" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F20" s="23" t="s">
+      <c r="F20" s="22" t="s">
         <v>519</v>
       </c>
       <c r="G20" s="4" t="s">
@@ -2964,7 +2975,7 @@
       <c r="C21" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F21" s="23" t="s">
+      <c r="F21" s="22" t="s">
         <v>520</v>
       </c>
       <c r="G21" s="4" t="s">
@@ -3053,7 +3064,7 @@
       <c r="C26" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F26" s="23" t="s">
+      <c r="F26" s="22" t="s">
         <v>521</v>
       </c>
       <c r="G26" s="4" t="s">
@@ -3073,7 +3084,7 @@
       <c r="C27" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F27" s="23" t="s">
+      <c r="F27" s="22" t="s">
         <v>522</v>
       </c>
       <c r="G27" s="4" t="s">
@@ -3279,7 +3290,7 @@
       <c r="C38" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F38" s="23" t="s">
+      <c r="F38" s="22" t="s">
         <v>523</v>
       </c>
       <c r="G38" s="4" t="s">
@@ -3299,7 +3310,7 @@
       <c r="C39" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F39" s="23" t="s">
+      <c r="F39" s="22" t="s">
         <v>524</v>
       </c>
       <c r="G39" s="4" t="s">
@@ -3319,7 +3330,7 @@
       <c r="C40" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F40" s="23" t="s">
+      <c r="F40" s="22" t="s">
         <v>567</v>
       </c>
       <c r="G40" s="4" t="s">
@@ -3412,7 +3423,7 @@
       <c r="C45" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F45" s="23" t="s">
+      <c r="F45" s="22" t="s">
         <v>525</v>
       </c>
       <c r="G45" s="4" t="s">
@@ -3432,7 +3443,7 @@
       <c r="C46" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F46" s="23" t="s">
+      <c r="F46" s="22" t="s">
         <v>526</v>
       </c>
       <c r="G46" s="4" t="s">
@@ -3452,7 +3463,7 @@
       <c r="C47" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F47" s="23" t="s">
+      <c r="F47" s="22" t="s">
         <v>527</v>
       </c>
       <c r="G47" s="4" t="s">
@@ -3472,7 +3483,7 @@
       <c r="C48" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F48" s="23" t="s">
+      <c r="F48" s="22" t="s">
         <v>528</v>
       </c>
       <c r="G48" s="4" t="s">
@@ -3757,7 +3768,7 @@
       <c r="C63" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F63" s="23" t="s">
+      <c r="F63" s="22" t="s">
         <v>529</v>
       </c>
       <c r="G63" s="4" t="s">
@@ -3777,7 +3788,7 @@
       <c r="C64" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F64" s="23" t="s">
+      <c r="F64" s="22" t="s">
         <v>530</v>
       </c>
       <c r="G64" s="4" t="s">
@@ -3797,7 +3808,7 @@
       <c r="C65" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F65" s="23" t="s">
+      <c r="F65" s="22" t="s">
         <v>531</v>
       </c>
       <c r="G65" s="4" t="s">
@@ -3936,7 +3947,7 @@
       <c r="C72" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F72" s="23" t="s">
+      <c r="F72" s="22" t="s">
         <v>532</v>
       </c>
       <c r="G72" s="4" t="s">
@@ -3956,7 +3967,7 @@
       <c r="C73" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F73" s="23" t="s">
+      <c r="F73" s="22" t="s">
         <v>533</v>
       </c>
       <c r="G73" s="4" t="s">
@@ -3976,7 +3987,7 @@
       <c r="C74" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F74" s="23" t="s">
+      <c r="F74" s="22" t="s">
         <v>534</v>
       </c>
       <c r="G74" s="4" t="s">
@@ -4769,7 +4780,7 @@
       <c r="F114" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="G114" s="22" t="s">
+      <c r="G114" s="4" t="s">
         <v>486</v>
       </c>
       <c r="H114" s="5" t="s">
@@ -4808,7 +4819,7 @@
       <c r="F116" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="G116" s="22" t="s">
+      <c r="G116" s="4" t="s">
         <v>502</v>
       </c>
       <c r="H116" s="4" t="s">
@@ -4831,7 +4842,7 @@
       <c r="F117" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="G117" s="22" t="s">
+      <c r="G117" s="4" t="s">
         <v>487</v>
       </c>
       <c r="I117" s="4" t="s">
@@ -5130,7 +5141,7 @@
       <c r="F132" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="G132" s="22" t="s">
+      <c r="G132" s="4" t="s">
         <v>469</v>
       </c>
       <c r="H132" s="4" t="s">
@@ -5150,7 +5161,7 @@
       <c r="F133" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="G133" s="22" t="s">
+      <c r="G133" s="4" t="s">
         <v>500</v>
       </c>
       <c r="H133" s="4" t="s">
@@ -5173,7 +5184,7 @@
       <c r="F134" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="G134" s="22" t="s">
+      <c r="G134" s="4" t="s">
         <v>501</v>
       </c>
       <c r="H134" s="4" t="s">
@@ -5373,7 +5384,7 @@
       <c r="F144" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="G144" s="22" t="s">
+      <c r="G144" s="4" t="s">
         <v>441</v>
       </c>
       <c r="H144" s="5" t="s">
@@ -5475,7 +5486,7 @@
       <c r="F149" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="G149" s="22" t="s">
+      <c r="G149" s="4" t="s">
         <v>489</v>
       </c>
       <c r="H149" s="5" t="s">
@@ -5698,7 +5709,7 @@
       <c r="F161" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="G161" s="22" t="s">
+      <c r="G161" s="4" t="s">
         <v>507</v>
       </c>
       <c r="H161" s="4" t="s">
@@ -5721,7 +5732,7 @@
       <c r="F162" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="G162" s="22" t="s">
+      <c r="G162" s="4" t="s">
         <v>444</v>
       </c>
       <c r="H162" s="4" t="s">
@@ -5744,7 +5755,7 @@
       <c r="F163" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="G163" s="22" t="s">
+      <c r="G163" s="4" t="s">
         <v>444</v>
       </c>
       <c r="H163" s="4" t="s">
@@ -5767,7 +5778,7 @@
       <c r="F164" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="G164" s="22" t="s">
+      <c r="G164" s="4" t="s">
         <v>444</v>
       </c>
       <c r="H164" s="5" t="s">
@@ -6619,7 +6630,7 @@
       <c r="F210" s="4" t="s">
         <v>549</v>
       </c>
-      <c r="G210" s="22" t="s">
+      <c r="G210" s="4" t="s">
         <v>471</v>
       </c>
       <c r="I210" s="5" t="s">

--- a/tools/anssi/anssi-guide-hygiene-detail.xlsx
+++ b/tools/anssi/anssi-guide-hygiene-detail.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericlaubacher/Documents/GitHub/ciso-assistant-community/tools/anssi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C9B573-5E06-0141-879B-B6EA04EC9250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A366A31-B445-274E-B43D-59FB50D9B88E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="500" windowWidth="35060" windowHeight="20580" xr2:uid="{125C4C37-F3C0-444B-A950-381456F8AB10}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20580" xr2:uid="{125C4C37-F3C0-444B-A950-381456F8AB10}"/>
   </bookViews>
   <sheets>
     <sheet name="library_content" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="IG" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">mesures!$A$1:$I$260</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">mesures!$A$1:$H$260</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="588">
   <si>
     <t>Sensibiliser et former</t>
   </si>
@@ -406,30 +406,6 @@
     <t>Il est par ailleurs nécessaire de faire mention de clauses spécifiques dans les contrats de prestation pour garantir une formation régulière à la sécurité des systèmes d’information du personnel externe et notamment les infogérants.</t>
   </si>
   <si>
-    <t>Formations techniques incluant les principes de durcissement</t>
-  </si>
-  <si>
-    <t>Formation IAM</t>
-  </si>
-  <si>
-    <t>Formation MCS</t>
-  </si>
-  <si>
-    <t>Formation sur l'état de la menace</t>
-  </si>
-  <si>
-    <t>Formation conformité légal et réglementaire</t>
-  </si>
-  <si>
-    <t>Plan de formation adapté aux différents profils pour les équipes opérationnelles</t>
-  </si>
-  <si>
-    <t>Formation sur le cloisonnement réseau</t>
-  </si>
-  <si>
-    <t>Formation sur la journalisation</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -443,9 +419,6 @@
   </si>
   <si>
     <t>3</t>
-  </si>
-  <si>
-    <t>Plan de sensibilisation</t>
   </si>
   <si>
     <t xml:space="preserve">Lorsqu’une entité souhaite externaliser son système d’information ou ses données, elle doit en amont évaluer les risques spécifiques à l’infogérance (maîtrise du système d’information, actions à distance, hébergement mutualisé, etc.) afin de prendre en compte, dès la rédaction des exigences applicables au futur prestataire, les besoins et mesures de sécurité adaptés. </t>
@@ -461,20 +434,9 @@
     <t>Pour formaliser ces engagements, le prestataire fournira au commanditaire un plan d’assurance sécurité (PAS)  prévu par l’appel d’offre. Il s’agit d’un document contractuel décrivant l’ensemble des dispositions spécifiques que les candidats s’engagent à mettre en œuvre pour garantir le respect des exigences de sécurité spécifiées par l’entité.</t>
   </si>
   <si>
-    <t>Cahier des charges de sécurité</t>
-  </si>
-  <si>
     <t>Chaque entité possède des données sensibles. Ces dernières peuvent porter sur son activité propre (propriété intellectuelle, savoir-faire, etc.) ou sur ses clients, administrés ou usagers (données personnelles, contrats, etc.). Afin de pouvoir les protéger efficacement, il est indispensable de les identifier.</t>
   </si>
   <si>
-    <t>Politique de sensibilisation et de formation à la sécurité de l’information
-Plan de sensibilisation
-Registre de formation et sensibilisation</t>
-  </si>
-  <si>
-    <t>Réglement intérieur</t>
-  </si>
-  <si>
     <t>À partir de cette liste de données sensibles, il sera possible de déterminer sur quels composants du système d’information elles se localisent (bases de données, partages de fichiers, postes de travail, etc.). Ces composants correspondent aux serveurs et postes critiques pour l’entité. À ce titre, ils devront faire l’objet de mesures de sécurité spécifiques pouvant porter sur la sauvegarde, la journalisation, les accès, etc.</t>
   </si>
   <si>
@@ -482,16 +444,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Ce schéma doit également permettre de localiser les serveurs détenteurs d’informations sensibles de l’entité.</t>
-  </si>
-  <si>
-    <t>Revue du plan d'assurance sécurité
-Registre des fournisseurs</t>
-  </si>
-  <si>
-    <t>Cartographie du SI</t>
-  </si>
-  <si>
-    <t>Registre des procédures opérationnelles</t>
   </si>
   <si>
     <t xml:space="preserve">Il est fortement recommandé de procéder à une revue périodique de ces comptes afin de s’assurer que les accès aux éléments sensibles (notamment les répertoires de travail et la messagerie électronique des responsables) soient maitrisés. Ces revues permettront également de supprimer les accès devenus obsolètes suite au départ d’un utilisateur par exemple. </t>
@@ -504,51 +456,9 @@
     <t>Les comptes bénéficiant de droits spécifiques sont des cibles privilégiées par les attaquants qui souhaitent obtenir un accès le plus large possible au système d’information. Ils doivent donc faire l’objet d’une attention toute particulière. Il s’agit pour cela d’effectuer un inventaire de ces comptes, de le mettre à jour régulièrement et d’y renseigner les informations suivantes :</t>
   </si>
   <si>
-    <t>Procédure d’accès privilégié
-Inventaire des comptes à privilèges</t>
-  </si>
-  <si>
-    <t>Plan d'audit</t>
-  </si>
-  <si>
-    <t>Procédure de recertification des comptes</t>
-  </si>
-  <si>
     <t>Les effectifs d’une entité, qu’elle soit publique ou privée, évoluent sans cesse : arrivées, départs, mobilité interne. Il est par conséquent nécessaire que les droits et les accès au système d’information soient mis à jour en fonction de ces évolutions. Il est notamment essentiel que l’ensemble des droits affectés à une personne soient révoqués lors de son départ ou en cas de changement de fonction. Les procédures d’arrivée et de départ doivent donc être définies, en lien avec la fonction ressources humaines. Elles doivent au minimum prendre en compte :</t>
   </si>
   <si>
-    <t>Politique de sécurité des fournisseurs tiers
-Registre des risques
-Cahier des charges de sécurité</t>
-  </si>
-  <si>
-    <t>Politique de gestion d’actifs
-Politique de classification et de traitement de l’information
-Registre des biens</t>
-  </si>
-  <si>
-    <t>Politique d’utilisation acceptable
-Politique de sensibilisation et de formation à la sécurité de l’information
-Plan de sensibilisation
-Registre de formation et sensibilisation</t>
-  </si>
-  <si>
-    <t>Politique de contrôle d’accès</t>
-  </si>
-  <si>
-    <t>Procédures de sécurité physique</t>
-  </si>
-  <si>
-    <t>Politique de contrôle d’accès
-Procédures RH</t>
-  </si>
-  <si>
-    <t>Politique des postes de travail et de télétravail</t>
-  </si>
-  <si>
-    <t>Politique de classification et de traitement de l’information</t>
-  </si>
-  <si>
     <t>Pour garantir la sécurité de son système d’information, l’entité doit maîtriser les équipements qui s’y connectent, chacun constituant un point d’entrée potentiellement vulnérable. Les équipements personnels (ordinateurs portables, tablettes, ordiphones, etc.) sont, par définition, difficilement maîtrisables dans la mesure où ce sont les utilisateurs qui décident de leur niveau de sécurité. De la même manière, la sécurité des équipements dont sont dotés les visiteurs échappe à tout contrôle de l’entité.</t>
   </si>
   <si>
@@ -556,12 +466,6 @@
   </si>
   <si>
     <t>La sensibilisation des utilisateurs doit donc s’accompagner de solutions pragmatiques répondant à leurs besoins. Citons par exemple la mise à disposition d’un réseau Wi-Fi avec SSID dédié pour les terminaux personnels ou visiteurs.</t>
-  </si>
-  <si>
-    <t>Politique de gestion de la sécurité du réseau</t>
-  </si>
-  <si>
-    <t>Politique d’utilisation acceptable</t>
   </si>
   <si>
     <t>Afin de faciliter l’attribution d’une action sur le système d’information en cas d’incident ou d’identifier d’éventuels comptes compromis, les comptes d’accès doivent être nominatifs.</t>
@@ -575,14 +479,6 @@
 Dans tous les cas, les comptes génériques et de service doivent être gérés selon une politique au moins aussi stricte que celle des comptes nominatifs. </t>
   </si>
   <si>
-    <t>Politique de contrôle d’accès
-Procédure d’accès privilégié
-Inventaire des comptes à privilèges</t>
-  </si>
-  <si>
-    <t>Politique de journalisation et de surveillance</t>
-  </si>
-  <si>
     <t>Par exemple, les répertoires des administrateurs regroupant de nombreuses informations sensibles doivent faire l’objet d’un contrôle d’accès précis.</t>
   </si>
   <si>
@@ -593,13 +489,6 @@
   </si>
   <si>
     <t>Certaines des ressources du système peuvent constituer une source d’information précieuse aux yeux d’un attaquant  (répertoires contenant des données sensibles, bases de données, boîtes aux lettres électroniques, etc.). Il est donc primordial d’établir une liste précise de ces ressources et pour chacune d’entre elles :</t>
-  </si>
-  <si>
-    <t>Registre des biens</t>
-  </si>
-  <si>
-    <t>Politique de contrôle d’accès
-Procédure d’accès privilégié</t>
   </si>
   <si>
     <t>L’ANSSI énonce un ensemble de règles et de bonnes pratiques en matière de choix et de dimensionnement des mots de passe. Parmi les plus critiques de ces règles figure la sensibilisation des utilisateurs aux risques liés au choix d’un mot de passe qui serait trop facile à deviner, ou encore la réutilisation de mots de passe d’une application à l’autre et plus particulièrement entre messageries personnelles et professionnelles.</t>
@@ -620,19 +509,6 @@
     <t>Bien entendu, le choix d’un mot de passe pour ce coffre-fort numérique doit respecter les règles énoncées précédemment et être mémorisé par l’utilisateur, qui n’a plus que celui-ci à retenir.</t>
   </si>
   <si>
-    <t>Gestionnaire de mots de passe</t>
-  </si>
-  <si>
-    <t>En 2025 cette préconisation s'impose partout.</t>
-  </si>
-  <si>
-    <t>L'utilisation du smartphone comme authentifiant s'avère en général plus pratique que la carte à puce. Celle-ci reste incontournable pour les environnements les plus sensibles.</t>
-  </si>
-  <si>
-    <t>Politique de contrôle d’accès
-Plan de sensibilisation</t>
-  </si>
-  <si>
     <t>Il est impératif de partir du principe que les configurations par défaut des systèmes d’information sont systématiquement connues des attaquants, quand bien même celles-ci ne le sont pas du grand public. Ces configurations se révèlent (trop) souvent triviales (mot de passe identique à l’identifiant, mal dimensionné ou commun à l’ensemble des équipements et services par exemple) et sont, la plupart du temps, faciles à obtenir pour des attaquants capables de se faire passer pour un utilisateur légitime.
 Les éléments d’authentification par défaut des composants du système doivent donc être modifiés dès leur installation et, s’agissant de mots de passe, être conformes aux recommandations précédentes en matière de choix, de dimensionnement et de stockage.</t>
   </si>
@@ -640,9 +516,6 @@
     <t>Si le changement d’un identifiant par défaut se révèle impossible pour cause, par exemple, de mot de passe ou certificat  « en dur » dans un équipement, ce problème critique doit être signalé au distributeur du produit afin que cette vulnérabilité soit corrigée au plus vite.</t>
   </si>
   <si>
-    <t>Inacceptable en 2025</t>
-  </si>
-  <si>
     <t>L’utilisateur plus ou moins au fait des bonnes pratiques de sécurité informatique est, dans de très nombreux cas, la première porte d’entrée des attaquants vers le système. Il est donc fondamental de mettre en place un niveau de sécurité minimal sur l’ensemble du parc informatique de l’entité (postes utilisateurs, serveurs, imprimantes, téléphones, périphériques USB, etc.) en implémentant les mesures suivantes :</t>
   </si>
   <si>
@@ -659,35 +532,6 @@
   </si>
   <si>
     <t>désactiver les exécutions automatiques (autorun).</t>
-  </si>
-  <si>
-    <t>Chiffrement de disque</t>
-  </si>
-  <si>
-    <t>GPO de désactivation de l'autorun</t>
-  </si>
-  <si>
-    <t>Gestionnaire d'applications</t>
-  </si>
-  <si>
-    <t>Par exemple SCCM</t>
-  </si>
-  <si>
-    <t>Par exemple Bitlocker, CRYHOD, MacOS…</t>
-  </si>
-  <si>
-    <t>Cloisonnement des équipements spécifiques</t>
-  </si>
-  <si>
-    <t>Choisir un antivirus intégrant la fonction firewall
-Un EDR est également recommandé en 2025</t>
-  </si>
-  <si>
-    <t>Politique de sauvegarde et de restauration</t>
-  </si>
-  <si>
-    <t>Voir le guide ANSSI : Recommandations relatives à l'authentification multifacteur et aux mots de passe 
-Depuis 2024, il est important de prendre en compte les recommandations NIST-SP800-63B</t>
   </si>
   <si>
     <t>Lors de la fin de vie des supports amovibles, il sera nécessaire d’implémenter et de respecter une procédure de mise au rebut stricte pouvant aller jusqu’à leur destruction sécurisée afin de limiter la fuite d’informations sensibles.</t>
@@ -703,33 +547,6 @@
     <t>Il convient notamment de proscrire le branchement de clés USB inconnues (ramassées dans un lieu public par exemple) et de limiter au maximum celui de clés non maîtrisées (dont on connait la provenance mais pas l’intégrité) sur le système d’information à moins, dans ce dernier cas, de faire inspecter leur contenu par l’antivirus du poste de travail.</t>
   </si>
   <si>
-    <t>Politique de protection contre les logiciels malveillants
-Antivirus
-Firewall pour poste de travail</t>
-  </si>
-  <si>
-    <t>Choisir un antivirus intégrant la gestion des ports USB</t>
-  </si>
-  <si>
-    <t>Procédure de mise au rebut des supports de stockage</t>
-  </si>
-  <si>
-    <t>EN 2025 il est viable d'interdire totalement le transfert d'information par clé USB dans le cas général, avec une gestion d'exceptions.</t>
-  </si>
-  <si>
-    <t>Gestionnaire de ports USB</t>
-  </si>
-  <si>
-    <t>Gestionnaire de parc</t>
-  </si>
-  <si>
-    <t>AD est incontournable en environnement Windows.
-De nombreuses solutions multi-plateformes existent.</t>
-  </si>
-  <si>
-    <t>Firewall pour poste de travail</t>
-  </si>
-  <si>
     <t>Le filtrage le plus simple consiste à bloquer l’accès aux ports d’administration par défaut des postes de travail (ports TCP 135, 445 et 3389 sous Windows, port TCP 22 sous Unix), excepté depuis les ressources explicitement identifiées (postes d’administration et d’assistance utilisateur, éventuels serveurs de gestion requérant l’accès à des partages réseau sur les postes, etc.).</t>
   </si>
   <si>
@@ -737,16 +554,6 @@
   </si>
   <si>
     <t>Le pare-feu doit également être configuré pour journaliser les flux bloqués, et ainsi identifier les erreurs de configuration d’applications ou les tentatives d’intrusion.</t>
-  </si>
-  <si>
-    <t>Matrice des flux du poste de travail</t>
-  </si>
-  <si>
-    <t>Antivirus
-EDR</t>
-  </si>
-  <si>
-    <t>Les antivirus et EDR gèrent nativement la détection des incidents réseau.</t>
   </si>
   <si>
     <t>Choisir un antivirus intégrant la fonction firewall.
@@ -760,50 +567,10 @@
     <t>La transmission du secret (mot de passe, clé, etc.) permettant alors de déchiffrer les données, si elle est nécessaire, doit être effectuée via un canal de confiance ou, à défaut, un canal distinct du canal de transmission des données. Ainsi, si les données chiffrées sont transmises par courriel, une remise en main propre du mot de passe ou, à défaut, par téléphone doit être privilégiée.</t>
   </si>
   <si>
-    <t>Politique cryptographique</t>
-  </si>
-  <si>
-    <t>Politique de transfert d’informations
-Politique cryptographique</t>
-  </si>
-  <si>
-    <t>Politique de transfert d’informations
-Politique cryptographique
-Chiffrement de fichiers
-Messagerie instantanée sécurisée</t>
-  </si>
-  <si>
-    <t>On pourra utiliser 7zip, ZOD, pour l'envoi par mail.
-Les messageries instantanées sécurisées comme Signal, Olvid, s'avèrent encore plus pratiques.</t>
-  </si>
-  <si>
-    <t>Politique de transfert d’informations
-Politique cryptographique
-Messagerie instantanée sécurisée</t>
-  </si>
-  <si>
-    <t>Les messageries instantanées sécurisées comme Signal ou Olvid sont une très bonne solution.</t>
-  </si>
-  <si>
-    <t>Vérifier que les biens sensibles ne sont pas stockés dans des environnements non maîtrisés</t>
-  </si>
-  <si>
     <t>Utiliser le règlement intérieur en y annexant la charte d'utilisation évite de devoir recueillir des signatures.</t>
   </si>
   <si>
-    <t>Politique de journalisation et de surveillance
-Journal des accès
-EDR</t>
-  </si>
-  <si>
     <t>Un EDR pourra gérer la journalisation des échecs de connexion.</t>
-  </si>
-  <si>
-    <t>Politique de gestion de la sécurité du réseau
-Système de contrôle d'accès réseau</t>
-  </si>
-  <si>
-    <t>802.1X est le standard incontournable pour le contrôle d'accès réseau, aussi bien en LAN qu'en Wi-Fi.</t>
   </si>
   <si>
     <t>Lorsque le réseau est  « à plat », sans aucun mécanisme de cloisonnement, chaque machine du réseau peut accéder à n’importe quelle autre machine. La compromission de l’une d’elles met alors en péril l’ensemble des machines connectées. Un attaquant peut ainsi compromettre un poste utilisateur et ensuite « rebondir » jusqu’à des serveurs critiques.
@@ -816,20 +583,6 @@
     <t>Pour les réseaux dont le cloisonnement a posteriori ne serait pas aisé, il est recommandé d’intégrer cette démarche dans toute nouvelle extension du réseau ou à l’occasion d’un renouvellement d’équipements.</t>
   </si>
   <si>
-    <t>Microsegmentation</t>
-  </si>
-  <si>
-    <t>La microsegmentation permet d'agir a posteriori quand il n'est pas possible de cloisonner par VLAN.</t>
-  </si>
-  <si>
-    <t>Politique de gestion de la sécurité du réseau
-Document d'architecture réseau</t>
-  </si>
-  <si>
-    <t>Segmentation par VLAN
-Firewall intranet</t>
-  </si>
-  <si>
     <t>L’usage du Wi-Fi en milieu professionnel est aujourd’hui démocratisé mais présente toujours des risques de sécurité bien spécifiques : faibles garanties en matière de disponibilité, pas de maîtrise de la zone de couverture pouvant mener à une attaque hors du périmètre géographique de l’entité, configuration par défaut des points d’accès peu sécurisée, etc.
 La segmentation de l’architecture réseau doit permettre de limiter les conséquences d’une intrusion par voie radio à un périmètre déterminé du système d’information. Les flux en provenance des postes connectés au réseau d’accès Wi-Fi doivent donc être filtrés et restreints aux seuls flux nécessaires.</t>
   </si>
@@ -840,43 +593,18 @@
     <t>La protection du réseau Wi-Fi par un mot de passe unique et partagé est déconseillée. À défaut, il doit être complexe et son renouvellement prévu mais il ne doit en aucun cas être diffusé à des tiers non autorisés.</t>
   </si>
   <si>
-    <t>Un accès Wi-Fi correctement sécurisé en 2025 est équivalent à un accès par câble.</t>
-  </si>
-  <si>
     <t>Enfin, toute connexion Wi-Fi de terminaux personnels ou visiteurs (ordinateurs portables, ordiphones) doit être séparée des connexions Wi-Fi des terminaux de l’entité (ex : SSID et VLAN distincts, accès Internet dédié).</t>
   </si>
   <si>
     <t>Les points d’accès doivent par ailleurs être administrés de manière sécurisée (ex : interface dédiée, modification du mot de passe administrateur par défaut).</t>
   </si>
   <si>
-    <t>Politique de gestion de la sécurité du réseau
-NOC</t>
-  </si>
-  <si>
-    <t>Un NOC (Network Operating Center) est la tour de contrôle du réseau, et doit être bâti sur un réseau dédié.</t>
-  </si>
-  <si>
-    <t>Réseau Wi-Fi visiteurs</t>
-  </si>
-  <si>
-    <t>Si aujourd’hui la sécurité n’est plus optionnelle, cela n’a pas toujours été le cas. C’est pourquoi de nombreux protocoles réseaux ont dû évoluer pour intégrer cette composante et répondre aux besoins de confidentialité et d’intégrité qu’impose l’échange de données. Les protocoles réseaux sécurisés doivent être utilisés dès que possible, que ce soit sur des réseaux publics (Internet par exemple) ou sur le réseau interne de l’entité.
-Bien qu’il soit difficile d’en dresser une liste exhaustive, les protocoles les plus courants reposent sur l’utilisation de TLS et sont souvent identifiables par l’ajout de la lettre « s » (pour secure en anglais) à l’acronyme du protocole. Citons par exemple HTTPS pour la navigation Web ou IMAPS, SMTPS ou POP3S pour la messagerie.
-D’autres protocoles ont été conçus de manière sécurisée dès la conception pour se substituer à d’anciens protocoles non sécurisés. Citons par exemple SSh (Secure SHell) venu remplacer les protocoles de communication historiques TELNET et RLOGIN.</t>
-  </si>
-  <si>
-    <t>EN 2025 les flux non chiffrés peuvent être quasiment éradiqués.</t>
-  </si>
-  <si>
     <t>L’accès à Internet, devenu indispensable, présente des risques importants : sites Web hébergeant du code malveillant, téléchargement de fichiers « toxiques » et, par conséquent, possible prise de contrôle du terminal, fuite de données sensibles, etc. Pour sécuriser cet usage, il est donc indispensable que les terminaux utilisateurs n’aient pas d’accès réseau direct à Internet.</t>
   </si>
   <si>
     <t>C’est pourquoi il est recommandé de mettre en œuvre une passerelle sécurisée d’accès à Internet comprenant au minimum un pare-feu au plus près de l’accès Internet pour filtrer les connexions et un serveur mandataire (proxy) embarquant différents mécanismes de sécurité. Celui-ci assure notamment l’authentification des utilisateurs et la journalisation des requêtes.</t>
   </si>
   <si>
-    <t>Firewall Internet
-Proxy Internet</t>
-  </si>
-  <si>
     <t xml:space="preserve">Suivant le nombre de collaborateurs et le besoin de disponibilité,  ces équipements pourront être redondés. </t>
   </si>
   <si>
@@ -892,18 +620,6 @@
     <t>Par ailleurs, pour les terminaux utilisateurs, les résolutions DNS en direct de noms de domaines publics seront par défaut désactivées, celles-ci étant déléguées au serveur mandataire.</t>
   </si>
   <si>
-    <t>Politique de maintenance</t>
-  </si>
-  <si>
-    <t>Architecture en cluster</t>
-  </si>
-  <si>
-    <t>Passerelle VPN</t>
-  </si>
-  <si>
-    <t>La plupart des firewalls intègrent une passerelle VPN.</t>
-  </si>
-  <si>
     <t>Une entité peut choisir d’héberger en interne des services visibles sur Internet (site web, serveur de messagerie, etc.). Au regard de l’évolution et du perfectionnement des cyberattaques sur Internet, il est essentiel de garantir un haut niveau de protection de ce service avec des administrateurs compétents, formés de manière continue (à l’état de l’art des technologies en la matière) et disponibles. Dans le cas contraire, le recours à un hébergement externalisé auprès de professionnels est à privilégier.</t>
   </si>
   <si>
@@ -911,22 +627,6 @@
   </si>
   <si>
     <t>Enfin, il convient de mettre en place une infrastructure d’interconnexion de ces services avec Internet permettant de filtrer les flux liés à ces services de manière distincte des autres flux de l’entité. Il s’agit également d’imposer le passage des flux entrants par un serveur mandataire inverse (reverse proxy) embarquant différents mécanismes de sécurité.</t>
-  </si>
-  <si>
-    <t>DMZ Internet
-Firewall Internet</t>
-  </si>
-  <si>
-    <t>Firewall Internet
-Reverse Proxy
-WAF</t>
-  </si>
-  <si>
-    <t>Antivirus réseau
-Passerelle WEB sécurisé</t>
-  </si>
-  <si>
-    <t>Certains firewalls intègrent un proxy Internet. Il est néanmoins recommandé d'utiliser des équipements distincts, et de placer le proxy dans une DMZ.</t>
   </si>
   <si>
     <t xml:space="preserve">La messagerie est le principal vecteur d’infection du poste de travail, qu’il s’agisse de l’ouverture de pièces jointes contenant un code malveillant ou du clic malencontreux sur un lien redirigeant vers un site lui-même malveillant.
@@ -948,31 +648,7 @@
     <t>Enfin, l’administrateur de messagerie s’assurera de la mise en place des mécanismes de vérification d’authenticité et de la bonne configuration des enregistrements DNS publics liés à son infrastructure de messagerie (MX, SPF, DKIM, DMARC).</t>
   </si>
   <si>
-    <t>Politique sur la séparation des tâches</t>
-  </si>
-  <si>
-    <t>Les personnes gérant les paiements doivent être tout particulièrement sensibilisées aux escroqueries de plus en plus sophistiquées.</t>
-  </si>
-  <si>
-    <t>Antivirus réseau</t>
-  </si>
-  <si>
     <t>Il est souhaitable de ne pas exposer directement les serveurs de boîte aux lettres sur Internet. Dans ce cas, un serveur relai dédié à l’envoi et à la réception des messages doit être mis en place en coupure d’Internet.</t>
-  </si>
-  <si>
-    <t>Passerelle de messagerie sécurisé</t>
-  </si>
-  <si>
-    <t>Les passerelles de messagerie sécurisées intègrent une fonction anti-spam</t>
-  </si>
-  <si>
-    <t>Passerelle de messagerie sécurisées</t>
-  </si>
-  <si>
-    <t>Certains firewalls intègrent la fonction de passerelle de messagerie. Toutefois, il est préférable de séparer ces fonctions, et de mettre la passerelle de messagerie sécurisée dans une DMZ.</t>
-  </si>
-  <si>
-    <t>SPF/DKIM/DMARC</t>
   </si>
   <si>
     <t>Pour des besoins opérationnels, une entité peut être amenée à établir une interconnexion réseau dédiée avec un fournisseur ou un client (ex : infogérance, échange de données informatisées, flux monétiques, etc.).
@@ -991,24 +667,6 @@
     <t>Par ailleurs la connaissance d’un point de contact à jour chez le partenaire est nécessaire pour pouvoir réagir en cas d’incident de sécurité.</t>
   </si>
   <si>
-    <t>Tunnel IPSec</t>
-  </si>
-  <si>
-    <t>Cette fonction est intégrée dans la plupart des firewalls.</t>
-  </si>
-  <si>
-    <t>Firewall Partenaires</t>
-  </si>
-  <si>
-    <t>Firewall Internet</t>
-  </si>
-  <si>
-    <t>IDS/IPS</t>
-  </si>
-  <si>
-    <t>Procédure de gestion des incidents</t>
-  </si>
-  <si>
     <t>Les mécanismes de sécurité physique doivent faire partie intégrante de la sécurité des systèmes d’information et être à l’état de l’art afin de s’assurer qu’ils ne puissent pas être contournés aisément par un attaquant. Il convient donc d’identifier les mesures de sécurité physique adéquates et de sensibiliser continuellement les utilisateurs aux risques engendrés par le contournement des règles.</t>
   </si>
   <si>
@@ -1024,53 +682,22 @@
     <t>Lors du départ d’un collaborateur ou d’un changement de prestataire, il est nécessaire de procéder au retrait des droits d’accès ou au changement des codes d’accès.</t>
   </si>
   <si>
-    <t>Politique de sécurité physique</t>
-  </si>
-  <si>
     <t>Les accès non accompagnés des prestataires extérieurs aux salles serveurs et aux locaux techniques sont à proscrire, sauf s’il est possible de tracer strictement les accès et de limiter ces derniers en fonction des plages horaires.</t>
   </si>
   <si>
-    <t>Procédure de revue des droits d'accès physiques</t>
-  </si>
-  <si>
-    <t>Procédure de gestion des visiteurs</t>
-  </si>
-  <si>
-    <t>Procédure RH</t>
-  </si>
-  <si>
     <t>Un poste de travail ou un serveur utilisé pour les actions d’administration ne doit en aucun cas avoir accès à Internet, en raison des risques que la navigation Web (à travers des sites contenant du code malveillant) et la messagerie (au travers de pièces jointes potentiellement vérolées) font peser sur son intégrité.</t>
   </si>
   <si>
     <t>Pour les autres usages des administrateurs nécessitant Internet (consultation de documentation en ligne, de leur messagerie, etc.), il est recommandé de mettre à leur disposition un poste de travail distinct. À défaut, l’accès à une infrastructure virtualisée distante pour la bureautique depuis un poste d’administration est envisageable. La réciproque consistant à fournir un accès distant à une infrastructure d’administration depuis un poste bureautique est déconseillée car elle peut mener à une élévation de privilèges en cas de récupération des authentifiants d’administration.</t>
   </si>
   <si>
-    <t>Poste d'administration dédié
-Passerelle bureautique</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pour des entités voulant automatiser certaines tâches, la mise en place d’une zone d’échanges est conseillée. </t>
   </si>
   <si>
-    <t>Zone d'échanges sécurisée</t>
-  </si>
-  <si>
-    <t>Il s'agit d'une exception légitime au blocage USB.</t>
-  </si>
-  <si>
     <t>Concernant les mises à jour logicielles des équipements administrés, elles doivent être récupérées depuis une source sûre (le site de l’éditeur par exemple), contrôlées puis transférées sur le poste ou le serveur utilisé pour l’administration et non connecté à Internet.</t>
   </si>
   <si>
     <t xml:space="preserve">Ce transfert peut être réalisé sur un support amovible dédié. </t>
-  </si>
-  <si>
-    <t>Clé USB dédiée</t>
-  </si>
-  <si>
-    <t>Signature des mises à jour</t>
-  </si>
-  <si>
-    <t>Vérifier que la signature soit bien contrôlée</t>
   </si>
   <si>
     <t xml:space="preserve">Un réseau d’administration interconnecte, entre autres, les postes ou serveurs d’administration et les interfaces d’administration des équipements. Dans la logique de segmentation du réseau global de l’entité, il est indispensable de cloisonner spécifiquement le réseau d’administration, notamment vis-à-vis du réseau bureautique des utilisateurs, pour se prémunir de toute compromission par rebond depuis un poste utilisateur vers une ressource d’administration. </t>
@@ -1086,12 +713,6 @@
     <t>Si une délégation de privilèges sur un poste de travail est réellement nécessaire pour répondre à un besoin ponctuel de l’utilisateur, celle-ci doit être tracée, limitée dans le temps et retirée à échéance.</t>
   </si>
   <si>
-    <t>Politique des postes de travail et de télétravail
-Politique de contrôle d’accès
-Procédure d’accès privilégié
-Inventaire des comptes à privilèges</t>
-  </si>
-  <si>
     <t xml:space="preserve">Les terminaux nomades (ordinateurs portables, tablettes, ordiphones) sont, par nature, exposés à la perte et au vol. Ils peuvent contenir localement des informations sensibles pour l’entité et constituer un point d’entrée vers de plus amples ressources du système d’information. Au-delà de l’application au minimum des politiques de sécurité de l’entité,  des mesures spécifiques de sécurisation de ces équipements sont donc à prévoir. </t>
   </si>
   <si>
@@ -1102,13 +723,6 @@
   </si>
   <si>
     <t>Il est recommandé que les terminaux nomades soient aussi banalisés que possible en évitant toute mention explicite de l’entité d’appartenance (par l’apposition d’un autocollant aux couleurs de l’entité par exemple).</t>
-  </si>
-  <si>
-    <t>Filtre de confidentialité</t>
-  </si>
-  <si>
-    <t>Chiffrement de disque
-Carte à puce ou authentificateur USB</t>
   </si>
   <si>
     <t>Les déplacements fréquents en contexte professionnel et la miniaturisation du matériel informatique conduisent souvent à la perte ou au vol de celui-ci dans l’espace public. Cela peut porter atteinte aux données sensibles de l’entité qui y sont stockées.
@@ -1121,10 +735,6 @@
     <t>Dans la mesure du possible, il est conseillé de commencer par un chiffrement complet du disque avant d’envisager le chiffrement d’archives ou de fichiers. En effet, ces derniers répondent à des besoins différents et peuvent potentiellement laisser sur le support de stockage des informations non chiffrées (fichiers de restauration de suite bureautique, par exemple).</t>
   </si>
   <si>
-    <t>Chiffrement de disque
-Chiffrement de fichiers</t>
-  </si>
-  <si>
     <t>En situation de nomadisme, il n’est pas rare qu’un utilisateur ait besoin de se connecter au système d’information de l’entité. Il convient par conséquent de s’assurer du caractère sécurisé de cette connexion réseau à travers Internet. Même si la possibilité d’établir des tunnels VPN SSL/TLS est aujourd’hui courante, il est fortement recommandé d’établir un tunnel VPN IPsec entre le poste nomade et une passerelle VPN IPsec mise à disposition par l’entité.</t>
   </si>
   <si>
@@ -1134,22 +744,6 @@
     <t>Pour les besoins spécifiques d’authentification aux portails captifs, l’entité peut choisir de déroger à la connexion automatique en autorisant une connexion à la demande ou maintenir cette recommandation en encourageant l’utilisateur à utiliser un partage de connexion sur un téléphone mobile de confiance.</t>
   </si>
   <si>
-    <t>VPN IPSec</t>
-  </si>
-  <si>
-    <t>Politique des postes de travail et de télétravail
-Firewall poste de travail</t>
-  </si>
-  <si>
-    <t>Gestion des portails captifs</t>
-  </si>
-  <si>
-    <t>Cette fonction est intégrée dans les logiciels VPN les plus courants.</t>
-  </si>
-  <si>
-    <t>Authentification forte</t>
-  </si>
-  <si>
     <t>Les ordiphones et tablettes font partie de notre quotidien personnel et/ou professionnel. La première des recommandations consiste justement à ne pas mutualiser les usages personnel et professionnel sur un seul et même terminal, par exemple en ne synchronisant pas simultanément comptes professionnel et personnel de messagerie, de réseaux sociaux, d’agendas, etc.</t>
   </si>
   <si>
@@ -1159,20 +753,6 @@
     <t>Dans le cas contraire, une configuration préalable avant remise de l’équipement et une séance de sensibilisation des utilisateurs est souhaitable.</t>
   </si>
   <si>
-    <t>Politique de sécurité des terminaux mobiles</t>
-  </si>
-  <si>
-    <t>Politique de sécurité des terminaux mobiles
-Politique d’utilisation acceptable</t>
-  </si>
-  <si>
-    <t>MDM</t>
-  </si>
-  <si>
-    <t>Politique de sécurité des terminaux mobiles
-MDM</t>
-  </si>
-  <si>
     <t xml:space="preserve">De nouvelles failles sont régulièrement découvertes au cœur des systèmes et logiciels. Ces dernières sont autant de portes d’accès qu’un attaquant peut exploiter pour réussir son intrusion dans le système d’information. Il est donc primordial de s’informer de l’apparition de nouvelles vulnérabilités (CERTFR) et d’appliquer les correctifs de sécurité sur l’ensemble des composants du système dans le mois qui suit leur publication par l’éditeur. Une politique de mise à jour doit ainsi être définie et déclinée en procédures opérationnelles. </t>
   </si>
   <si>
@@ -1180,25 +760,12 @@
   </si>
   <si>
     <t xml:space="preserve">Les composants obsolètes qui ne sont plus supportés par leurs fabricants doivent être isolés du reste du système. Cette recommandation s’applique aussi bien au niveau réseau par un filtrage strict des flux, qu’au niveau des secrets d’authentification qui doivent être dédiés à ces systèmes. </t>
-  </si>
-  <si>
-    <t>Procédures de mise à jour</t>
-  </si>
-  <si>
-    <t>Politique de renseignement sur les menaces
-Procédures de mise à jour</t>
   </si>
   <si>
     <t>L’utilisation d’un système ou d’un logiciel obsolète augmente significativement les possibilités d’attaque informatique. Les systèmes deviennent vulnérables dès lors que les correctifs ne sont plus proposés. En effet, des outils malveillants exploitant ces vulnérabilités peuvent se diffuser rapidement sur Internet alors même que l’éditeur ne propose pas de correctif de sécurité. 
 Pour anticiper ces obsolescences, un certain nombre de précautions existent :</t>
   </si>
   <si>
-    <t>CMDB</t>
-  </si>
-  <si>
-    <t>Politique de sécurité des fournisseurs tiers</t>
-  </si>
-  <si>
     <t>Disposer de journaux pertinents est nécessaire afin de pouvoir détecter d’éventuels dysfonctionnements et tentatives d’accès illicites aux composants du système d’information.</t>
   </si>
   <si>
@@ -1217,29 +784,6 @@
     <t>Une étude contextuelle du système d’information doit être effectuée et les éléments suivants doivent être journalisés :</t>
   </si>
   <si>
-    <t>Registre des biens
-Cartographie du SI</t>
-  </si>
-  <si>
-    <t>Procédure de journalisation</t>
-  </si>
-  <si>
-    <t>Procédure de synchronisation NTP</t>
-  </si>
-  <si>
-    <t>SIEM</t>
-  </si>
-  <si>
-    <t>Procédure de journalisation
-Firewall Internet
-Firewall applicatif
-EDR</t>
-  </si>
-  <si>
-    <t>Procédure de journalisation
-EDR</t>
-  </si>
-  <si>
     <t xml:space="preserve">Suite à un incident d’exploitation ou en contexte de gestion d’une intrusion, la  disponibilité de sauvegardes conservées en lieu sûr est indispensable à la poursuite de l’activité. Il est donc fortement recommandé de formaliser une politique de sauvegarde régulièrement mise à jour. Cette dernière a pour objectif de définir des exigences en matière de sauvegarde de l’information, des logiciels et des systèmes. </t>
   </si>
   <si>
@@ -1249,18 +793,6 @@
     <t>Les tests de restauration peuvent être réalisés de plusieurs manières :</t>
   </si>
   <si>
-    <t>Procédure de sauvegarde</t>
-  </si>
-  <si>
-    <t>Procédure de restauration</t>
-  </si>
-  <si>
-    <t>Tests de résilience</t>
-  </si>
-  <si>
-    <t>On pourra faire les tests de restauration dans une zone virtuelle dédiée.</t>
-  </si>
-  <si>
     <t>La réalisation d’audits réguliers (au moins une fois par an) du système d’information est essentielle car elle permet d’évaluer concrètement l’efficacité des mesures mises en œuvre et leur maintien dans le temps. Ces contrôles et audits permettent également de mesurer les écarts pouvant persister entre la règle et la pratique.</t>
   </si>
   <si>
@@ -1273,15 +805,6 @@
     <t xml:space="preserve">À l’issue de ces audits, des actions correctives doivent être identifiées, leur application planifiée et des points de suivi organisés à intervalles réguliers. Pour une plus grande efficacité, des indicateurs sur l’état d’avancement du plan d’action pourront être intégrés dans un tableau de bord à l’adresse de la direction. </t>
   </si>
   <si>
-    <t>Politique d’audit interne et externe</t>
-  </si>
-  <si>
-    <t>Politique principale</t>
-  </si>
-  <si>
-    <t>Registre des non-conformités</t>
-  </si>
-  <si>
     <t xml:space="preserve">Toute entité doit disposer d’un référent en sécurité des systèmes d’information qui sera soutenu par la direction ou par une instance décisionnelle spécialisée selon le niveau de maturité de  la structure. </t>
   </si>
   <si>
@@ -1291,19 +814,10 @@
     <t>Dans les entités les plus importantes, ce correspondant peut être désigné pour devenir le relais du RSSI. Il pourra par exemple signaler les doléances des utilisateurs et identifier les thématiques à aborder dans le cadre des sensibilisations, permettant ainsi d’élever le niveau de sécurité du système d’information au sein de l’organisme.</t>
   </si>
   <si>
-    <t>Matrice de responsabilité</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n </t>
-  </si>
-  <si>
     <t>Le constat d’un comportement inhabituel de la part d’un poste de travail ou d’un serveur (connexion impossible, activité importante, activités inhabituelles, services ouverts non autorisés, fichiers créés, modifiés ou supprimés sans autorisation, multiples alertes de l’antivirus, etc.) peut alerter sur une éventuelle intrusion.</t>
   </si>
   <si>
     <t>Une mauvaise réaction en cas d’incident de sécurité peut faire empirer la situation et empêcher de traiter correctement le problème. Le bon réflexe est de déconnecter la machine du réseau, pour stopper l’attaque. En revanche, il faut la maintenir sous tension et ne pas la redémarrer, pour ne pas perdre d’informations utiles pour l’analyse de l’attaque. Il faut ensuite prévenir la hiérarchie, ainsi que le référent en sécurité des systèmes d’information.</t>
-  </si>
-  <si>
-    <t>Politique de gestion des incidents du SI</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -1311,10 +825,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Tout incident doit être consigné dans un registre centralisé. Une plainte pourra également être déposée auprès du service judiciaire compétent.</t>
-  </si>
-  <si>
-    <t>Registre des incidents
-Procédure de gestion des incidents</t>
   </si>
   <si>
     <t>41</t>
@@ -1328,14 +838,6 @@
 La démarche recommandée consiste, dans les grandes lignes, à définir le contexte, apprécier les risques et les traiter. L’évaluation de ces risques s’opère généralement selon deux axes : leur probabilité d’apparition et leur gravité. S’ensuit l’élaboration d’un plan de traitement du risque  à faire valider par une autorité désignée à plus haut niveau.</t>
   </si>
   <si>
-    <t>Politique de gestion des risques</t>
-  </si>
-  <si>
-    <t>Audit de conformité
-Analyse de risque simple
-Etude EBIOS-RM</t>
-  </si>
-  <si>
     <t>38</t>
   </si>
   <si>
@@ -1343,49 +845,6 @@
   </si>
   <si>
     <t>annotation</t>
-  </si>
-  <si>
-    <t>Politique de sensibilisation et de formation à la sécurité de l’information
-Plan de sensibilisation et de formation
-Registre de formation et sensibilisation</t>
-  </si>
-  <si>
-    <t>En 2025, l'usage d'un gestionnaire de mots de passe est primordiale. Les mots de passe doivent être générés et avoir une entropie supérieure à 100 bits.</t>
-  </si>
-  <si>
-    <t>Cette recommandation s'impose en 2025 pour couvrir le risque ransomware.
-Utiliser un système de sauvegarde immutable sur site ou dans le cloud.
-Il est important de vérifier périodiquement l'efficacité réelle des sauvegardes au moyen de tests de résilience, consistant à simuler un effacement de toutes les informations.</t>
-  </si>
-  <si>
-    <t>La simuation de phishing est un bon moyen de sensibilisation.</t>
-  </si>
-  <si>
-    <t>Principe de modularité applicative</t>
-  </si>
-  <si>
-    <t>Pour les environnements les plus sensibles, la politique de gestion des accès à privilège prévoiera des postes dédiés pour les administrateurs.</t>
-  </si>
-  <si>
-    <t>WPA3-Entreprise est.à l'état de l'art. WPA2-Entreprise est acceptable, mais on prévoiera une migration vers WPA3-Entreprise.
-WPA3/WPA2-Entreprise s'appuient sur la gestion de certificats poste de travail.
-Sur Windows Server on pourra utiliser directement NPS (Network Policy Server). Il existe d'autres solutions comme CISCO ISE, Ivanti, FreeRadius, ...</t>
-  </si>
-  <si>
-    <t>Un réseau dédié pour les visiteurs évite tout risque de confusion.</t>
-  </si>
-  <si>
-    <t>Plan de formation adapté aux différents profils pour les équipes opérationnelles
-Politique de gestion de la sécurité du réseau</t>
-  </si>
-  <si>
-    <t>Une DMZ réalisée à l'aide d'un firewall réseau permet de mettre en œuvre cette recommandation.</t>
-  </si>
-  <si>
-    <t>Les méchanismes SPIF, DKIM et DMARC sont indispensables en 2025. Il est possible de les déléguer à un mandataire (par exemple avec Office365)</t>
-  </si>
-  <si>
-    <t>comment</t>
   </si>
   <si>
     <t>reference_control_base_urn</t>
@@ -1709,9 +1168,6 @@
     <t>1:PROC.PAM</t>
   </si>
   <si>
-    <t>L'authentification MFA est indispensable en 2025, compte-tenu de la puissance d'attaque en force brute disponible pour les attaquants.</t>
-  </si>
-  <si>
     <t>• la législation en vigueur ;</t>
   </si>
   <si>
@@ -1806,9 +1262,6 @@
     <t>• de privilégier en premier lieu un cloisonnement physique des réseaux dès que cela est possible, cette solution pouvant représenter des coûts et un temps de déploiement importants;</t>
   </si>
   <si>
-    <t>• à défaut, de mettre en œuvre un cloisonnement logique cryptographique reposant sur la mise en place de tunnels IPsec. Ceci permet d’assurer l’intégrité et la confidentialité des informations véhiculées sur le réseau d’administration vis-à-vis du réseau bureautique des utilisateurs ;</t>
-  </si>
-  <si>
     <t xml:space="preserve">• au minimum, de mettre en œuvre un cloisonnement logique par VLAN. </t>
   </si>
   <si>
@@ -1849,9 +1302,6 @@
   </si>
   <si>
     <t>• systèmes et applications : authentifications et autorisations (échecs et succès), arrêts inopinés ;</t>
-  </si>
-  <si>
-    <t>• services : erreurs de protocoles (par exemples les erreurs 403, 404 et 500 pour les services hTTP), traçabilité des flux applicatifs aux interconnexions (URL sur un relai HTTP, en-têtes des messages sur un relai SMTP, etc.).</t>
   </si>
   <si>
     <t>• la liste des données jugées vitales pour l’organisme et les serveurs concernés ;</t>
@@ -1906,31 +1356,737 @@
   <si>
     <t>urn:intuitem:risk:library:doc-pol</t>
   </si>
+  <si>
+    <t>En plus des formations générales ci-dessus, vérifier les formations spécifiques suivantes :
+- intégration de la sécurité pour les chefs de projet
+- développement sécurisé pour les développeurs
+- référentiels de sécurité pour les RSSI</t>
+  </si>
+  <si>
+    <t>Vérifier que les formations sont bien dispensées aux populations suivantes :
+- administrateurs réseau
+- équipes sécurité
+- chefs de projets
+- développeurs
+- RSSI</t>
+  </si>
+  <si>
+    <t>Vérifier que les contrats avec les infogérants et autres sous-traitants intervenant sur le SI ont bien une clause exigeant le même type de formations pour leurs équipes opérationnelles.</t>
+  </si>
+  <si>
+    <t>Vérifier que les documents remis aux nouveaux arrivants contiennent bien une sensibilisation à la cybersécurité et les règles à respecter.</t>
+  </si>
+  <si>
+    <t>Vérifier la régularité des actions de sensibilisation en contrôlant les registres de présence et/ou comptes-rendus.</t>
+  </si>
+  <si>
+    <t>Vérifier l'existence, la cohérence d'une analyse de risque sur les risques spécifiques liés à l'infogérance, avec notamment des mesures de sécurité applicables.
+Vérifier la prise en compte des mesures de sécurité applicables dans les cahiers des charges transmis aux prestataires d'infogérance.
+Vérifier la prise en compte des mesures de sécurité applicables dans la politique de sécurité des fournisseurs tiers.</t>
+  </si>
+  <si>
+    <t>Vérifier que les équipes sécurité sont bien impliquées dans la rédaction des cahiers des charges de prestation d'infogérance.</t>
+  </si>
+  <si>
+    <t>Vérifier la présence des exigences suivantes dans les cahiers des charges d'infogérance :
+- réversibilité du contrat ;
+- possibilité de réalisation d’audits ;
+- sauvegarde et restitution des données dans un format ouvert normalisé ;
+- maintien à niveau de la sécurité dans le temps.</t>
+  </si>
+  <si>
+    <t>Vérifier qu'il y a bien les consignes suivantes : 
+- obligation de respect de la politique de sécurité ;
+- interdiction de connexion d’équipements personnels au réseau de l’entité ;
+- interdiction de partage du mot de passe personnel à quiconque ; 
+- interdiction de partage des mots de passe génériques à un tiers non habilité ;
+- ne pas utiliser le même mot de passe dans différents contextes, notamment pro/perso ;
+- signaler les événements suspects par un moyen qui doit être précisément défini.</t>
+  </si>
+  <si>
+    <t>Vérifier qu'il y a bien les consignes suivantes :
+- verrouiller son poste systématiquement quand on le quitte ;
+- utiliser le gestionnaire de mot de passe fourni par l'entité pour gérer les mots de passe des différents comptes gérés.</t>
+  </si>
+  <si>
+    <t>Vérifier l'existence du PAS pour chaque prestataire d'infogérance, et sa complétude par rapport aux exigences ci-dessus.</t>
+  </si>
+  <si>
+    <t>Vérifier que les biens sensibles ne sont pas stockés dans des environnements non maîtrisés, en contrôlant le registre des biens sensibles.</t>
+  </si>
+  <si>
+    <t>Vérifier l'existence d'un registre des biens sensibles. Ce registre peut également inclure des biens non sensibles, à condition qu'une distinction claire soit effectuée entre les deux.
+Vérifier qu'une politique de sécurité couvre  la classification des biens sensibles.
+Vérifier qu'une politique de sécurité couvre la gestion des biens sensibles.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vérifier qu'il est possible de lister les biens supports liés aux biens sensibles.
+Vérifier que ces biens supports font l'objets de mesures de sécurité adaptées à la sensibilité des biens sensibles qui y sont attachés, notamment sur les points suivants :
+- sauvegarde et restauration ;
+- journalisation ;
+- contrôle d'accès.
+</t>
+  </si>
+  <si>
+    <t>Vérifier l'existence d'une cartographie du SI contenant les points suivants :
+- les différentes zones IP et le plan d’adressage associé ;
+- les équipements de routage et de sécurité (pare-feu, relais applicatifs, etc.) ;
+- les interconnexions avec l’extérieur (Internet, réseaux privés, etc.) et les partenaires.</t>
+  </si>
+  <si>
+    <t>Vérifier que la cartographie du SI permet de localiser les biens supports aux biens sensibles.</t>
+  </si>
+  <si>
+    <t>Vérifier l'existence d'une procédure de gestion des comptes à privilèges, et la présence d'un processus de mise à jour régulière.
+Vérifier l'existence d'un registre des comptes à privilèges, et la fréquence des mises à jour.</t>
+  </si>
+  <si>
+    <t>Vérifier que de tels postes n'existent pas (recommandé), ou qu'à défaut ils sont bien recensés.</t>
+  </si>
+  <si>
+    <t>Vérifier l'existence d'une procédure de recertification périodique des comptes.
+Vérifier l'efficacité de la précédente campagne de recertification, notamment la proportion de comptes supprimés, qui doit être cohérente avec le taux de départ sur les fonctions concernées.</t>
+  </si>
+  <si>
+    <t>Vérifier l'existence d'une règle de nommage pour les comptes à privilège.
+Vérifier le respect de cette règle.</t>
+  </si>
+  <si>
+    <t>Vérifier la suppression effective des comptes et boites aux lettres lors d'un départ.</t>
+  </si>
+  <si>
+    <t>Vérifier la suppression effective des moyens d'accès phyisques (neutralisation du badge, récupération des clés, …).
+Vérifier que cette mesure prend en compte le cas où l'utilisateur ne restitue pas ses moyens d'accès.</t>
+  </si>
+  <si>
+    <t>Vérifier que les équipements confiés aux utilisateurs sont bien répertoriés.
+Vérifier que la procédure RH prévoit et contrôle la restitution de ces biens lors du départ.
+Vérifier que des mesures sont prévues en cas de non-restitution.
+Vérifier que les droits d'accès au SI sont révoqués immédiatement lors du départ, même si les équipements en dotation ne sont pas restitués.</t>
+  </si>
+  <si>
+    <t>Vérifier la prise en compte en lien avec les processus RH des départs et des arrivées dans la politique de contrôle d'accès et les procédures correspondantes.
+Vérifier que les employés et prestataires ont bien des exigences de confidentialité s'appliquant après leur départ, soit au travers du contrat de travail, soit d'un autre contrat (NDA).
+Vérifier que la procédure de départ contient bien un rappel des règles de confidentialité s'appliquant après le départ.</t>
+  </si>
+  <si>
+    <t>Vérifier l'exigence de revue des procédures RH et la régularité effective de leur mise à jour.</t>
+  </si>
+  <si>
+    <t>Vérifier l'existence d'une politique prenant en compte la sécurité du réseau.</t>
+  </si>
+  <si>
+    <t>Vérifier que cette politique n'autorise que la connexion d'équipements maîtrisés.</t>
+  </si>
+  <si>
+    <t>Vérifier que les éventuelles dérogations sont accompagnées de mesures de sécurité adaptées (par exemple réseau Wi-Fi invité).</t>
+  </si>
+  <si>
+    <t>802.1X est le standard incontournable pour le contrôle d'accès réseau, aussi bien en LAN qu'en Wi-Fi. Vérifier qu'il est bien mis en œuvre.</t>
+  </si>
+  <si>
+    <t>Vérifier que la règle de base est l'utilisation de comptes nominatifs.</t>
+  </si>
+  <si>
+    <t>Vérifier que l'utilisation de compte génériques est maîtrisée. C'est notamment le cas si un bastion est mis en œuvre.</t>
+  </si>
+  <si>
+    <t>Vérifier que les administrateurs ont bien un compte séparé pour réaliser les actions d'administration.
+Vérifier que les comptes normaux des administrateurs n'ont pas de privilèges d'administration.
+Vérifier que les administrateurs n'utilisent pas leur compte administrateur pour effectuer leurs tâches standard de bureautique.
+Vérifier que les administrateurs utilisent leur compte d'administration sur un environnement adapté (terminal dédié).
+On pourra se référer au guide de l'ANSSI : https://cyber.gouv.fr/publications/recommandations-relatives-ladministration-securisee-des-si</t>
+  </si>
+  <si>
+    <t>Vérifier l'existence d'un registre des biens sensibles. Ce registre peut également inclure des biens non sensibles, à condition qu'une distinction claire soit effectuée entre les deux.</t>
+  </si>
+  <si>
+    <t>Vérifier que ce registre indique les persones ayant accès à chaque bien sensible.</t>
+  </si>
+  <si>
+    <t>Vérifier la cohérence des règles de contrôle d'accès avec ce registre.</t>
+  </si>
+  <si>
+    <t>Vérifier que les utilisateurs sont sensibilisés au fait de ne pas diminuer la sécurité des biens sensibles, notamment en évitant de les diffuser par mail  ou de les copier dans des endroits non appropriés.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vérifier que les droits d'accès aux répertoires des administrateurs sont configurés de façon restrictive. </t>
+  </si>
+  <si>
+    <t>Vérifier que les partages réseau ne contiennent pas d'information sensible, ou que le contrôle d'accès correspondant est effectif pour limiter le besoin d'en connaître.</t>
+  </si>
+  <si>
+    <t>Vérifier qu'une revue périodique des droits d'accès est réalisée.</t>
+  </si>
+  <si>
+    <t>Vérifier la mise en œuvre de mesures techniques correpondant à la politique de gestion des mots de passe, quand cela est techniquement possible.</t>
+  </si>
+  <si>
+    <t>Vérifier que les comptes sont bloqués temporairement ou définitivement après un certain nombre d'échecs (par exemple 10).</t>
+  </si>
+  <si>
+    <t>Vérifier que les connexions anonymes sont impossibles.</t>
+  </si>
+  <si>
+    <t>Vérifier que les mots de passe sont régulièrement vérifiés par un outil de détection de mots de passe faibles.
+Vérifier qu'en cas de détection d'un mot de passe faible, l'utilisateur est bien contraint de le changer.</t>
+  </si>
+  <si>
+    <t>Vérifier que le plan de sensibilisation de la mesure n°2 prend bien en compte les règles de gestion des mots de passe.</t>
+  </si>
+  <si>
+    <t>Vérifier que la procédure d'arrivée contient bien les actions de sensibilisation mentionnées dans la mesure n°2.</t>
+  </si>
+  <si>
+    <t>Vérifier que les utilisateurs sont sensibilisés à la bonne gestion de leur mot de passe maître, notamment l'importance d'une complexité suffisante, et la nécessité de le changer en cas de compromission (mais pas forcément de façon régulière, ce qui est contre-productif).</t>
+  </si>
+  <si>
+    <t>En 2025, l'usage d'un gestionnaire de mots de passe est primordiale. Les mots de passe doivent être générés et avoir plus de 17 caractères (&gt;100 bits d'entropie).
+Vérifier la mise en œuvre effective d'un gestionnaire de mots de passe.
+Vérifier que le gestionnaire de mot de passe sécurise les informations par chiffrement.</t>
+  </si>
+  <si>
+    <t>Vérifier qu'aucun mot de passe par défaut n'est laissé en place.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vérifier qu'il existe une procédure de rotation des mots de passe.
+</t>
+  </si>
+  <si>
+    <t>En 2025 cette préconisation s'impose pour les accès à des biens sensibles, et est recommandée partout.
+Vérifier que l'authentification forte est en place systématiquement pour l'accès aux biens sensibles, ou qu'à défaut l'authentification se fait par un bastion sans que l'utilisateur n'ai connaissance du mot de passe.
+Vérifier que les dérogations font l'objet d'un suivi spécifique.</t>
+  </si>
+  <si>
+    <t>L'utilisation du smartphone comme authentifiant (application OTP ou application métier) s'avère en général plus pratique que la carte à puce. 
+La carte à puce reste incontournable pour les environnements les plus sensibles.</t>
+  </si>
+  <si>
+    <t>Vérifier que les applications installées sont gérées et limitées à celles autorisées (via un gestionnaire d'applications / magasin d'applications).
+Vérifier que les extensions des navigateurs web installées sont gérées et limitées à celles autorisées.</t>
+  </si>
+  <si>
+    <t>Vérifier que les disques des postes de travail son chiffrés (avec par exemple Bitlocker, CRYHOD, MacOS…).
+Vérifier que les disques réseaux où sont stockées des données utilisateur son chiffrés.</t>
+  </si>
+  <si>
+    <t>Vérifier qu'il y a une GPO de désactivation de l'autorun.</t>
+  </si>
+  <si>
+    <t>Vérifier le cloisonnement des équipements spécifiques non gérés.</t>
+  </si>
+  <si>
+    <t>Cette recommandation s'impose en 2025 pour couvrir le risque ransomware.
+Vérifier la présence d'un système de sauvegarde immutable sur site ou dans le cloud.
+Vérifier que des tests de restauration périodiques sont menés.</t>
+  </si>
+  <si>
+    <t>En 2025 il est viable d'interdire totalement le transfert d'information par clé USB dans le cas général, avec une gestion d'exceptions.
+Vérifier que la politique de gestion des postes de travail couvre la gestion des supports amovibles.</t>
+  </si>
+  <si>
+    <t>Vérifier que les supports inconnus sont bloqués, ou a minima contrôlés par l'antivirus. 
+On peut choisir un antivirus intégrant la gestion des ports USB.</t>
+  </si>
+  <si>
+    <t>Vérifier que l'exécution depuis un support amovible est bloquée.
+On peut choisir un antivirus intégrant la gestion des ports USB.</t>
+  </si>
+  <si>
+    <t>Vérifier la procédure de mise au rebut.</t>
+  </si>
+  <si>
+    <t>Vérifier la présence d'un outil de gestion centralisée pour les postes de travail et les serveurs.
+Vérifier la mise en place de règles de durcissement des postes et servers via l'outil de gestion centralisée.
+AD est incontournable en environnement Windows.
+De nombreuses solutions multi-plateformes existent.</t>
+  </si>
+  <si>
+    <t>Vérifier la mise en œuvre d'un pare-feu sur les postes de travail.
+On peut choisir un antivirus intégrant la fonction firewall.
+Un EDR est également recommandé en 2025.</t>
+  </si>
+  <si>
+    <t>Vérifier que le pare-feu du poste de travail bloque les accès aux ports d'administration depuis un poste non spécifiquement autorisé.</t>
+  </si>
+  <si>
+    <t>Vérifier l'existence d'une matrice de flux pour les postes de travail.
+Vérifier que le pare-feu du poste de travail prend en compte cette matrice de flux, en bloquant les flux non répertoriés.</t>
+  </si>
+  <si>
+    <t>Vérifier que les tentatives d'accès bloquées font bien l'objet d'une journalisation.
+Vérifier que les tentatives d'accès bloquées font bien l'objet d'une détection.
+Les antivirus et EDR gèrent nativement la détection des incidents réseau.</t>
+  </si>
+  <si>
+    <t>Vérifier que la politique de sécurité couvre bien le chiffrement des informations transférées avec l'extérieur.
+Vérifier que des outils de chiffrement des fichiers sont mis à disposition des utilisateurs et mis en oeuvre.
+On pourra utiliser 7zip, ZOD, pour l'envoi par mail.
+Les messageries instantanées sécurisées comme Signal, Olvid, s'avèrent encore plus pratiques.</t>
+  </si>
+  <si>
+    <t>Vérifier que la politique de sécurité traite bien la transmission des clés de chiffrement de fichiers.
+Les messageries instantanées sécurisées comme Signal ou Olvid sont une très bonne solution.</t>
+  </si>
+  <si>
+    <t>Vérifier que la politique de sécurité réseau prenne bien en compte le cloisonnement du réseau.
+Vérifier l'application de ces principes dans la documentation d'architecture réseau.</t>
+  </si>
+  <si>
+    <t>Vérifier que les zones les plus sensibles sont cloisonnées par des VLANs dédiés et des pare-feu internes.
+Vérifier que c'est le cas en particulier pour le réseau d'administration.</t>
+  </si>
+  <si>
+    <t>Vérifier que la politique de sécurité réseau prévoit bien une prise en compte obligatoire du cloisonnement lors des extensions et renouvellements.
+La microsegmentation permet d'agir a posteriori quand il n'est pas possible de cloisonner par VLAN.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Vérifier le cloisonnement et le filtrage des accès Wi-Fi.
+Vérifier que les systèmes les plus sensibles ne sont pas accessibles directement depuis un accès Wi-Fi. Les accès d'administration via un VPN par-dessus le réseau Wi-Fi sont acceptables.</t>
+  </si>
+  <si>
+    <t>Vérifier la mise en oeuvre d'un protocole Wi-Fi robuste et d'une authentification centralisée.
+WPA3-Entreprise est.à l'état de l'art. WPA2-Entreprise est acceptable, mais on prévoiera une migration vers WPA3-Entreprise.
+WPA3/WPA2-Entreprise s'appuient sur la gestion de certificats poste de travail.
+Sur Windows Server on pourra utiliser directement NPS (Network Policy Server). Il existe d'autres solutions comme CISCO ISE, Ivanti, FreeRadius, ...</t>
+  </si>
+  <si>
+    <t>Vérifier l'interdiction d'une authentification Wi-Fi par mot de passe.
+En cas de dérogation, vérifier la présence de mesures compensatoires (renouvellement fréquent, interdiction de partage à des tiers).</t>
+  </si>
+  <si>
+    <t>Vérifier que l'administration des équipements réseau ne peut se faire que depuis le NOC.
+Un NOC (Network Operating Center) est la tour de contrôle du réseau, et doit être bâti sur un réseau dédié.</t>
+  </si>
+  <si>
+    <t>Vérifier qu'une connexion depuis le réseau dédié aux visiteurs ne permet aucun accès au SI. Un accès par VPN reste toutefois possible.
+L'utilisation d'équipements séparés pour le réseau dédié aux visiteurs évite tout risque de confusion.</t>
+  </si>
+  <si>
+    <t>Si aujourd’hui la sécurité n’est plus optionnelle, cela n’a pas toujours été le cas. C’est pourquoi de nombreux protocoles réseaux ont dû évoluer pour intégrer cette composante et répondre aux besoins de confidentialité et d’intégrité qu’impose l’échange de données. Les protocoles réseaux sécurisés doivent être utilisés dès que possible, que ce soit sur des réseaux publics (Internet par exemple) ou sur le réseau interne de l’entité.
+Bien qu’il soit difficile d’en dresser une liste exhaustive, les protocoles les plus courants reposent sur l’utilisation de TLS et sont souvent identifiables par l’ajout de la lettre « s » (pour secure en anglais) à l’acronyme du protocole. Citons par exemple HTTPS pour la navigation Web ou IMAPS, SMTPS ou POP3S pour la messagerie.
+D’autres protocoles ont été conçus de manière sécurisée dès la conception pour se substituer à d’anciens protocoles non sécurisés. Citons par exemple SSH (Secure SHell) venu remplacer les protocoles de communication historiques TELNET et RLOGIN.</t>
+  </si>
+  <si>
+    <t>Vérifier que tous les protocoles non chiffrés sont bloqués.
+Vérifier que les exceptions sont gérées.
+En 2025 les flux non chiffrés peuvent être quasiment éradiqués.</t>
+  </si>
+  <si>
+    <t>Vérifier que les postes de travail n'ont pas d'accès direct à Internet.
+Il est opportun d'appliquer cette mesure à l'ensemble des équipements (serveurs notamment).</t>
+  </si>
+  <si>
+    <t>Vérifier que la procédure de maintenance couvre le maintien en conditions de sécurité du proxy et les équipements complémentaires éventuels (antivirus, filtrage d'URLs, …).</t>
+  </si>
+  <si>
+    <t>Vérifier la présence d'une passerelle  web dans une zone DMZ.
+Vérifier que cette passerelle assure l'autentification des utilisateurs.
+Vérifier que cette passerelle assure la journalisation des accès.
+Certains firewalls intègrent un proxy Internet. Il est néanmoins recommandé d'utiliser des équipements distincts.</t>
+  </si>
+  <si>
+    <t>Vérifier que la passerelle met en œuvre un antivirus.
+Vérifier que la passerelle met en œuvre un filtrage d'URLs (par catégorie, listes d'autorisation, …).</t>
+  </si>
+  <si>
+    <t>Vérifier que la passerelle est redondée.</t>
+  </si>
+  <si>
+    <t>Vérifier que les poste de travail n'ont pas accès à la résolution DNS des noms de domaine publics.</t>
+  </si>
+  <si>
+    <t>Vérifier que les postes nomades ne peuvent atteindre Internet qu'au travers d'un accès VPN et de la passerelle web.
+La plupart des firewalls intègrent une passerelle VPN.</t>
+  </si>
+  <si>
+    <t>Si des services du SI sont exposés sur Internet, vérifier :
+- que les administrateurs sont formés de manière continue ;
+- que les administrateurs sont disponibles en permanence (astreintes, équipes internationales décalées, ...)</t>
+  </si>
+  <si>
+    <t>Si des services SI sont exposés sur Internet, vérifier qu'ils sont situés dans une DMZ physiquement cloisonnée à l'aide d'un pare-feu réseau.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si des services SI sont exposés sur Internet, vérifier :
+- qu'ils sont séparés d'Internet par un pare-feu réseau avec des règles permettant de séparer les flux concernés.
+- que les flux pouvant atteindre le cœur du SI passent par un serveur mandataire inverse.
+</t>
+  </si>
+  <si>
+    <t>Vérifier que les utilisateurs sont bien sensibilisés aux risques liés à l'usage de la messagerie.
+La simuation de phishing est un bon moyen de sensibilisation.</t>
+  </si>
+  <si>
+    <t>Vérifier que les personnes gérant les paiements sont tout particulièrement sensibilisées aux escroqueries de plus en plus sophistiquées.</t>
+  </si>
+  <si>
+    <t>Vérifier que la politique de sécurité couvre bien la gestion des mots de passe et qu'elle est mise en oeuvre.
+Voir le guide ANSSI : Recommandations relatives à l'authentification multifacteur et aux mots de passe.
+Depuis 2024, il est important de prendre en compte les recommandations NIST-SP800-63B sur le renouvellement des mots de passe. En particulier, il n'est plus recommandé d'exiger une rotation périodique, car cette approche s'avère contre-productive.</t>
+  </si>
+  <si>
+    <t>Cette position est inacceptable en 2025, et bientôt illégale. Elle ne devra donc pas être tolérée.
+Pour des équipements anciens qui ne sont plus maintenus par leur fabricant, on prévoiera leur décommissionnement et on les isolera dans une zone dédiée.</t>
+  </si>
+  <si>
+    <t>Vérifier qu'il n'est pas possible de faire une redirection vers une adresse de messagerie externe.
+Vérifier que les règles d'usage interdisent la rediction d'une adresse de messagerie externe.</t>
+  </si>
+  <si>
+    <t>Vérifier la présence d'une passerelle de messagerie sécurisée en coupure sur Internet.
+Certains firewalls intègrent la fonction de passerelle de messagerie. Toutefois, il est préférable de séparer ces fonctions, et de mettre la passerelle de messagerie sécurisée dans une DMZ.</t>
+  </si>
+  <si>
+    <t>Vérifier la présence d'une capacité de filtrage anti-spam sur la messagerie Internet.
+Les passerelles de messagerie sécurisées intègrent une fonction anti-spam</t>
+  </si>
+  <si>
+    <t>Vérifier la bonne configuration MX/SPIF/DKIM/DMARC pour les domaines de l'entité. Il est possible d'utiliser des services de vérification en ligne bien connus pour obtenir un diagnostic.
+Les méchanismes SPIF, DKIM et DMARC sont indispensables en 2025. Il est possible de les déléguer à un mandataire (par exemple avec Office365).</t>
+  </si>
+  <si>
+    <t>Vérifier que les interconnexions avec des partenaires sont faites à l'aide de tunnels IPSec.
+Cette fonction est intégrée dans la plupart des pare-feu réseau.</t>
+  </si>
+  <si>
+    <t>Vérifier la présence d'un IDS/IPS surveillant les flux échangés avec des partenaires.</t>
+  </si>
+  <si>
+    <t>Vérifier que les flux échangés avec des partenaires documentés dans une matrice de flux validée par la sécurité.
+Vérifier que les flux échangés avec des partenaires sont filtrés par un pare-feu réseau conformément à la matrice de flux validée.</t>
+  </si>
+  <si>
+    <t>Vérifier que le pare-feu pour les flux échangés avec des partenaires est dédié à cet usage.</t>
+  </si>
+  <si>
+    <t>Vérifier que la procédure de gestion des incidents permet d'accéder à un point de contact chez chaque partenaire.</t>
+  </si>
+  <si>
+    <t>Vérifier l'existence d'une politique de sécurité physique.
+Vérifier que les moyens de sécurité physique sont à l'état de l'art. Cela peut notamment se faire par un audit ou un test d'intrusion dédiés.
+Vérifier que les utilisateurs sont continuellement sensibilisés à l'importance des règles de sécurité physiques et les risques engendrés par leur contournement.</t>
+  </si>
+  <si>
+    <t>Vérifier que les locaux techniques et salles serveurs sont dotées d'un contrôle d'accès par badge (recommandé) ou par clé.</t>
+  </si>
+  <si>
+    <t>Vérifier que la procédure de contrôle d'accès physique empêche tout accès non autorisé des prestataires extérieurs.</t>
+  </si>
+  <si>
+    <t>Vérifier que les procédures de sécurité physique prévoient une recertification régulière des accès physiques.
+Vérifier que cette recertification est réellement faite (par exemple en consultant le journal des changements des droits d'accès).</t>
+  </si>
+  <si>
+    <t>Vérifier que les procédures de sécurité physique prévoient le retrait des droits d'accès immédiatement lors du départ d'un collaborateur ou d'un prestataire.</t>
+  </si>
+  <si>
+    <t>Vérifier que les prises réseaux se trouvant dans des zones ouvertes au public sont désactivées ou correctement sécurisées (par exemple authentification 802.1X, filtrage des flux, surveillance des flux...).</t>
+  </si>
+  <si>
+    <t>Vérifier que les administrateurs ont un terminal dédié pour les actions d'administration.</t>
+  </si>
+  <si>
+    <t>Vérifier que les administrateurs ont soit un deuxième terminal pour leurs tâches bureautiques, soit un accès depuis leur poste d'administration à un poste virtuel.</t>
+  </si>
+  <si>
+    <t>Vérifier que les mises à jour logicielles des équipements administrés :
+- proviennent d'une source sûre ;
+- sont signées cryptographiquement et que cette signature est contrôlé.</t>
+  </si>
+  <si>
+    <t>Vérifier que ce processus dérogatoire est correctement documenté. Il s'agit d'une exception légitime au blocage USB.</t>
+  </si>
+  <si>
+    <t>Vérifier la présence d'une zone d'échanges sécurisée.</t>
+  </si>
+  <si>
+    <t>Vérifier l'existence d'un réseau d'administration et son cloisonnement dans une zone dédiée par un pare-feu réseau.
+Vérifier l'existence d'une matrice de flux validée par la sécurité entre le réseau d'administration et le réseau bureautique.
+Vérifier que les flux entre le réseau d'administration et le réseau bureautique sont filtrés conformément à la matrice de flux.</t>
+  </si>
+  <si>
+    <t>Vérifier que le réseau d'administration est physiquement cloisonné.</t>
+  </si>
+  <si>
+    <t>• à défaut, de mettre en œuvre un cloisonnement logique cryptographique reposant sur la mise en place de tunnels IPSec. Ceci permet d’assurer l’intégrité et la confidentialité des informations véhiculées sur le réseau d’administration vis-à-vis du réseau bureautique des utilisateurs ;</t>
+  </si>
+  <si>
+    <t>A défaut, vérifier que le réseau d'administration est logiquement cloisonné à l'aide de tunnels IPSec.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vérifier que seuls les administrateurs concernés ont un accès administrateur sur tous les postes de travail.
+</t>
+  </si>
+  <si>
+    <t>Vérifier que les dérogations sont :
+- tracées ;
+- limités dans le temps ;
+- retirées à échéance.</t>
+  </si>
+  <si>
+    <t>Vérifier que la politique de gestion des postes de travail prend en compte le nomadisme et prévoit des mesures spécifiques pour en réduire les risques.</t>
+  </si>
+  <si>
+    <t>Vérifier que les utilisateurs nomades sont sensibilisés aux risques spécifiques liés à cet usage.</t>
+  </si>
+  <si>
+    <t>Vérifier que les postes nomades sont banalisés.</t>
+  </si>
+  <si>
+    <t>Vérifier que les postes nomades disposent d'un filtre de confidentialité.</t>
+  </si>
+  <si>
+    <t>Vérifier que les postes nomades sont chiffrés avec une clé de chiffrement dont la mise en œuvre nécessite un dispositif externe (clé USB, carte à puce, …).</t>
+  </si>
+  <si>
+    <t>Vérifier qu'il existe une politique cryptographique qui prend en compte les points suivants :
+- tous les terminaux nomades (PC ou ordiphone) doivent être chiffrés ;
+- tous les supports amovibles nomades (clé USB, disque, bande, …) doivent être chiffrés.
+Il conviendra de faire une exception pour les supports contenant exclusivement des données publiques.</t>
+  </si>
+  <si>
+    <t>Vérifier que les systèmes de chiffrement de partitions ou de fichiers sont mis en œuvre avec une gestion de clé adaptée : 
+- chaque chiffrement utilise une clé unique ;
+- la taille de cette clé est conforme aux recommandations de l'ANSSI (RGS) ;
+- la clé est générée aléatoirement par un système de confiance ;
+- la clé est conservée en lieu sûr (clé USB, carte à puce, ...)</t>
+  </si>
+  <si>
+    <t>Vérifier que les disques des poste de travail nomades sont chiffrés intégralement.</t>
+  </si>
+  <si>
+    <t>Vérifier que les postes nomades sont munis d'un VPN IPSec pour accéder au SI.</t>
+  </si>
+  <si>
+    <t>Vérifier que le tunnel VPN :
+- est établi automatiquement ;
+- ne peut pas être désactivé par l'utilisateur ;
+- ne peut pas être contourné.</t>
+  </si>
+  <si>
+    <t>Vérifier que si un mécanisme de gestion des portails captifs est présent, il offre des garanties de sécurité.
+Cette fonction est intégrée dans les logiciels VPN les plus courants.</t>
+  </si>
+  <si>
+    <t>Vérifier que l'établissement du VPN requiert une authentification MFA.
+L'authentification MFA est indispensable en 2025, compte-tenu de la puissance d'attaque en force brute disponible pour les attaquants.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vérifier la prise en compte des terminaux mobiles dans la politique de sécurité.
+Vérifier que les utilisateurs sont sensibilisés au fait de ne pas mélanger les usages professionnels et privés sur leur terminal mobile.
+</t>
+  </si>
+  <si>
+    <t>Vérifier que les terminaux mobiles fournis par l'entité sont gérés par une solution de gestion à distance (MDM).
+Vérifier que la solution MDM déploie de manière homogène des politiques de sécurité, notamment :
+- moyen de déverrouillage du terminal ;
+- limitation de l’usage du magasin d’applications à des applications validées du point de vue de la sécurité.</t>
+  </si>
+  <si>
+    <t>Vérifier que la solution MDM interdit l'usage d'un assistant vocal.</t>
+  </si>
+  <si>
+    <t>Vérifier que l'entité a mis en place des moyens de veille sur les vulnérabilités pouvant affecter les solutions mises en œuvre.
+Vérifier l'existence d'une politique de maintenance de la sécurité.
+Vérifier que cette politique est déclinée en procédures opérationnelles pour toutes les solutions mises en oeuvre.</t>
+  </si>
+  <si>
+    <t>Vérifier que les procédures de maintenance prévoient l'inventaire continu des composants du SI.</t>
+  </si>
+  <si>
+    <t>Vérifier que les procédures de maintanance prévoient les canaux de notification sur les vulnérabilités pouvant affecter les composants maintenus.</t>
+  </si>
+  <si>
+    <t>Vérifier que les procédures de maintenance détaillent les outils mis en œuvre pour le déploiement des correctifs.</t>
+  </si>
+  <si>
+    <t>Vérifier que les procédures de maintenance détaillent 
+- le processus de qualification des correctifs avant déploiement ;
+- le processus de déploiement progressif mis en œuvre.</t>
+  </si>
+  <si>
+    <t>Vérifier que le principe de modularité applicative est pris en compte dans les pratiques d'architecture.</t>
+  </si>
+  <si>
+    <t>Vérifier que la politique de maintenance privilégie l'homogénéité des solutions pour faciliter leur mise à jour.</t>
+  </si>
+  <si>
+    <t>Vérifier que la CMDB permet le suivi des dates de fin de support des logiciels.</t>
+  </si>
+  <si>
+    <t>Vérifier l'existence d'une CMDB et que tous les composants du SI y sont répertoriés.</t>
+  </si>
+  <si>
+    <t>Vérifier que les procédures de sélection des solutions prennent en compte le maintien en condition de sécurité.</t>
+  </si>
+  <si>
+    <t>Vérifier que les contrats avec les fournisseurs exigent le maintien en condition de sécurité et la gestion de l'obsolescence des solutions fournies.</t>
+  </si>
+  <si>
+    <t>Vérifier que la politique de maintenance prévoie le processus de gestion de l'obsolescence.
+Vérifier que les moyens correpondants sont bien budgétés et mis en oeuvre.</t>
+  </si>
+  <si>
+    <t>Vérifier que les systèmes les plus importants mettent en œuvre une journalisation des événéments de sécurité.</t>
+  </si>
+  <si>
+    <t>Vérifier que le registre des biens sensibles identifie les composants critiques.</t>
+  </si>
+  <si>
+    <t>Vérifier que a procédure de journalisation détaille la configuration de journalisation cible pour les composants critiques.</t>
+  </si>
+  <si>
+    <t>Vérifier qu'une étude contextuelle du SI pour déterminer les besoins de journalisation a été menée.</t>
+  </si>
+  <si>
+    <t>Vérifier que les événements de type paquets bloqués par un pare-feu sont journalisés.</t>
+  </si>
+  <si>
+    <t>Vérifier pour les systèmes et applications que les événements suivants sont journalisés : 
+- authentifications et autorisations (échecs et succès) ;
+- arrêts inopinés.</t>
+  </si>
+  <si>
+    <t>• services : erreurs de protocoles (par exemples les erreurs 403, 404 et 500 pour les services HTTP), traçabilité des flux applicatifs aux interconnexions (URL sur un relai HTTP, en-têtes des messages sur un relai SMTP, etc.).</t>
+  </si>
+  <si>
+    <t>Vérifier pour les services que les événements suivants sont journalisés : 
+- erreurs de protocoles ;
+- URL visitées sur la passerelle mandataire web ;
+- en-têtes des messages sur le relai de messagerie.</t>
+  </si>
+  <si>
+    <t>Vérifier que l'ensemble du SI met en œuvre une politique de synchornisation des horloges (protocole NTP).</t>
+  </si>
+  <si>
+    <t>Vérifier la mise en œuvre d'un SIEM pour récupérer l'ensemble des événements journalisés.
+Vérifier que le SIEM automatique la détection d'événements suspects.
+Vérifier que le SIEM archive les journaux pour une durée longue.</t>
+  </si>
+  <si>
+    <t>Vérifier l'existence d'une politque de sauvegarde et de restauration formalisée.</t>
+  </si>
+  <si>
+    <t>Registre des biens sensibles.</t>
+  </si>
+  <si>
+    <t>Vérifier que des tests de resturation des systèmes importants sont automatisées pour être réalisées avec régularité.</t>
+  </si>
+  <si>
+    <t>Vérifier que des restaurations ponctuelles sont réalisables en fonction des besoins (erreur sur un fichier).</t>
+  </si>
+  <si>
+    <t>Vérifier que la procédure de restauration détaille comment faire une restauration globale.</t>
+  </si>
+  <si>
+    <t>Vérifier qu'un test de restauration globale est fait régulièrement, au moins une fois par an.
+On pourra faire les tests de restauration dans une zone virtuelle dédiée.
+Vérifier que les résultats de ces tests de restauration globale sont bien consignés.</t>
+  </si>
+  <si>
+    <t>Vérifier l'existence d'une politique d'audit.</t>
+  </si>
+  <si>
+    <t>Vérifier que des mesures de sécurité nécessaires sont établies indépendamment de la politique d'audit.</t>
+  </si>
+  <si>
+    <t>Vérifier que l'entité dispose d’un référent en sécurité des systèmes d’information (généralement nommé RSSI).
+Vérifier que ce référent est soutenu par la direction ou par une instance décisionnelle spécialisée.</t>
+  </si>
+  <si>
+    <t>Vérifier que le référent est formé à la cybersécurité.
+Vérifier que le référent est formé à la gestion de crise.</t>
+  </si>
+  <si>
+    <t>Vérifier que l'organisation prévoit si besoin des référents locaux qui sont le relai du RSSI.
+Vérifier que les relais locaux sont chargés de recueillir les doléances des utilisateurs.
+Vérifier que les relais locaux sont chargés d'identifier les thématiques à aborder dans le cadre des sensibilisations.</t>
+  </si>
+  <si>
+    <t>Vérifier que les anomalies sur les postes de travail ou les serveurs pouvant faire suspecter un incident de sécurité sont bien détectés, notamment :
+- connexion impossible ;
+- activité importante ;
+- activités inhabituelles ;
+- services ouverts non autorisés ;
+- fichiers créés, modifiés ou supprimés sans autorisation ;
+-  multiples alertes de l’antivirus.</t>
+  </si>
+  <si>
+    <t>Vérifier que le référent de sécurité dispose d'un contrat avec un prestataire de réponse à incident disposant de la certification PRIS.</t>
+  </si>
+  <si>
+    <t>Vérifier qu'il existe un registre des incidents de sécurité
+Vérifier que la politique de gestion des incidents prévoit le dépôt d'une plainte le cas échéant.</t>
+  </si>
+  <si>
+    <t>Vérifier que la politique de sécurité prévoit la démarche d'analyse des risques de cybersécurité conformes aux principes ISO 27005.
+Vérifier que des analyses de risques sont menées.</t>
+  </si>
+  <si>
+    <t>Vérifier la mise en place d'audits de conformité selon un standard de cybersécurité.
+Vérifier la mise en place d'analyses de risques prenant en compte les retours d'expérience des utilisateurs.
+Vérifier la mise en œuvre d'études de type EBIOS-RM.</t>
+  </si>
+  <si>
+    <t>Vérifier que la politique de sécurité prévoit de privilégier le recours à des produits qualifiés par l'ANSSI.
+Vérifier que la politique de sécurité prévoit de privilégier le recours à des prestataires qualifiés par l'ANSSI (PACS, PASSI, PRIS, PDIS, SecNumCloud, PAMS).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vérifier que les actions correctives identifiées lors des audits sont planifiées et suivies.
+Vérifier que des indicateurs sur l’état d’avancement du plan d’action sont intégrés dans un tableau de bord à l’adresse de la direction. </t>
+  </si>
+  <si>
+    <t>Vérifier que la procédure de gestion des incidents prévoit en cas d'attaque :
+- de déconnecter la machine suspecte du réseau ;
+- de  la maintenir sous tension et ne pas la redémarrer ;
+- de prévenir la hiérarchie, ainsi que le référent en sécurité des systèmes d’information.</t>
+  </si>
+  <si>
+    <t>Vérifier que les évènements critiques pour la sécurité sont journalisés et gardés pendant au moins un an (ou plus en fonction des obligations légales du secteur d’activités).</t>
+  </si>
+  <si>
+    <t>Vérifier que les dispositifs suivants sont pris en compte :
+- postes utilisateurs ;
+- serveurs ;
+- imprimantes ;
+- téléphones ;
+- périphériques USB.</t>
+  </si>
+  <si>
+    <t>Vérifier que les équipement qui ne peuvent pas être mis à jour :
+- sont répertoriés ;
+- sont isolés du reste du système avec un filtrage réseau strict des flux autorisés avec le reste du SI ;
+- utilisent des secrets d'authentification dédiés.</t>
+  </si>
+  <si>
+    <t>A défaut, vérifier que le réseau d'administration est logiquement cloisonné à l'aide de VLANs dédiés.</t>
+  </si>
+  <si>
+    <t>Vérifier la mise en œuvre régulière d'audits techniques et/ou organisationnels.
+Vérifier que les auditeurs (internes ou externes) sont compétents pour les missions réalisés.
+Vérifier que les exigences d'audit pouvant découler des réglementations et obligations légales sont prises en compte.</t>
+  </si>
+  <si>
+    <t>Vérifier que le référent est connu de tous (par exemple son nom est fourni dans les actions de sensibilisation).
+Vérifier que le référent est responsable de la définition des règles à appliquer selon le contexte.
+Vérifier que le référent est responsable de la vérification de l’application des règles.
+Vérifier que le référent est responsable de la sensibilisation des utilisateurs et de la définition d’un plan de formation des acteurs informatiques.
+Vérifier que le référent est responsable de la centralisation et du traitement des incidents de sécurité constatés ou remontés par les utilisateurs.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1983,7 +2139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2030,20 +2186,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
@@ -2386,7 +2536,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="242" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2408,7 +2558,7 @@
         <v>66</v>
       </c>
       <c r="B2" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2469,10 +2619,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>568</v>
+        <v>407</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>569</v>
+        <v>408</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -2531,10 +2681,10 @@
     </row>
     <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>415</v>
+        <v>257</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>503</v>
+        <v>345</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -2556,11 +2706,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59F3B91E-FB51-FE47-B7BA-EB94A985CF95}">
-  <dimension ref="A1:I260"/>
+  <dimension ref="A1:H260"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F40" sqref="F40"/>
+    <sheetView topLeftCell="H1" zoomScale="246" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A244" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H248" sqref="H248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2571,12 +2721,11 @@
     <col min="5" max="5" width="63.83203125" style="4" customWidth="1"/>
     <col min="6" max="6" width="128.1640625" style="5" customWidth="1"/>
     <col min="7" max="7" width="81.6640625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="83.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="144" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="5"/>
+    <col min="8" max="8" width="144" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>61</v>
       </c>
@@ -2596,16 +2745,13 @@
         <v>58</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>401</v>
+        <v>255</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B2" s="7">
         <v>1</v>
       </c>
@@ -2616,7 +2762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="10" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="10" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B3" s="10">
         <v>2</v>
       </c>
@@ -2632,7 +2778,7 @@
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
     </row>
-    <row r="4" spans="1:9" ht="119" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="119" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>63</v>
       </c>
@@ -2646,13 +2792,13 @@
         <v>114</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>455</v>
+        <v>297</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>63</v>
       </c>
@@ -2662,17 +2808,14 @@
       <c r="C5" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F5" s="22" t="s">
-        <v>509</v>
+      <c r="F5" s="20" t="s">
+        <v>350</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>63</v>
       </c>
@@ -2682,17 +2825,14 @@
       <c r="C6" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F6" s="22" t="s">
-        <v>510</v>
+      <c r="F6" s="20" t="s">
+        <v>351</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>63</v>
       </c>
@@ -2702,17 +2842,14 @@
       <c r="C7" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F7" s="22" t="s">
-        <v>511</v>
+      <c r="F7" s="20" t="s">
+        <v>352</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>63</v>
       </c>
@@ -2722,17 +2859,14 @@
       <c r="C8" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F8" s="22" t="s">
-        <v>512</v>
+      <c r="F8" s="20" t="s">
+        <v>353</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>63</v>
       </c>
@@ -2742,17 +2876,14 @@
       <c r="C9" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F9" s="22" t="s">
-        <v>513</v>
+      <c r="F9" s="20" t="s">
+        <v>354</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>63</v>
       </c>
@@ -2762,17 +2893,14 @@
       <c r="C10" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F10" s="22" t="s">
-        <v>514</v>
+      <c r="F10" s="20" t="s">
+        <v>355</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>63</v>
       </c>
@@ -2782,17 +2910,14 @@
       <c r="C11" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F11" s="22" t="s">
-        <v>515</v>
+      <c r="F11" s="20" t="s">
+        <v>356</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>63</v>
       </c>
@@ -2806,13 +2931,13 @@
         <v>115</v>
       </c>
       <c r="G12" t="s">
-        <v>456</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>63</v>
       </c>
@@ -2826,18 +2951,21 @@
         <v>116</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+        <v>258</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="B14" s="10">
         <v>2</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>1</v>
@@ -2845,7 +2973,7 @@
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
     </row>
-    <row r="15" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>63</v>
       </c>
@@ -2856,16 +2984,16 @@
         <v>85</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>299</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>63</v>
       </c>
@@ -2876,16 +3004,16 @@
         <v>85</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>456</v>
+        <v>298</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>63</v>
       </c>
@@ -2895,17 +3023,14 @@
       <c r="C17" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F17" s="22" t="s">
-        <v>516</v>
+      <c r="F17" s="20" t="s">
+        <v>357</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>63</v>
       </c>
@@ -2915,17 +3040,14 @@
       <c r="C18" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F18" s="22" t="s">
-        <v>517</v>
+      <c r="F18" s="20" t="s">
+        <v>358</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>63</v>
       </c>
@@ -2935,17 +3057,14 @@
       <c r="C19" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F19" s="22" t="s">
-        <v>518</v>
+      <c r="F19" s="20" t="s">
+        <v>359</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="119" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>63</v>
       </c>
@@ -2955,17 +3074,17 @@
       <c r="C20" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F20" s="22" t="s">
-        <v>519</v>
+      <c r="F20" s="20" t="s">
+        <v>360</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>63</v>
       </c>
@@ -2975,17 +3094,17 @@
       <c r="C21" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F21" s="22" t="s">
-        <v>520</v>
+      <c r="F21" s="20" t="s">
+        <v>361</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>63</v>
       </c>
@@ -2999,16 +3118,13 @@
         <v>90</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" s="10" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="10" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B23" s="10">
         <v>2</v>
       </c>
@@ -3016,13 +3132,13 @@
         <v>85</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>63</v>
       </c>
@@ -3033,16 +3149,16 @@
         <v>85</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>459</v>
+        <v>301</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B25" s="5">
         <v>3</v>
       </c>
@@ -3050,11 +3166,11 @@
         <v>85</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>63</v>
       </c>
@@ -3064,17 +3180,17 @@
       <c r="C26" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F26" s="22" t="s">
-        <v>521</v>
+      <c r="F26" s="20" t="s">
+        <v>362</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>416</v>
+        <v>258</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>63</v>
       </c>
@@ -3084,17 +3200,17 @@
       <c r="C27" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F27" s="22" t="s">
-        <v>522</v>
+      <c r="F27" s="20" t="s">
+        <v>363</v>
       </c>
       <c r="G27" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="H27" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="H27" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>63</v>
       </c>
@@ -3105,16 +3221,16 @@
         <v>85</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>302</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>63</v>
       </c>
@@ -3125,19 +3241,16 @@
         <v>85</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>461</v>
+        <v>303</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B30" s="7">
         <v>1</v>
       </c>
@@ -3148,7 +3261,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="B31" s="10">
         <v>2</v>
       </c>
@@ -3164,7 +3277,7 @@
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
     </row>
-    <row r="32" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>63</v>
       </c>
@@ -3175,16 +3288,16 @@
         <v>85</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>462</v>
+        <v>304</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>63</v>
       </c>
@@ -3195,16 +3308,16 @@
         <v>85</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>463</v>
+        <v>305</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>63</v>
       </c>
@@ -3215,13 +3328,13 @@
         <v>85</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>143</v>
+        <v>306</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -3235,13 +3348,13 @@
         <v>85</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>464</v>
+        <v>306</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>143</v>
+        <v>424</v>
       </c>
     </row>
     <row r="36" spans="1:8" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
@@ -3271,13 +3384,13 @@
         <v>85</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>465</v>
+        <v>307</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>148</v>
+        <v>425</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -3290,14 +3403,11 @@
       <c r="C38" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F38" s="22" t="s">
-        <v>523</v>
+      <c r="F38" s="20" t="s">
+        <v>364</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>148</v>
+        <v>307</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -3310,14 +3420,11 @@
       <c r="C39" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F39" s="22" t="s">
-        <v>524</v>
+      <c r="F39" s="20" t="s">
+        <v>365</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>148</v>
+        <v>307</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -3330,14 +3437,14 @@
       <c r="C40" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F40" s="22" t="s">
-        <v>567</v>
+      <c r="F40" s="20" t="s">
+        <v>406</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>148</v>
+        <v>307</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -3351,13 +3458,13 @@
         <v>85</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="G41" t="s">
-        <v>435</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>150</v>
+        <v>277</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -3371,13 +3478,13 @@
         <v>85</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>417</v>
+        <v>259</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>155</v>
+        <v>428</v>
       </c>
     </row>
     <row r="43" spans="1:8" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
@@ -3385,7 +3492,7 @@
         <v>2</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D43" s="14">
         <v>6</v>
@@ -3404,13 +3511,13 @@
         <v>3</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>417</v>
+        <v>259</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>155</v>
+        <v>432</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -3423,17 +3530,17 @@
       <c r="C45" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F45" s="22" t="s">
-        <v>525</v>
+      <c r="F45" s="20" t="s">
+        <v>366</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>278</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>63</v>
       </c>
@@ -3443,17 +3550,17 @@
       <c r="C46" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F46" s="22" t="s">
-        <v>526</v>
+      <c r="F46" s="20" t="s">
+        <v>367</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="H46" s="5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>279</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
         <v>63</v>
       </c>
@@ -3463,14 +3570,14 @@
       <c r="C47" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F47" s="22" t="s">
-        <v>527</v>
+      <c r="F47" s="20" t="s">
+        <v>368</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>418</v>
+        <v>260</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>158</v>
+        <v>431</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -3483,17 +3590,17 @@
       <c r="C48" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F48" s="22" t="s">
-        <v>528</v>
+      <c r="F48" s="20" t="s">
+        <v>369</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>419</v>
+        <v>261</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
         <v>63</v>
       </c>
@@ -3507,18 +3614,18 @@
         <v>91</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="H49" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" s="13" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" s="13" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B50" s="13">
         <v>2</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D50" s="14">
         <v>7</v>
@@ -3529,7 +3636,7 @@
       <c r="F50" s="15"/>
       <c r="G50" s="15"/>
     </row>
-    <row r="51" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
         <v>63</v>
       </c>
@@ -3540,16 +3647,16 @@
         <v>85</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="H51" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
         <v>63</v>
       </c>
@@ -3560,16 +3667,16 @@
         <v>85</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>263</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
         <v>63</v>
       </c>
@@ -3580,16 +3687,16 @@
         <v>85</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
         <v>63</v>
       </c>
@@ -3603,16 +3710,13 @@
         <v>92</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="I54" s="5" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+        <v>319</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B55" s="7">
         <v>1</v>
       </c>
@@ -3623,12 +3727,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:9" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="B56" s="13">
         <v>2</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D56" s="14">
         <v>8</v>
@@ -3639,7 +3743,7 @@
       <c r="F56" s="15"/>
       <c r="G56" s="15"/>
     </row>
-    <row r="57" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
         <v>63</v>
       </c>
@@ -3650,16 +3754,16 @@
         <v>85</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="H57" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>259</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
         <v>63</v>
       </c>
@@ -3670,16 +3774,16 @@
         <v>85</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>466</v>
-      </c>
-      <c r="H58" s="4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>308</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
         <v>63</v>
       </c>
@@ -3690,16 +3794,16 @@
         <v>85</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>466</v>
+        <v>308</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
         <v>63</v>
       </c>
@@ -3713,16 +3817,13 @@
         <v>93</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="H60" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="I60" s="5" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+        <v>320</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="B61" s="13">
         <v>2</v>
       </c>
@@ -3738,7 +3839,7 @@
       <c r="F61" s="15"/>
       <c r="G61" s="15"/>
     </row>
-    <row r="62" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
         <v>63</v>
       </c>
@@ -3749,16 +3850,16 @@
         <v>85</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>461</v>
+        <v>303</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
         <v>63</v>
       </c>
@@ -3768,17 +3869,17 @@
       <c r="C63" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F63" s="22" t="s">
-        <v>529</v>
+      <c r="F63" s="20" t="s">
+        <v>370</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="H63" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>259</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
         <v>63</v>
       </c>
@@ -3788,17 +3889,17 @@
       <c r="C64" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F64" s="22" t="s">
-        <v>530</v>
+      <c r="F64" s="20" t="s">
+        <v>371</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="H64" s="4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>280</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
         <v>63</v>
       </c>
@@ -3808,17 +3909,17 @@
       <c r="C65" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F65" s="22" t="s">
-        <v>531</v>
+      <c r="F65" s="20" t="s">
+        <v>372</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="H65" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>263</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
         <v>63</v>
       </c>
@@ -3829,16 +3930,16 @@
         <v>85</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="H66" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>259</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
         <v>63</v>
       </c>
@@ -3849,16 +3950,16 @@
         <v>85</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="H67" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
         <v>63</v>
       </c>
@@ -3869,16 +3970,16 @@
         <v>85</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>435</v>
+        <v>277</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="B69" s="13">
         <v>2</v>
       </c>
@@ -3894,7 +3995,7 @@
       <c r="F69" s="15"/>
       <c r="G69" s="15"/>
     </row>
-    <row r="70" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
         <v>63</v>
       </c>
@@ -3905,19 +4006,16 @@
         <v>85</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>417</v>
+        <v>259</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="I70" s="4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
         <v>63</v>
       </c>
@@ -3928,16 +4026,16 @@
         <v>85</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="H71" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>259</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
         <v>63</v>
       </c>
@@ -3947,17 +4045,17 @@
       <c r="C72" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F72" s="22" t="s">
-        <v>532</v>
+      <c r="F72" s="20" t="s">
+        <v>373</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="H72" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>259</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
         <v>63</v>
       </c>
@@ -3967,17 +4065,17 @@
       <c r="C73" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F73" s="22" t="s">
-        <v>533</v>
+      <c r="F73" s="20" t="s">
+        <v>374</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="H73" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>259</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
         <v>63</v>
       </c>
@@ -3987,17 +4085,17 @@
       <c r="C74" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F74" s="22" t="s">
-        <v>534</v>
+      <c r="F74" s="20" t="s">
+        <v>375</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>417</v>
+        <v>259</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
         <v>63</v>
       </c>
@@ -4008,16 +4106,16 @@
         <v>85</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="H75" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" s="13" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" s="13" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B76" s="13">
         <v>2</v>
       </c>
@@ -4033,7 +4131,7 @@
       <c r="F76" s="15"/>
       <c r="G76" s="15"/>
     </row>
-    <row r="77" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
         <v>63</v>
       </c>
@@ -4044,19 +4142,16 @@
         <v>85</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="H77" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="I77" s="5" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>321</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="5" t="s">
         <v>63</v>
       </c>
@@ -4067,16 +4162,16 @@
         <v>85</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>467</v>
-      </c>
-      <c r="H78" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+        <v>309</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="B79" s="13">
         <v>2</v>
       </c>
@@ -4092,7 +4187,7 @@
       <c r="F79" s="15"/>
       <c r="G79" s="15"/>
     </row>
-    <row r="80" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
         <v>63</v>
       </c>
@@ -4103,16 +4198,16 @@
         <v>85</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>185</v>
+        <v>149</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>417</v>
+        <v>259</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
         <v>63</v>
       </c>
@@ -4123,14 +4218,14 @@
         <v>85</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>186</v>
+        <v>150</v>
       </c>
       <c r="G81" s="4"/>
-      <c r="I81" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="H81" s="4" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
         <v>63</v>
       </c>
@@ -4144,13 +4239,13 @@
         <v>95</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="H82" s="5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" s="13" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+        <v>259</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" s="13" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B83" s="13">
         <v>2</v>
       </c>
@@ -4166,7 +4261,7 @@
       <c r="F83" s="15"/>
       <c r="G83" s="15"/>
     </row>
-    <row r="84" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
         <v>63</v>
       </c>
@@ -4177,19 +4272,16 @@
         <v>85</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>535</v>
+        <v>376</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="H84" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="I84" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>259</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
         <v>63</v>
       </c>
@@ -4203,16 +4295,13 @@
         <v>96</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="H85" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="I85" s="5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+        <v>259</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B86" s="7">
         <v>1</v>
       </c>
@@ -4223,12 +4312,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="87" spans="1:9" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="B87" s="13">
         <v>2</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D87" s="14">
         <v>14</v>
@@ -4239,7 +4328,7 @@
       <c r="F87" s="15"/>
       <c r="G87" s="15"/>
     </row>
-    <row r="88" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A88" s="5" t="s">
         <v>63</v>
       </c>
@@ -4250,16 +4339,16 @@
         <v>85</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>188</v>
+        <v>151</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="H88" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
         <v>63</v>
       </c>
@@ -4270,19 +4359,16 @@
         <v>85</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>190</v>
+        <v>153</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>480</v>
-      </c>
-      <c r="H89" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="I89" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>322</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A90" s="5" t="s">
         <v>63</v>
       </c>
@@ -4293,19 +4379,16 @@
         <v>85</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>481</v>
+        <v>323</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="I90" s="4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A91" s="5" t="s">
         <v>63</v>
       </c>
@@ -4316,19 +4399,16 @@
         <v>85</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>482</v>
-      </c>
-      <c r="H91" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="I91" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>324</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="5" t="s">
         <v>63</v>
       </c>
@@ -4339,16 +4419,16 @@
         <v>85</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>193</v>
+        <v>156</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="I92" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>281</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
         <v>63</v>
       </c>
@@ -4359,19 +4439,16 @@
         <v>85</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>189</v>
+        <v>152</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="H93" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="I93" s="5" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+      <c r="H93" s="5" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">
         <v>63</v>
       </c>
@@ -4385,19 +4462,18 @@
         <v>97</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="H94" s="4"/>
-      <c r="I94" s="4" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" s="13" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+        <v>325</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" s="13" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B95" s="13">
         <v>2</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D95" s="14">
         <v>15</v>
@@ -4408,7 +4484,7 @@
       <c r="F95" s="15"/>
       <c r="G95" s="15"/>
     </row>
-    <row r="96" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A96" s="5" t="s">
         <v>63</v>
       </c>
@@ -4419,19 +4495,16 @@
         <v>85</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>205</v>
+        <v>159</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="H96" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="I96" s="5" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+      <c r="H96" s="4" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
         <v>63</v>
       </c>
@@ -4442,19 +4515,16 @@
         <v>85</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>206</v>
+        <v>160</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>484</v>
-      </c>
-      <c r="H97" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="I97" s="5" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+      <c r="H97" s="4" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A98" s="5" t="s">
         <v>63</v>
       </c>
@@ -4465,19 +4535,16 @@
         <v>86</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>204</v>
+        <v>158</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>484</v>
-      </c>
-      <c r="H98" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="I98" s="5" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+      <c r="H98" s="4" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A99" s="5" t="s">
         <v>63</v>
       </c>
@@ -4488,16 +4555,16 @@
         <v>86</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>203</v>
+        <v>157</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>440</v>
+        <v>282</v>
       </c>
       <c r="H99" s="5" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="B100" s="13">
         <v>2</v>
       </c>
@@ -4513,7 +4580,7 @@
       <c r="F100" s="15"/>
       <c r="G100" s="15"/>
     </row>
-    <row r="101" spans="1:9" ht="153" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" ht="153" x14ac:dyDescent="0.2">
       <c r="A101" s="5" t="s">
         <v>63</v>
       </c>
@@ -4527,16 +4594,13 @@
         <v>57</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>480</v>
-      </c>
-      <c r="H101" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="I101" s="4" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" s="13" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+        <v>322</v>
+      </c>
+      <c r="H101" s="4" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" s="13" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B102" s="13">
         <v>2</v>
       </c>
@@ -4552,7 +4616,7 @@
       <c r="F102" s="15"/>
       <c r="G102" s="15"/>
     </row>
-    <row r="103" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A103" s="5" t="s">
         <v>63</v>
       </c>
@@ -4566,16 +4630,13 @@
         <v>98</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>484</v>
+        <v>326</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="I103" s="4" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
         <v>63</v>
       </c>
@@ -4586,16 +4647,16 @@
         <v>86</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>215</v>
+        <v>161</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>484</v>
-      </c>
-      <c r="H104" s="4" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+      <c r="H104" s="5" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A105" s="5" t="s">
         <v>63</v>
       </c>
@@ -4606,16 +4667,16 @@
         <v>86</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>216</v>
+        <v>162</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>468</v>
-      </c>
-      <c r="H105" s="5" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>310</v>
+      </c>
+      <c r="H105" s="4" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A106" s="5" t="s">
         <v>63</v>
       </c>
@@ -4626,19 +4687,16 @@
         <v>86</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>217</v>
+        <v>163</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>485</v>
+        <v>327</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="I106" s="5" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" s="13" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" s="13" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B107" s="13">
         <v>2</v>
       </c>
@@ -4654,7 +4712,7 @@
       <c r="F107" s="15"/>
       <c r="G107" s="15"/>
     </row>
-    <row r="108" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A108" s="5" t="s">
         <v>63</v>
       </c>
@@ -4665,19 +4723,16 @@
         <v>85</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>222</v>
+        <v>165</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>504</v>
+        <v>346</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="I108" s="4" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A109" s="5" t="s">
         <v>63</v>
       </c>
@@ -4688,19 +4743,16 @@
         <v>85</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>223</v>
+        <v>166</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>422</v>
+        <v>264</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="I109" s="5" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B110" s="7">
         <v>1</v>
       </c>
@@ -4711,7 +4763,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="111" spans="1:9" s="13" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" s="13" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B111" s="13">
         <v>2</v>
       </c>
@@ -4727,7 +4779,7 @@
       <c r="F111" s="15"/>
       <c r="G111" s="15"/>
     </row>
-    <row r="112" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A112" s="5" t="s">
         <v>63</v>
       </c>
@@ -4738,16 +4790,16 @@
         <v>85</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>236</v>
+        <v>169</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>420</v>
+        <v>262</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A113" s="5" t="s">
         <v>63</v>
       </c>
@@ -4758,16 +4810,16 @@
         <v>85</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>237</v>
+        <v>170</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>502</v>
+        <v>344</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="5" t="s">
         <v>63</v>
       </c>
@@ -4778,19 +4830,16 @@
         <v>85</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>238</v>
+        <v>171</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>486</v>
-      </c>
-      <c r="H114" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="I114" s="5" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+        <v>328</v>
+      </c>
+      <c r="H114" s="4" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="B115" s="13">
         <v>2</v>
       </c>
@@ -4806,7 +4855,7 @@
       <c r="F115" s="15"/>
       <c r="G115" s="15"/>
     </row>
-    <row r="116" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A116" s="5" t="s">
         <v>63</v>
       </c>
@@ -4817,19 +4866,16 @@
         <v>85</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>243</v>
+        <v>172</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>502</v>
+        <v>344</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="I116" s="5" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A117" s="5" t="s">
         <v>63</v>
       </c>
@@ -4840,59 +4886,56 @@
         <v>85</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>244</v>
+        <v>173</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I117" s="4" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A118" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="B118" s="18">
-        <v>3</v>
-      </c>
-      <c r="C118" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="H117" s="4" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A118" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B118" s="16">
+        <v>3</v>
+      </c>
+      <c r="C118" s="16" t="s">
         <v>85</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>245</v>
+        <v>174</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="H118" s="5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A119" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="B119" s="18">
-        <v>3</v>
-      </c>
-      <c r="C119" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="H118" s="4" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A119" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B119" s="16">
+        <v>3</v>
+      </c>
+      <c r="C119" s="16" t="s">
         <v>85</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>248</v>
+        <v>176</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>420</v>
+        <v>262</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="I119" s="5" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A120" s="5" t="s">
         <v>63</v>
       </c>
@@ -4903,19 +4946,16 @@
         <v>85</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>247</v>
+        <v>175</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="H120" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="I120" s="5" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" s="13" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+      <c r="H120" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" s="13" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B121" s="13">
         <v>2</v>
       </c>
@@ -4931,7 +4971,7 @@
       <c r="F121" s="15"/>
       <c r="G121" s="15"/>
     </row>
-    <row r="122" spans="1:9" ht="136" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" ht="136" x14ac:dyDescent="0.2">
       <c r="A122" s="5" t="s">
         <v>63</v>
       </c>
@@ -4942,24 +4982,21 @@
         <v>85</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>252</v>
+        <v>484</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>422</v>
+        <v>264</v>
       </c>
       <c r="H122" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="I122" s="5" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" s="13" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" s="13" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B123" s="13">
         <v>2</v>
       </c>
       <c r="C123" s="13" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D123" s="14">
         <v>22</v>
@@ -4970,7 +5007,7 @@
       <c r="F123" s="15"/>
       <c r="G123" s="15"/>
     </row>
-    <row r="124" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A124" s="5" t="s">
         <v>63</v>
       </c>
@@ -4981,16 +5018,16 @@
         <v>85</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>254</v>
+        <v>177</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="H124" s="5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+      <c r="H124" s="4" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A125" s="5" t="s">
         <v>63</v>
       </c>
@@ -5001,19 +5038,16 @@
         <v>85</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>255</v>
+        <v>178</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>505</v>
+        <v>347</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="I125" s="5" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A126" s="5" t="s">
         <v>63</v>
       </c>
@@ -5024,14 +5058,14 @@
         <v>86</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>258</v>
+        <v>180</v>
       </c>
       <c r="G126" s="4"/>
       <c r="H126" s="4" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="5" t="s">
         <v>63</v>
       </c>
@@ -5042,16 +5076,16 @@
         <v>86</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>259</v>
+        <v>181</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="H127" s="4" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+      <c r="H127" s="5" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="5" t="s">
         <v>63</v>
       </c>
@@ -5062,14 +5096,14 @@
         <v>86</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>257</v>
+        <v>179</v>
       </c>
       <c r="G128" s="4"/>
-      <c r="H128" s="4" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="H128" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A129" s="5" t="s">
         <v>63</v>
       </c>
@@ -5080,16 +5114,16 @@
         <v>86</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>261</v>
+        <v>183</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>505</v>
-      </c>
-      <c r="H129" s="4" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>347</v>
+      </c>
+      <c r="H129" s="5" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A130" s="5" t="s">
         <v>63</v>
       </c>
@@ -5100,19 +5134,16 @@
         <v>86</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>260</v>
+        <v>182</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>488</v>
-      </c>
-      <c r="H130" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="I130" s="5" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+        <v>330</v>
+      </c>
+      <c r="H130" s="4" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="B131" s="13">
         <v>2</v>
       </c>
@@ -5128,7 +5159,7 @@
       <c r="F131" s="15"/>
       <c r="G131" s="15"/>
     </row>
-    <row r="132" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A132" s="5" t="s">
         <v>63</v>
       </c>
@@ -5139,16 +5170,16 @@
         <v>85</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>266</v>
+        <v>184</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>469</v>
+        <v>311</v>
       </c>
       <c r="H132" s="4" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A133" s="5" t="s">
         <v>63</v>
       </c>
@@ -5159,19 +5190,16 @@
         <v>85</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>267</v>
+        <v>185</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>500</v>
-      </c>
-      <c r="H133" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="I133" s="5" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>342</v>
+      </c>
+      <c r="H133" s="5" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A134" s="5" t="s">
         <v>63</v>
       </c>
@@ -5182,21 +5210,21 @@
         <v>85</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>268</v>
+        <v>186</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>501</v>
+        <v>343</v>
       </c>
       <c r="H134" s="4" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" s="13" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" s="13" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B135" s="13">
         <v>2</v>
       </c>
       <c r="C135" s="13" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D135" s="14">
         <v>24</v>
@@ -5207,7 +5235,7 @@
       <c r="F135" s="15"/>
       <c r="G135" s="15"/>
     </row>
-    <row r="136" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A136" s="5" t="s">
         <v>63</v>
       </c>
@@ -5218,19 +5246,16 @@
         <v>85</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>273</v>
+        <v>187</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>456</v>
+        <v>298</v>
       </c>
       <c r="H136" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="I136" s="5" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A137" s="5" t="s">
         <v>63</v>
       </c>
@@ -5241,19 +5266,16 @@
         <v>85</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>274</v>
+        <v>188</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>424</v>
+        <v>266</v>
       </c>
       <c r="H137" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="I137" s="5" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A138" s="5" t="s">
         <v>63</v>
       </c>
@@ -5264,16 +5286,16 @@
         <v>85</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>275</v>
+        <v>189</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="H138" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>263</v>
+      </c>
+      <c r="H138" s="4" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B139" s="5">
         <v>3</v>
       </c>
@@ -5281,11 +5303,11 @@
         <v>85</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>276</v>
+        <v>190</v>
       </c>
       <c r="G139" s="4"/>
     </row>
-    <row r="140" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A140" s="5" t="s">
         <v>63</v>
       </c>
@@ -5296,16 +5318,13 @@
         <v>85</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>536</v>
+        <v>377</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>506</v>
-      </c>
-      <c r="H140" s="4" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A141" s="5" t="s">
         <v>63</v>
       </c>
@@ -5316,16 +5335,13 @@
         <v>85</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>537</v>
+        <v>378</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="H141" s="4" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A142" s="5" t="s">
         <v>63</v>
       </c>
@@ -5336,19 +5352,16 @@
         <v>86</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>282</v>
+        <v>193</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>499</v>
-      </c>
-      <c r="H142" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="I142" s="5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+      <c r="H142" s="4" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A143" s="5" t="s">
         <v>63</v>
       </c>
@@ -5359,19 +5372,16 @@
         <v>86</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>277</v>
+        <v>191</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>499</v>
-      </c>
-      <c r="H143" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="I143" s="5" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+      <c r="H143" s="4" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A144" s="5" t="s">
         <v>63</v>
       </c>
@@ -5382,24 +5392,21 @@
         <v>86</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>278</v>
+        <v>192</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="H144" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="I144" s="5" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" s="13" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+        <v>283</v>
+      </c>
+      <c r="H144" s="4" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" s="13" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B145" s="13">
         <v>2</v>
       </c>
       <c r="C145" s="13" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D145" s="14">
         <v>25</v>
@@ -5410,7 +5417,7 @@
       <c r="F145" s="15"/>
       <c r="G145" s="15"/>
     </row>
-    <row r="146" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A146" s="5" t="s">
         <v>63</v>
       </c>
@@ -5421,19 +5428,16 @@
         <v>85</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>288</v>
+        <v>194</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>488</v>
-      </c>
-      <c r="H146" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="I146" s="5" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>330</v>
+      </c>
+      <c r="H146" s="4" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A147" s="5" t="s">
         <v>63</v>
       </c>
@@ -5444,16 +5448,16 @@
         <v>85</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>289</v>
+        <v>195</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>500</v>
-      </c>
-      <c r="H147" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>342</v>
+      </c>
+      <c r="H147" s="4" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A148" s="5" t="s">
         <v>63</v>
       </c>
@@ -5464,16 +5468,16 @@
         <v>86</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>290</v>
+        <v>196</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>500</v>
+        <v>342</v>
       </c>
       <c r="H148" s="5" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A149" s="5" t="s">
         <v>63</v>
       </c>
@@ -5484,16 +5488,16 @@
         <v>86</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>291</v>
+        <v>197</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>489</v>
+        <v>331</v>
       </c>
       <c r="H149" s="5" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A150" s="5" t="s">
         <v>63</v>
       </c>
@@ -5504,16 +5508,16 @@
         <v>86</v>
       </c>
       <c r="F150" s="4" t="s">
-        <v>292</v>
+        <v>198</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>442</v>
+        <v>284</v>
       </c>
       <c r="H150" s="5" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" s="13" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" s="13" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B151" s="13">
         <v>2</v>
       </c>
@@ -5529,7 +5533,7 @@
       <c r="F151" s="15"/>
       <c r="G151" s="15"/>
     </row>
-    <row r="152" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A152" s="5" t="s">
         <v>63</v>
       </c>
@@ -5540,16 +5544,16 @@
         <v>85</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>299</v>
+        <v>199</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="H152" s="16" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>267</v>
+      </c>
+      <c r="H152" s="4" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A153" s="5" t="s">
         <v>63</v>
       </c>
@@ -5560,16 +5564,16 @@
         <v>85</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="H153" s="16" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>267</v>
+      </c>
+      <c r="H153" s="5" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A154" s="5" t="s">
         <v>63</v>
       </c>
@@ -5580,16 +5584,16 @@
         <v>85</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>305</v>
+        <v>204</v>
       </c>
       <c r="G154" t="s">
-        <v>437</v>
+        <v>279</v>
       </c>
       <c r="H154" s="5" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A155" s="5" t="s">
         <v>63</v>
       </c>
@@ -5600,16 +5604,16 @@
         <v>85</v>
       </c>
       <c r="F155" s="4" t="s">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="G155" t="s">
-        <v>437</v>
-      </c>
-      <c r="H155" s="5" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>279</v>
+      </c>
+      <c r="H155" s="4" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A156" s="5" t="s">
         <v>63</v>
       </c>
@@ -5620,16 +5624,16 @@
         <v>85</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="G156" s="19" t="s">
-        <v>443</v>
+        <v>203</v>
+      </c>
+      <c r="G156" s="17" t="s">
+        <v>285</v>
       </c>
       <c r="H156" s="5" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A157" s="5" t="s">
         <v>63</v>
       </c>
@@ -5640,16 +5644,16 @@
         <v>85</v>
       </c>
       <c r="F157" s="4" t="s">
-        <v>302</v>
+        <v>202</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>420</v>
+        <v>262</v>
       </c>
       <c r="H157" s="5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B158" s="7">
         <v>1</v>
       </c>
@@ -5660,12 +5664,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="159" spans="1:9" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="B159" s="13">
         <v>2</v>
       </c>
       <c r="C159" s="13" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D159" s="14">
         <v>27</v>
@@ -5676,7 +5680,7 @@
       <c r="F159" s="15"/>
       <c r="G159" s="15"/>
     </row>
-    <row r="160" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A160" s="5" t="s">
         <v>63</v>
       </c>
@@ -5687,16 +5691,16 @@
         <v>85</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>309</v>
+        <v>205</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>420</v>
+        <v>262</v>
       </c>
       <c r="H160" s="5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A161" s="5" t="s">
         <v>63</v>
       </c>
@@ -5707,19 +5711,16 @@
         <v>85</v>
       </c>
       <c r="F161" s="4" t="s">
-        <v>310</v>
+        <v>206</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>507</v>
+        <v>349</v>
       </c>
       <c r="H161" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="I161" s="5" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A162" s="5" t="s">
         <v>63</v>
       </c>
@@ -5730,19 +5731,16 @@
         <v>86</v>
       </c>
       <c r="F162" s="4" t="s">
-        <v>315</v>
+        <v>208</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>444</v>
+        <v>286</v>
       </c>
       <c r="H162" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="I162" s="5" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A163" s="5" t="s">
         <v>63</v>
       </c>
@@ -5753,19 +5751,16 @@
         <v>86</v>
       </c>
       <c r="F163" s="4" t="s">
-        <v>316</v>
+        <v>209</v>
       </c>
       <c r="G163" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="H163" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="I163" s="5" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>286</v>
+      </c>
+      <c r="H163" s="5" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A164" s="5" t="s">
         <v>63</v>
       </c>
@@ -5776,21 +5771,21 @@
         <v>86</v>
       </c>
       <c r="F164" s="4" t="s">
-        <v>312</v>
+        <v>207</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>444</v>
+        <v>286</v>
       </c>
       <c r="H164" s="5" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="B165" s="13">
         <v>2</v>
       </c>
       <c r="C165" s="13" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D165" s="14">
         <v>28</v>
@@ -5801,7 +5796,7 @@
       <c r="F165" s="15"/>
       <c r="G165" s="15"/>
     </row>
-    <row r="166" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A166" s="5" t="s">
         <v>63</v>
       </c>
@@ -5812,16 +5807,16 @@
         <v>85</v>
       </c>
       <c r="F166" s="4" t="s">
-        <v>320</v>
+        <v>210</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="H166" s="5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+      <c r="H166" s="4" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B167" s="5">
         <v>3</v>
       </c>
@@ -5829,11 +5824,11 @@
         <v>85</v>
       </c>
       <c r="F167" s="4" t="s">
-        <v>321</v>
+        <v>211</v>
       </c>
       <c r="G167" s="4"/>
     </row>
-    <row r="168" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A168" s="5" t="s">
         <v>63</v>
       </c>
@@ -5844,16 +5839,16 @@
         <v>86</v>
       </c>
       <c r="F168" s="4" t="s">
-        <v>538</v>
+        <v>379</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>420</v>
+        <v>262</v>
       </c>
       <c r="H168" s="5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A169" s="5" t="s">
         <v>63</v>
       </c>
@@ -5864,16 +5859,16 @@
         <v>85</v>
       </c>
       <c r="F169" s="4" t="s">
-        <v>539</v>
+        <v>522</v>
       </c>
       <c r="G169" s="4" t="s">
-        <v>420</v>
+        <v>262</v>
       </c>
       <c r="H169" s="5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A170" s="5" t="s">
         <v>63</v>
       </c>
@@ -5884,16 +5879,16 @@
         <v>85</v>
       </c>
       <c r="F170" s="4" t="s">
-        <v>540</v>
+        <v>380</v>
       </c>
       <c r="G170" s="4" t="s">
-        <v>420</v>
+        <v>262</v>
       </c>
       <c r="H170" s="5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="B171" s="13">
         <v>2</v>
       </c>
@@ -5909,7 +5904,7 @@
       <c r="F171" s="15"/>
       <c r="G171" s="15"/>
     </row>
-    <row r="172" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A172" s="5" t="s">
         <v>63</v>
       </c>
@@ -5920,16 +5915,16 @@
         <v>85</v>
       </c>
       <c r="F172" s="4" t="s">
-        <v>322</v>
+        <v>212</v>
       </c>
       <c r="G172" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="H172" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+      <c r="H172" s="4" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A173" s="5" t="s">
         <v>63</v>
       </c>
@@ -5940,16 +5935,16 @@
         <v>85</v>
       </c>
       <c r="F173" s="4" t="s">
-        <v>323</v>
+        <v>213</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="H173" s="17" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+        <v>312</v>
+      </c>
+      <c r="H173" s="4" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B174" s="7">
         <v>1</v>
       </c>
@@ -5960,12 +5955,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="175" spans="1:9" s="13" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8" s="13" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B175" s="13">
         <v>2</v>
       </c>
       <c r="C175" s="13" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D175" s="14">
         <v>30</v>
@@ -5976,7 +5971,7 @@
       <c r="F175" s="15"/>
       <c r="G175" s="15"/>
     </row>
-    <row r="176" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A176" s="5" t="s">
         <v>63</v>
       </c>
@@ -5987,16 +5982,16 @@
         <v>85</v>
       </c>
       <c r="F176" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="G176" s="19" t="s">
-        <v>418</v>
+        <v>214</v>
+      </c>
+      <c r="G176" s="17" t="s">
+        <v>260</v>
       </c>
       <c r="H176" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A177" s="5" t="s">
         <v>63</v>
       </c>
@@ -6007,16 +6002,16 @@
         <v>85</v>
       </c>
       <c r="F177" s="4" t="s">
-        <v>326</v>
+        <v>215</v>
       </c>
       <c r="G177" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="H177" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+      <c r="H177" s="5" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A178" s="5" t="s">
         <v>63</v>
       </c>
@@ -6027,16 +6022,16 @@
         <v>85</v>
       </c>
       <c r="F178" s="4" t="s">
-        <v>328</v>
+        <v>217</v>
       </c>
       <c r="G178" s="4" t="s">
-        <v>456</v>
+        <v>298</v>
       </c>
       <c r="H178" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A179" s="5" t="s">
         <v>63</v>
       </c>
@@ -6047,16 +6042,16 @@
         <v>85</v>
       </c>
       <c r="F179" s="4" t="s">
-        <v>327</v>
+        <v>216</v>
       </c>
       <c r="G179" s="4" t="s">
-        <v>490</v>
+        <v>332</v>
       </c>
       <c r="H179" s="5" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A180" s="5" t="s">
         <v>63</v>
       </c>
@@ -6070,13 +6065,13 @@
         <v>107</v>
       </c>
       <c r="G180" s="4" t="s">
-        <v>482</v>
-      </c>
-      <c r="H180" s="4" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+        <v>324</v>
+      </c>
+      <c r="H180" s="5" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="B181" s="13">
         <v>2</v>
       </c>
@@ -6092,7 +6087,7 @@
       <c r="F181" s="15"/>
       <c r="G181" s="15"/>
     </row>
-    <row r="182" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A182" s="5" t="s">
         <v>63</v>
       </c>
@@ -6103,16 +6098,16 @@
         <v>85</v>
       </c>
       <c r="F182" s="4" t="s">
-        <v>331</v>
+        <v>218</v>
       </c>
       <c r="G182" s="4" t="s">
-        <v>426</v>
+        <v>268</v>
       </c>
       <c r="H182" s="4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A183" s="5" t="s">
         <v>63</v>
       </c>
@@ -6123,16 +6118,16 @@
         <v>85</v>
       </c>
       <c r="F183" s="4" t="s">
-        <v>332</v>
+        <v>219</v>
       </c>
       <c r="G183" s="4" t="s">
-        <v>491</v>
+        <v>333</v>
       </c>
       <c r="H183" s="4" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A184" s="5" t="s">
         <v>63</v>
       </c>
@@ -6143,21 +6138,21 @@
         <v>85</v>
       </c>
       <c r="F184" s="4" t="s">
-        <v>333</v>
+        <v>220</v>
       </c>
       <c r="G184" s="4" t="s">
-        <v>482</v>
+        <v>324</v>
       </c>
       <c r="H184" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" s="13" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" s="13" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B185" s="13">
         <v>2</v>
       </c>
       <c r="C185" s="13" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D185" s="14">
         <v>32</v>
@@ -6168,7 +6163,7 @@
       <c r="F185" s="15"/>
       <c r="G185" s="15"/>
     </row>
-    <row r="186" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A186" s="5" t="s">
         <v>63</v>
       </c>
@@ -6179,16 +6174,16 @@
         <v>85</v>
       </c>
       <c r="F186" s="4" t="s">
-        <v>335</v>
+        <v>221</v>
       </c>
       <c r="G186" s="4" t="s">
-        <v>488</v>
+        <v>330</v>
       </c>
       <c r="H186" s="5" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A187" s="5" t="s">
         <v>63</v>
       </c>
@@ -6199,16 +6194,16 @@
         <v>85</v>
       </c>
       <c r="F187" s="4" t="s">
-        <v>336</v>
+        <v>222</v>
       </c>
       <c r="G187" s="4" t="s">
-        <v>492</v>
+        <v>334</v>
       </c>
       <c r="H187" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A188" s="5" t="s">
         <v>63</v>
       </c>
@@ -6219,19 +6214,16 @@
         <v>85</v>
       </c>
       <c r="F188" s="4" t="s">
-        <v>337</v>
+        <v>223</v>
       </c>
       <c r="G188" s="4" t="s">
-        <v>488</v>
-      </c>
-      <c r="H188" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="I188" s="5" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>330</v>
+      </c>
+      <c r="H188" s="4" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A189" s="5" t="s">
         <v>63</v>
       </c>
@@ -6245,21 +6237,18 @@
         <v>106</v>
       </c>
       <c r="G189" s="4" t="s">
-        <v>493</v>
-      </c>
-      <c r="H189" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="I189" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" s="13" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+        <v>335</v>
+      </c>
+      <c r="H189" s="4" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" s="13" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B190" s="13">
         <v>2</v>
       </c>
       <c r="C190" s="13" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D190" s="14">
         <v>33</v>
@@ -6270,7 +6259,7 @@
       <c r="F190" s="15"/>
       <c r="G190" s="15"/>
     </row>
-    <row r="191" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A191" s="5" t="s">
         <v>63</v>
       </c>
@@ -6281,16 +6270,16 @@
         <v>85</v>
       </c>
       <c r="F191" s="4" t="s">
-        <v>343</v>
+        <v>224</v>
       </c>
       <c r="G191" s="4" t="s">
-        <v>427</v>
+        <v>269</v>
       </c>
       <c r="H191" s="4" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A192" s="5" t="s">
         <v>63</v>
       </c>
@@ -6301,13 +6290,13 @@
         <v>85</v>
       </c>
       <c r="F192" s="4" t="s">
-        <v>344</v>
+        <v>225</v>
       </c>
       <c r="G192" s="4" t="s">
-        <v>480</v>
-      </c>
-      <c r="H192" s="5" t="s">
-        <v>348</v>
+        <v>322</v>
+      </c>
+      <c r="H192" s="4" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="193" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -6321,13 +6310,10 @@
         <v>85</v>
       </c>
       <c r="F193" s="4" t="s">
-        <v>345</v>
+        <v>226</v>
       </c>
       <c r="G193" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="H193" s="5" t="s">
-        <v>346</v>
+        <v>260</v>
       </c>
     </row>
     <row r="194" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -6344,10 +6330,10 @@
         <v>105</v>
       </c>
       <c r="G194" s="4" t="s">
-        <v>494</v>
-      </c>
-      <c r="H194" s="4" t="s">
-        <v>349</v>
+        <v>336</v>
+      </c>
+      <c r="H194" s="5" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="195" spans="1:8" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -6388,13 +6374,13 @@
         <v>85</v>
       </c>
       <c r="F197" s="4" t="s">
-        <v>350</v>
+        <v>227</v>
       </c>
       <c r="G197" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="H197" s="5" t="s">
-        <v>262</v>
+        <v>265</v>
+      </c>
+      <c r="H197" s="4" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="198" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -6405,7 +6391,7 @@
         <v>85</v>
       </c>
       <c r="F198" s="4" t="s">
-        <v>351</v>
+        <v>228</v>
       </c>
       <c r="G198" s="4"/>
     </row>
@@ -6420,13 +6406,13 @@
         <v>85</v>
       </c>
       <c r="F199" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="G199" s="19" t="s">
-        <v>444</v>
+        <v>381</v>
+      </c>
+      <c r="G199" s="17" t="s">
+        <v>286</v>
       </c>
       <c r="H199" s="5" t="s">
-        <v>353</v>
+        <v>542</v>
       </c>
     </row>
     <row r="200" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -6440,13 +6426,13 @@
         <v>85</v>
       </c>
       <c r="F200" s="4" t="s">
-        <v>542</v>
+        <v>382</v>
       </c>
       <c r="G200" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="H200" s="4" t="s">
-        <v>354</v>
+        <v>287</v>
+      </c>
+      <c r="H200" s="5" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="201" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -6460,16 +6446,16 @@
         <v>85</v>
       </c>
       <c r="F201" s="4" t="s">
-        <v>543</v>
+        <v>383</v>
       </c>
       <c r="G201" s="4" t="s">
-        <v>444</v>
+        <v>286</v>
       </c>
       <c r="H201" s="5" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A202" s="5" t="s">
         <v>63</v>
       </c>
@@ -6480,16 +6466,16 @@
         <v>85</v>
       </c>
       <c r="F202" s="4" t="s">
-        <v>544</v>
-      </c>
-      <c r="G202" s="19" t="s">
-        <v>444</v>
-      </c>
-      <c r="H202" s="5" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>384</v>
+      </c>
+      <c r="G202" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="H202" s="4" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A203" s="5" t="s">
         <v>63</v>
       </c>
@@ -6500,13 +6486,13 @@
         <v>85</v>
       </c>
       <c r="F203" s="4" t="s">
-        <v>352</v>
+        <v>229</v>
       </c>
       <c r="G203" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="H203" s="5" t="s">
-        <v>163</v>
+        <v>262</v>
+      </c>
+      <c r="H203" s="4" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="204" spans="1:8" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
@@ -6533,7 +6519,7 @@
         <v>85</v>
       </c>
       <c r="F205" s="4" t="s">
-        <v>355</v>
+        <v>230</v>
       </c>
       <c r="G205" s="4"/>
     </row>
@@ -6548,13 +6534,13 @@
         <v>85</v>
       </c>
       <c r="F206" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="G206" s="21" t="s">
-        <v>495</v>
+        <v>385</v>
+      </c>
+      <c r="G206" s="19" t="s">
+        <v>337</v>
       </c>
       <c r="H206" s="5" t="s">
-        <v>356</v>
+        <v>549</v>
       </c>
     </row>
     <row r="207" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -6568,13 +6554,13 @@
         <v>85</v>
       </c>
       <c r="F207" s="4" t="s">
-        <v>546</v>
+        <v>386</v>
       </c>
       <c r="G207" s="4" t="s">
-        <v>423</v>
+        <v>265</v>
       </c>
       <c r="H207" s="5" t="s">
-        <v>262</v>
+        <v>550</v>
       </c>
     </row>
     <row r="208" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -6588,16 +6574,16 @@
         <v>85</v>
       </c>
       <c r="F208" s="4" t="s">
-        <v>547</v>
-      </c>
-      <c r="G208" s="21" t="s">
-        <v>495</v>
+        <v>387</v>
+      </c>
+      <c r="G208" s="19" t="s">
+        <v>337</v>
       </c>
       <c r="H208" s="5" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A209" s="5" t="s">
         <v>63</v>
       </c>
@@ -6608,16 +6594,16 @@
         <v>85</v>
       </c>
       <c r="F209" s="4" t="s">
-        <v>548</v>
+        <v>388</v>
       </c>
       <c r="G209" s="4" t="s">
-        <v>423</v>
+        <v>265</v>
       </c>
       <c r="H209" s="5" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A210" s="5" t="s">
         <v>63</v>
       </c>
@@ -6628,16 +6614,16 @@
         <v>85</v>
       </c>
       <c r="F210" s="4" t="s">
-        <v>549</v>
+        <v>389</v>
       </c>
       <c r="G210" s="4" t="s">
-        <v>471</v>
-      </c>
-      <c r="I210" s="5" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>313</v>
+      </c>
+      <c r="H210" s="5" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A211" s="5" t="s">
         <v>63</v>
       </c>
@@ -6648,16 +6634,16 @@
         <v>85</v>
       </c>
       <c r="F211" s="4" t="s">
-        <v>550</v>
+        <v>390</v>
       </c>
       <c r="G211" s="4" t="s">
-        <v>416</v>
+        <v>258</v>
       </c>
       <c r="H211" s="5" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A212" s="5" t="s">
         <v>63</v>
       </c>
@@ -6668,16 +6654,16 @@
         <v>85</v>
       </c>
       <c r="F212" s="4" t="s">
-        <v>551</v>
+        <v>391</v>
       </c>
       <c r="G212" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="H212" s="5" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+      <c r="H212" s="4" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B213" s="7">
         <v>1</v>
       </c>
@@ -6688,12 +6674,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="214" spans="1:9" s="13" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:8" s="13" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B214" s="13">
         <v>2</v>
       </c>
       <c r="C214" s="13" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D214" s="14">
         <v>36</v>
@@ -6704,7 +6690,7 @@
       <c r="F214" s="15"/>
       <c r="G214" s="15"/>
     </row>
-    <row r="215" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A215" s="5" t="s">
         <v>63</v>
       </c>
@@ -6715,16 +6701,16 @@
         <v>85</v>
       </c>
       <c r="F215" s="4" t="s">
-        <v>358</v>
+        <v>231</v>
       </c>
       <c r="G215" s="4" t="s">
-        <v>428</v>
+        <v>270</v>
       </c>
       <c r="H215" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A216" s="5" t="s">
         <v>63</v>
       </c>
@@ -6735,16 +6721,16 @@
         <v>85</v>
       </c>
       <c r="F216" s="4" t="s">
-        <v>359</v>
+        <v>232</v>
       </c>
       <c r="G216" s="4" t="s">
-        <v>472</v>
-      </c>
-      <c r="H216" s="4" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>314</v>
+      </c>
+      <c r="H216" s="5" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A217" s="5" t="s">
         <v>63</v>
       </c>
@@ -6755,16 +6741,16 @@
         <v>85</v>
       </c>
       <c r="F217" s="4" t="s">
-        <v>360</v>
+        <v>233</v>
       </c>
       <c r="G217" s="4" t="s">
-        <v>446</v>
+        <v>288</v>
       </c>
       <c r="H217" s="5" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A218" s="5" t="s">
         <v>63</v>
       </c>
@@ -6775,16 +6761,16 @@
         <v>85</v>
       </c>
       <c r="F218" s="4" t="s">
-        <v>361</v>
+        <v>234</v>
       </c>
       <c r="G218" s="4" t="s">
-        <v>428</v>
+        <v>270</v>
       </c>
       <c r="H218" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A219" s="5" t="s">
         <v>63</v>
       </c>
@@ -6795,16 +6781,16 @@
         <v>85</v>
       </c>
       <c r="F219" s="4" t="s">
-        <v>363</v>
+        <v>236</v>
       </c>
       <c r="G219" s="4" t="s">
-        <v>446</v>
+        <v>288</v>
       </c>
       <c r="H219" s="5" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A220" s="5" t="s">
         <v>63</v>
       </c>
@@ -6815,16 +6801,16 @@
         <v>85</v>
       </c>
       <c r="F220" s="4" t="s">
-        <v>552</v>
+        <v>392</v>
       </c>
       <c r="G220" s="4" t="s">
-        <v>496</v>
-      </c>
-      <c r="H220" s="4" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>338</v>
+      </c>
+      <c r="H220" s="5" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A221" s="5" t="s">
         <v>63</v>
       </c>
@@ -6835,16 +6821,16 @@
         <v>85</v>
       </c>
       <c r="F221" s="4" t="s">
-        <v>553</v>
+        <v>393</v>
       </c>
       <c r="G221" s="4" t="s">
-        <v>497</v>
+        <v>339</v>
       </c>
       <c r="H221" s="4" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A222" s="5" t="s">
         <v>63</v>
       </c>
@@ -6855,16 +6841,16 @@
         <v>85</v>
       </c>
       <c r="F222" s="4" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="G222" s="4" t="s">
-        <v>497</v>
+        <v>339</v>
       </c>
       <c r="H222" s="4" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A223" s="5" t="s">
         <v>63</v>
       </c>
@@ -6875,16 +6861,16 @@
         <v>85</v>
       </c>
       <c r="F223" s="4" t="s">
-        <v>362</v>
+        <v>235</v>
       </c>
       <c r="G223" s="4" t="s">
-        <v>447</v>
+        <v>289</v>
       </c>
       <c r="H223" s="5" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A224" s="5" t="s">
         <v>63</v>
       </c>
@@ -6898,18 +6884,18 @@
         <v>104</v>
       </c>
       <c r="G224" s="4" t="s">
-        <v>498</v>
-      </c>
-      <c r="H224" s="5" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9" s="13" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+        <v>340</v>
+      </c>
+      <c r="H224" s="4" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" s="13" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B225" s="13">
         <v>2</v>
       </c>
       <c r="C225" s="13" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D225" s="14">
         <v>37</v>
@@ -6920,7 +6906,7 @@
       <c r="F225" s="15"/>
       <c r="G225" s="15"/>
     </row>
-    <row r="226" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A226" s="5" t="s">
         <v>63</v>
       </c>
@@ -6931,16 +6917,16 @@
         <v>85</v>
       </c>
       <c r="F226" s="4" t="s">
-        <v>370</v>
+        <v>237</v>
       </c>
       <c r="G226" s="4" t="s">
-        <v>429</v>
+        <v>271</v>
       </c>
       <c r="H226" s="5" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="227" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B227" s="5">
         <v>3</v>
       </c>
@@ -6948,11 +6934,11 @@
         <v>85</v>
       </c>
       <c r="F227" s="4" t="s">
-        <v>371</v>
+        <v>238</v>
       </c>
       <c r="G227" s="4"/>
     </row>
-    <row r="228" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A228" s="5" t="s">
         <v>63</v>
       </c>
@@ -6963,16 +6949,16 @@
         <v>85</v>
       </c>
       <c r="F228" s="4" t="s">
-        <v>555</v>
+        <v>394</v>
       </c>
       <c r="G228" s="4" t="s">
-        <v>429</v>
+        <v>271</v>
       </c>
       <c r="H228" s="5" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A229" s="5" t="s">
         <v>63</v>
       </c>
@@ -6983,16 +6969,13 @@
         <v>85</v>
       </c>
       <c r="F229" s="4" t="s">
-        <v>556</v>
+        <v>395</v>
       </c>
       <c r="G229" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="H229" s="5" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="230" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A230" s="5" t="s">
         <v>63</v>
       </c>
@@ -7003,16 +6986,13 @@
         <v>85</v>
       </c>
       <c r="F230" s="4" t="s">
-        <v>557</v>
+        <v>396</v>
       </c>
       <c r="G230" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="H230" s="5" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="231" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A231" s="5" t="s">
         <v>63</v>
       </c>
@@ -7023,16 +7003,13 @@
         <v>85</v>
       </c>
       <c r="F231" s="4" t="s">
-        <v>558</v>
+        <v>397</v>
       </c>
       <c r="G231" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="H231" s="5" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A232" s="5" t="s">
         <v>63</v>
       </c>
@@ -7043,16 +7020,13 @@
         <v>85</v>
       </c>
       <c r="F232" s="4" t="s">
-        <v>559</v>
+        <v>398</v>
       </c>
       <c r="G232" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="H232" s="5" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="233" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A233" s="5" t="s">
         <v>63</v>
       </c>
@@ -7063,16 +7037,13 @@
         <v>85</v>
       </c>
       <c r="F233" s="4" t="s">
-        <v>560</v>
+        <v>399</v>
       </c>
       <c r="G233" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="H233" s="5" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="234" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A234" s="5" t="s">
         <v>63</v>
       </c>
@@ -7083,16 +7054,13 @@
         <v>85</v>
       </c>
       <c r="F234" s="4" t="s">
-        <v>561</v>
+        <v>400</v>
       </c>
       <c r="G234" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="H234" s="5" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="235" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B235" s="5">
         <v>3</v>
       </c>
@@ -7100,11 +7068,11 @@
         <v>85</v>
       </c>
       <c r="F235" s="4" t="s">
-        <v>372</v>
+        <v>239</v>
       </c>
       <c r="G235" s="4"/>
     </row>
-    <row r="236" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A236" s="5" t="s">
         <v>63</v>
       </c>
@@ -7115,16 +7083,16 @@
         <v>85</v>
       </c>
       <c r="F236" s="4" t="s">
-        <v>562</v>
+        <v>401</v>
       </c>
       <c r="G236" s="4" t="s">
-        <v>429</v>
+        <v>271</v>
       </c>
       <c r="H236" s="5" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="237" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A237" s="5" t="s">
         <v>63</v>
       </c>
@@ -7135,16 +7103,16 @@
         <v>85</v>
       </c>
       <c r="F237" s="4" t="s">
-        <v>563</v>
+        <v>402</v>
       </c>
       <c r="G237" s="4" t="s">
-        <v>429</v>
+        <v>271</v>
       </c>
       <c r="H237" s="5" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="238" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A238" s="5" t="s">
         <v>63</v>
       </c>
@@ -7155,16 +7123,16 @@
         <v>85</v>
       </c>
       <c r="F238" s="4" t="s">
-        <v>564</v>
+        <v>403</v>
       </c>
       <c r="G238" s="4" t="s">
-        <v>430</v>
+        <v>272</v>
       </c>
       <c r="H238" s="5" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="239" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A239" s="5" t="s">
         <v>63</v>
       </c>
@@ -7178,16 +7146,13 @@
         <v>100</v>
       </c>
       <c r="G239" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="H239" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="I239" s="5" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="240" spans="1:9" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+      <c r="H239" s="4" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="B240" s="13">
         <v>2</v>
       </c>
@@ -7195,7 +7160,7 @@
         <v>86</v>
       </c>
       <c r="D240" s="14" t="s">
-        <v>400</v>
+        <v>254</v>
       </c>
       <c r="E240" s="15" t="s">
         <v>103</v>
@@ -7203,7 +7168,7 @@
       <c r="F240" s="15"/>
       <c r="G240" s="15"/>
     </row>
-    <row r="241" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A241" s="5" t="s">
         <v>63</v>
       </c>
@@ -7216,16 +7181,16 @@
       <c r="D241" s="5"/>
       <c r="E241" s="5"/>
       <c r="F241" s="4" t="s">
-        <v>377</v>
+        <v>240</v>
       </c>
       <c r="G241" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="H241" s="4" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="242" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>273</v>
+      </c>
+      <c r="H241" s="5" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A242" s="5" t="s">
         <v>63</v>
       </c>
@@ -7238,16 +7203,16 @@
       <c r="D242" s="5"/>
       <c r="E242" s="5"/>
       <c r="F242" s="4" t="s">
-        <v>378</v>
+        <v>241</v>
       </c>
       <c r="G242" s="4" t="s">
-        <v>473</v>
+        <v>315</v>
       </c>
       <c r="H242" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="243" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A243" s="5" t="s">
         <v>63</v>
       </c>
@@ -7260,16 +7225,16 @@
       <c r="D243" s="5"/>
       <c r="E243" s="5"/>
       <c r="F243" s="4" t="s">
-        <v>380</v>
+        <v>243</v>
       </c>
       <c r="G243" s="4" t="s">
-        <v>474</v>
+        <v>316</v>
       </c>
       <c r="H243" s="4" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="244" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A244" s="5" t="s">
         <v>63</v>
       </c>
@@ -7282,16 +7247,16 @@
       <c r="D244" s="5"/>
       <c r="E244" s="5"/>
       <c r="F244" s="4" t="s">
-        <v>379</v>
+        <v>242</v>
       </c>
       <c r="G244" s="4" t="s">
-        <v>432</v>
+        <v>274</v>
       </c>
       <c r="H244" s="5" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="245" spans="1:9" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="B245" s="13">
         <v>2</v>
       </c>
@@ -7307,7 +7272,7 @@
       <c r="F245" s="15"/>
       <c r="G245" s="15"/>
     </row>
-    <row r="246" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A246" s="5" t="s">
         <v>63</v>
       </c>
@@ -7318,16 +7283,16 @@
         <v>85</v>
       </c>
       <c r="F246" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="G246" s="19" t="s">
-        <v>475</v>
-      </c>
-      <c r="H246" s="5" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="247" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+        <v>244</v>
+      </c>
+      <c r="G246" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="H246" s="4" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A247" s="5" t="s">
         <v>63</v>
       </c>
@@ -7338,19 +7303,16 @@
         <v>85</v>
       </c>
       <c r="F247" s="4" t="s">
-        <v>565</v>
+        <v>404</v>
       </c>
       <c r="G247" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="H247" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="I247" s="5" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="248" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+      <c r="H247" s="4" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A248" s="5" t="s">
         <v>63</v>
       </c>
@@ -7361,16 +7323,16 @@
         <v>85</v>
       </c>
       <c r="F248" s="4" t="s">
-        <v>385</v>
+        <v>245</v>
       </c>
       <c r="G248" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="H248" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="249" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+      <c r="H248" s="4" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A249" s="5" t="s">
         <v>63</v>
       </c>
@@ -7381,16 +7343,16 @@
         <v>85</v>
       </c>
       <c r="F249" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="G249" s="20" t="s">
-        <v>475</v>
-      </c>
-      <c r="H249" s="5" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="250" spans="1:9" s="13" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+      <c r="G249" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="H249" s="4" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" s="13" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B250" s="13">
         <v>2</v>
       </c>
@@ -7406,7 +7368,7 @@
       <c r="F250" s="15"/>
       <c r="G250" s="15"/>
     </row>
-    <row r="251" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:8" ht="119" x14ac:dyDescent="0.2">
       <c r="A251" s="5" t="s">
         <v>63</v>
       </c>
@@ -7417,16 +7379,16 @@
         <v>85</v>
       </c>
       <c r="F251" s="4" t="s">
-        <v>389</v>
+        <v>247</v>
       </c>
       <c r="G251" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="H251" s="5" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="252" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>275</v>
+      </c>
+      <c r="H251" s="4" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A252" s="5" t="s">
         <v>63</v>
       </c>
@@ -7437,16 +7399,16 @@
         <v>85</v>
       </c>
       <c r="F252" s="4" t="s">
-        <v>390</v>
+        <v>248</v>
       </c>
       <c r="G252" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="H252" s="5" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="253" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+        <v>284</v>
+      </c>
+      <c r="H252" s="4" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A253" s="5" t="s">
         <v>63</v>
       </c>
@@ -7457,16 +7419,16 @@
         <v>85</v>
       </c>
       <c r="F253" s="4" t="s">
-        <v>392</v>
+        <v>249</v>
       </c>
       <c r="G253" s="4" t="s">
-        <v>433</v>
+        <v>275</v>
       </c>
       <c r="H253" s="5" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="254" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A254" s="5" t="s">
         <v>63</v>
       </c>
@@ -7477,16 +7439,16 @@
         <v>85</v>
       </c>
       <c r="F254" s="4" t="s">
-        <v>393</v>
+        <v>250</v>
       </c>
       <c r="G254" s="4" t="s">
-        <v>476</v>
+        <v>318</v>
       </c>
       <c r="H254" s="4" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="255" spans="1:9" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B255" s="7">
         <v>1</v>
       </c>
@@ -7497,7 +7459,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="256" spans="1:9" s="13" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:8" s="13" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B256" s="13">
         <v>2</v>
       </c>
@@ -7505,7 +7467,7 @@
         <v>86</v>
       </c>
       <c r="D256" s="14" t="s">
-        <v>395</v>
+        <v>251</v>
       </c>
       <c r="E256" s="15" t="s">
         <v>101</v>
@@ -7524,13 +7486,13 @@
         <v>86</v>
       </c>
       <c r="F257" s="4" t="s">
-        <v>397</v>
+        <v>253</v>
       </c>
       <c r="G257" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="H257" s="5" t="s">
-        <v>398</v>
+        <v>276</v>
+      </c>
+      <c r="H257" s="4" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="258" spans="1:8" ht="102" x14ac:dyDescent="0.2">
@@ -7544,13 +7506,13 @@
         <v>86</v>
       </c>
       <c r="F258" s="4" t="s">
-        <v>566</v>
+        <v>405</v>
       </c>
       <c r="G258" s="4" t="s">
-        <v>431</v>
+        <v>273</v>
       </c>
       <c r="H258" s="4" t="s">
-        <v>399</v>
+        <v>578</v>
       </c>
     </row>
     <row r="259" spans="1:8" s="13" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -7561,7 +7523,7 @@
         <v>86</v>
       </c>
       <c r="D259" s="14" t="s">
-        <v>396</v>
+        <v>252</v>
       </c>
       <c r="E259" s="15" t="s">
         <v>102</v>
@@ -7583,14 +7545,14 @@
         <v>99</v>
       </c>
       <c r="G260" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="H260" s="5" t="s">
-        <v>357</v>
+        <v>258</v>
+      </c>
+      <c r="H260" s="4" t="s">
+        <v>579</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I260" xr:uid="{59F3B91E-FB51-FE47-B7BA-EB94A985CF95}"/>
+  <autoFilter ref="A1:H260" xr:uid="{59F3B91E-FB51-FE47-B7BA-EB94A985CF95}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/tools/anssi/anssi-guide-hygiene-detail.xlsx
+++ b/tools/anssi/anssi-guide-hygiene-detail.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericlaubacher/Documents/GitHub/ciso-assistant-community/tools/anssi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A366A31-B445-274E-B43D-59FB50D9B88E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC20E2C1-9D63-FD4A-9521-413BDDC1FECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20580" xr2:uid="{125C4C37-F3C0-444B-A950-381456F8AB10}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="589">
   <si>
     <t>Sensibiliser et former</t>
   </si>
@@ -2074,6 +2074,9 @@
 Vérifier que le référent est responsable de la vérification de l’application des règles.
 Vérifier que le référent est responsable de la sensibilisation des utilisateurs et de la définition d’un plan de formation des acteurs informatiques.
 Vérifier que le référent est responsable de la centralisation et du traitement des incidents de sécurité constatés ou remontés par les utilisateurs.</t>
+  </si>
+  <si>
+    <t>library_publication_date</t>
   </si>
 </sst>
 </file>
@@ -2139,7 +2142,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2198,6 +2201,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2533,10 +2539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58679FA1-8C3E-D64B-9B35-083A1517BC84}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="242" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="242" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2558,7 +2564,7 @@
         <v>66</v>
       </c>
       <c r="B2" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2571,101 +2577,98 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>112</v>
+        <v>588</v>
+      </c>
+      <c r="B4" s="21">
+        <v>45680</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="7" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>407</v>
+        <v>73</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>408</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>407</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>110</v>
+        <v>408</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>77</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="15" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>78</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>79</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C15" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -2673,31 +2676,42 @@
         <v>79</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>257</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B18" s="3"/>
-    </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B19" s="1"/>
+      <c r="B19" s="3"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B20" s="3"/>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B21" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2708,9 +2722,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59F3B91E-FB51-FE47-B7BA-EB94A985CF95}">
   <dimension ref="A1:H260"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="246" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A244" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H248" sqref="H248"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3509,6 +3523,9 @@
       </c>
       <c r="B44" s="4">
         <v>3</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>133</v>

--- a/tools/anssi/anssi-guide-hygiene-detail.xlsx
+++ b/tools/anssi/anssi-guide-hygiene-detail.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericlaubacher/Documents/GitHub/ciso-assistant-community/tools/anssi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC20E2C1-9D63-FD4A-9521-413BDDC1FECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45799CD7-6662-A843-81B7-5DF79DE54F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20580" xr2:uid="{125C4C37-F3C0-444B-A950-381456F8AB10}"/>
+    <workbookView xWindow="5280" yWindow="1200" windowWidth="34560" windowHeight="20240" xr2:uid="{125C4C37-F3C0-444B-A950-381456F8AB10}"/>
   </bookViews>
   <sheets>
     <sheet name="library_content" sheetId="4" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="593">
   <si>
     <t>Sensibiliser et former</t>
   </si>
@@ -1352,9 +1352,6 @@
   </si>
   <si>
     <t>library_dependencies</t>
-  </si>
-  <si>
-    <t>urn:intuitem:risk:library:doc-pol</t>
   </si>
   <si>
     <t>En plus des formations générales ci-dessus, vérifier les formations spécifiques suivantes :
@@ -2077,6 +2074,25 @@
   </si>
   <si>
     <t>library_publication_date</t>
+  </si>
+  <si>
+    <t>urn:intuitem:risk:library:doc-pol, urn:intuitem:risk:library:intuitem-common-catalog</t>
+  </si>
+  <si>
+    <t>urn:intuitem:risk:threat:intuitem-common-catalog</t>
+  </si>
+  <si>
+    <t>threat_base_urn</t>
+  </si>
+  <si>
+    <t>threats</t>
+  </si>
+  <si>
+    <t>1:ICT-022
+1:ICT-019
+1:ICT-023
+1:ICT-015
+1:ICT-012</t>
   </si>
 </sst>
 </file>
@@ -2541,8 +2557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58679FA1-8C3E-D64B-9B35-083A1517BC84}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="242" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScale="119" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2564,7 +2580,7 @@
         <v>66</v>
       </c>
       <c r="B2" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2577,7 +2593,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B4" s="21">
         <v>45680</v>
@@ -2636,7 +2652,7 @@
         <v>407</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>408</v>
+        <v>588</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -2704,8 +2720,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B19" s="3"/>
+    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>590</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B20" s="1"/>
@@ -2720,11 +2744,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59F3B91E-FB51-FE47-B7BA-EB94A985CF95}">
-  <dimension ref="A1:H260"/>
+  <dimension ref="A1:I260"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="F1" zoomScale="167" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2736,10 +2760,11 @@
     <col min="6" max="6" width="128.1640625" style="5" customWidth="1"/>
     <col min="7" max="7" width="81.6640625" style="5" customWidth="1"/>
     <col min="8" max="8" width="144" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="5"/>
+    <col min="9" max="9" width="13.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>61</v>
       </c>
@@ -2764,8 +2789,11 @@
       <c r="H1" s="5" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="I1" s="5" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B2" s="7">
         <v>1</v>
       </c>
@@ -2776,7 +2804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="10" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" s="10" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B3" s="10">
         <v>2</v>
       </c>
@@ -2792,7 +2820,7 @@
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
     </row>
-    <row r="4" spans="1:8" ht="119" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="119" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>63</v>
       </c>
@@ -2809,10 +2837,13 @@
         <v>297</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>409</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>63</v>
       </c>
@@ -2829,7 +2860,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>63</v>
       </c>
@@ -2846,7 +2877,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>63</v>
       </c>
@@ -2863,7 +2894,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>63</v>
       </c>
@@ -2880,7 +2911,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>63</v>
       </c>
@@ -2897,7 +2928,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>63</v>
       </c>
@@ -2914,7 +2945,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>63</v>
       </c>
@@ -2931,7 +2962,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>63</v>
       </c>
@@ -2948,10 +2979,10 @@
         <v>298</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>63</v>
       </c>
@@ -2968,10 +2999,10 @@
         <v>258</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="B14" s="10">
         <v>2</v>
       </c>
@@ -2987,7 +3018,7 @@
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
     </row>
-    <row r="15" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>63</v>
       </c>
@@ -3004,10 +3035,10 @@
         <v>299</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>63</v>
       </c>
@@ -3024,7 +3055,7 @@
         <v>298</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -3095,7 +3126,7 @@
         <v>298</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -3115,7 +3146,7 @@
         <v>298</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -3169,7 +3200,7 @@
         <v>301</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -3201,7 +3232,7 @@
         <v>258</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -3221,7 +3252,7 @@
         <v>258</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -3241,7 +3272,7 @@
         <v>302</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -3261,7 +3292,7 @@
         <v>303</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -3308,7 +3339,7 @@
         <v>304</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="102" x14ac:dyDescent="0.2">
@@ -3328,7 +3359,7 @@
         <v>305</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -3348,7 +3379,7 @@
         <v>306</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -3368,7 +3399,7 @@
         <v>306</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="36" spans="1:8" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
@@ -3404,7 +3435,7 @@
         <v>307</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -3458,7 +3489,7 @@
         <v>307</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -3478,7 +3509,7 @@
         <v>277</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -3498,7 +3529,7 @@
         <v>259</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="43" spans="1:8" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
@@ -3534,7 +3565,7 @@
         <v>259</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -3554,7 +3585,7 @@
         <v>278</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -3574,7 +3605,7 @@
         <v>279</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -3594,7 +3625,7 @@
         <v>260</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -3614,7 +3645,7 @@
         <v>261</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -3634,7 +3665,7 @@
         <v>305</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="13" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -3670,7 +3701,7 @@
         <v>262</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -3690,7 +3721,7 @@
         <v>263</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -3710,7 +3741,7 @@
         <v>262</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -3730,7 +3761,7 @@
         <v>319</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="55" spans="1:8" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -3777,7 +3808,7 @@
         <v>259</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -3797,7 +3828,7 @@
         <v>308</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -3817,7 +3848,7 @@
         <v>308</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -3873,7 +3904,7 @@
         <v>303</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -3893,7 +3924,7 @@
         <v>259</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -3913,7 +3944,7 @@
         <v>280</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -3933,7 +3964,7 @@
         <v>263</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -3953,7 +3984,7 @@
         <v>259</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -3973,7 +4004,7 @@
         <v>262</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -3993,7 +4024,7 @@
         <v>277</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="69" spans="1:8" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
@@ -4029,7 +4060,7 @@
         <v>259</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -4049,7 +4080,7 @@
         <v>259</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -4069,7 +4100,7 @@
         <v>259</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -4089,7 +4120,7 @@
         <v>259</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -4109,7 +4140,7 @@
         <v>259</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -4129,7 +4160,7 @@
         <v>298</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="76" spans="1:8" s="13" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -4165,7 +4196,7 @@
         <v>321</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -4185,7 +4216,7 @@
         <v>309</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="79" spans="1:8" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
@@ -4221,7 +4252,7 @@
         <v>259</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -4239,7 +4270,7 @@
       </c>
       <c r="G81" s="4"/>
       <c r="H81" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -4259,7 +4290,7 @@
         <v>259</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="83" spans="1:8" s="13" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -4295,7 +4326,7 @@
         <v>259</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -4315,7 +4346,7 @@
         <v>259</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="86" spans="1:8" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -4362,7 +4393,7 @@
         <v>260</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -4382,7 +4413,7 @@
         <v>322</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -4422,7 +4453,7 @@
         <v>324</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -4442,7 +4473,7 @@
         <v>281</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -4462,7 +4493,7 @@
         <v>262</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -4482,7 +4513,7 @@
         <v>325</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="95" spans="1:8" s="13" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -4518,7 +4549,7 @@
         <v>260</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -4538,7 +4569,7 @@
         <v>326</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -4558,7 +4589,7 @@
         <v>326</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -4578,7 +4609,7 @@
         <v>282</v>
       </c>
       <c r="H99" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="100" spans="1:8" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
@@ -4614,7 +4645,7 @@
         <v>322</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="102" spans="1:8" s="13" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -4650,7 +4681,7 @@
         <v>326</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -4670,7 +4701,7 @@
         <v>326</v>
       </c>
       <c r="H104" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -4690,7 +4721,7 @@
         <v>310</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -4710,7 +4741,7 @@
         <v>327</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="107" spans="1:8" s="13" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -4746,7 +4777,7 @@
         <v>346</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -4766,7 +4797,7 @@
         <v>264</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="110" spans="1:8" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -4813,7 +4844,7 @@
         <v>262</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -4833,7 +4864,7 @@
         <v>344</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -4853,7 +4884,7 @@
         <v>328</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="115" spans="1:8" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
@@ -4889,7 +4920,7 @@
         <v>344</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -4909,7 +4940,7 @@
         <v>329</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -4929,7 +4960,7 @@
         <v>262</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -4949,7 +4980,7 @@
         <v>262</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -4969,7 +5000,7 @@
         <v>262</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="121" spans="1:8" s="13" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -4999,13 +5030,13 @@
         <v>85</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G122" s="4" t="s">
         <v>264</v>
       </c>
       <c r="H122" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="123" spans="1:8" s="13" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -5041,7 +5072,7 @@
         <v>262</v>
       </c>
       <c r="H124" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -5061,7 +5092,7 @@
         <v>347</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -5079,7 +5110,7 @@
       </c>
       <c r="G126" s="4"/>
       <c r="H126" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -5099,7 +5130,7 @@
         <v>265</v>
       </c>
       <c r="H127" s="5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -5117,7 +5148,7 @@
       </c>
       <c r="G128" s="4"/>
       <c r="H128" s="5" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -5137,7 +5168,7 @@
         <v>347</v>
       </c>
       <c r="H129" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -5157,7 +5188,7 @@
         <v>330</v>
       </c>
       <c r="H130" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="131" spans="1:8" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
@@ -5193,7 +5224,7 @@
         <v>311</v>
       </c>
       <c r="H132" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -5213,7 +5244,7 @@
         <v>342</v>
       </c>
       <c r="H133" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -5233,7 +5264,7 @@
         <v>343</v>
       </c>
       <c r="H134" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="135" spans="1:8" s="13" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -5269,7 +5300,7 @@
         <v>298</v>
       </c>
       <c r="H136" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -5289,7 +5320,7 @@
         <v>266</v>
       </c>
       <c r="H137" s="5" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -5309,7 +5340,7 @@
         <v>263</v>
       </c>
       <c r="H138" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -5375,7 +5406,7 @@
         <v>341</v>
       </c>
       <c r="H142" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -5395,7 +5426,7 @@
         <v>341</v>
       </c>
       <c r="H143" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -5415,7 +5446,7 @@
         <v>283</v>
       </c>
       <c r="H144" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="145" spans="1:8" s="13" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -5451,7 +5482,7 @@
         <v>330</v>
       </c>
       <c r="H146" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -5471,7 +5502,7 @@
         <v>342</v>
       </c>
       <c r="H147" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -5491,7 +5522,7 @@
         <v>342</v>
       </c>
       <c r="H148" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -5511,7 +5542,7 @@
         <v>331</v>
       </c>
       <c r="H149" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -5531,7 +5562,7 @@
         <v>284</v>
       </c>
       <c r="H150" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="151" spans="1:8" s="13" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -5567,7 +5598,7 @@
         <v>267</v>
       </c>
       <c r="H152" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -5587,7 +5618,7 @@
         <v>267</v>
       </c>
       <c r="H153" s="5" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -5607,7 +5638,7 @@
         <v>279</v>
       </c>
       <c r="H154" s="5" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -5627,7 +5658,7 @@
         <v>279</v>
       </c>
       <c r="H155" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -5647,7 +5678,7 @@
         <v>285</v>
       </c>
       <c r="H156" s="5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -5667,7 +5698,7 @@
         <v>262</v>
       </c>
       <c r="H157" s="5" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="158" spans="1:8" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -5714,7 +5745,7 @@
         <v>262</v>
       </c>
       <c r="H160" s="5" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -5734,7 +5765,7 @@
         <v>349</v>
       </c>
       <c r="H161" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -5754,7 +5785,7 @@
         <v>286</v>
       </c>
       <c r="H162" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -5774,7 +5805,7 @@
         <v>286</v>
       </c>
       <c r="H163" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -5794,7 +5825,7 @@
         <v>286</v>
       </c>
       <c r="H164" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="165" spans="1:8" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
@@ -5830,7 +5861,7 @@
         <v>262</v>
       </c>
       <c r="H166" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -5862,7 +5893,7 @@
         <v>262</v>
       </c>
       <c r="H168" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -5876,13 +5907,13 @@
         <v>85</v>
       </c>
       <c r="F169" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G169" s="4" t="s">
         <v>262</v>
       </c>
       <c r="H169" s="5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -5902,7 +5933,7 @@
         <v>262</v>
       </c>
       <c r="H170" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="171" spans="1:8" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
@@ -5938,7 +5969,7 @@
         <v>260</v>
       </c>
       <c r="H172" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="173" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -5958,7 +5989,7 @@
         <v>312</v>
       </c>
       <c r="H173" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="174" spans="1:8" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -6005,7 +6036,7 @@
         <v>260</v>
       </c>
       <c r="H176" s="5" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -6025,7 +6056,7 @@
         <v>297</v>
       </c>
       <c r="H177" s="5" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="178" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -6045,7 +6076,7 @@
         <v>298</v>
       </c>
       <c r="H178" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="179" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -6065,7 +6096,7 @@
         <v>332</v>
       </c>
       <c r="H179" s="5" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="180" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -6085,7 +6116,7 @@
         <v>324</v>
       </c>
       <c r="H180" s="5" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="181" spans="1:8" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
@@ -6121,7 +6152,7 @@
         <v>268</v>
       </c>
       <c r="H182" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="183" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -6141,7 +6172,7 @@
         <v>333</v>
       </c>
       <c r="H183" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="184" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -6161,7 +6192,7 @@
         <v>324</v>
       </c>
       <c r="H184" s="5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="185" spans="1:8" s="13" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -6197,7 +6228,7 @@
         <v>330</v>
       </c>
       <c r="H186" s="5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="187" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -6217,7 +6248,7 @@
         <v>334</v>
       </c>
       <c r="H187" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="188" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -6237,7 +6268,7 @@
         <v>330</v>
       </c>
       <c r="H188" s="4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="189" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -6257,7 +6288,7 @@
         <v>335</v>
       </c>
       <c r="H189" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="190" spans="1:8" s="13" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -6293,7 +6324,7 @@
         <v>269</v>
       </c>
       <c r="H191" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -6313,7 +6344,7 @@
         <v>322</v>
       </c>
       <c r="H192" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="193" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -6350,7 +6381,7 @@
         <v>336</v>
       </c>
       <c r="H194" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="195" spans="1:8" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -6397,7 +6428,7 @@
         <v>265</v>
       </c>
       <c r="H197" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="198" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -6429,7 +6460,7 @@
         <v>286</v>
       </c>
       <c r="H199" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="200" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -6449,7 +6480,7 @@
         <v>287</v>
       </c>
       <c r="H200" s="5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="201" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -6469,7 +6500,7 @@
         <v>286</v>
       </c>
       <c r="H201" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="202" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -6489,7 +6520,7 @@
         <v>286</v>
       </c>
       <c r="H202" s="4" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="203" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -6509,7 +6540,7 @@
         <v>262</v>
       </c>
       <c r="H203" s="4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="204" spans="1:8" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
@@ -6557,7 +6588,7 @@
         <v>337</v>
       </c>
       <c r="H206" s="5" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="207" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -6577,7 +6608,7 @@
         <v>265</v>
       </c>
       <c r="H207" s="5" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="208" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -6597,7 +6628,7 @@
         <v>337</v>
       </c>
       <c r="H208" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="209" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -6617,7 +6648,7 @@
         <v>265</v>
       </c>
       <c r="H209" s="5" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="210" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -6637,7 +6668,7 @@
         <v>313</v>
       </c>
       <c r="H210" s="5" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="211" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -6657,7 +6688,7 @@
         <v>258</v>
       </c>
       <c r="H211" s="5" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="212" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -6677,7 +6708,7 @@
         <v>265</v>
       </c>
       <c r="H212" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="213" spans="1:8" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -6724,7 +6755,7 @@
         <v>270</v>
       </c>
       <c r="H215" s="5" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="216" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -6744,7 +6775,7 @@
         <v>314</v>
       </c>
       <c r="H216" s="5" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="217" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -6764,7 +6795,7 @@
         <v>288</v>
       </c>
       <c r="H217" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="218" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -6784,7 +6815,7 @@
         <v>270</v>
       </c>
       <c r="H218" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="219" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -6804,7 +6835,7 @@
         <v>288</v>
       </c>
       <c r="H219" s="5" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="220" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -6824,7 +6855,7 @@
         <v>338</v>
       </c>
       <c r="H220" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="221" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -6844,7 +6875,7 @@
         <v>339</v>
       </c>
       <c r="H221" s="4" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="222" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -6858,13 +6889,13 @@
         <v>85</v>
       </c>
       <c r="F222" s="4" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G222" s="4" t="s">
         <v>339</v>
       </c>
       <c r="H222" s="4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="223" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -6884,7 +6915,7 @@
         <v>289</v>
       </c>
       <c r="H223" s="5" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="224" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -6904,7 +6935,7 @@
         <v>340</v>
       </c>
       <c r="H224" s="4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="225" spans="1:8" s="13" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -6940,7 +6971,7 @@
         <v>271</v>
       </c>
       <c r="H226" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="227" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -6972,7 +7003,7 @@
         <v>271</v>
       </c>
       <c r="H228" s="5" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="229" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -7106,7 +7137,7 @@
         <v>271</v>
       </c>
       <c r="H236" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="237" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -7126,7 +7157,7 @@
         <v>271</v>
       </c>
       <c r="H237" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="238" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -7146,7 +7177,7 @@
         <v>272</v>
       </c>
       <c r="H238" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="239" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -7166,7 +7197,7 @@
         <v>272</v>
       </c>
       <c r="H239" s="4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="240" spans="1:8" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
@@ -7204,7 +7235,7 @@
         <v>273</v>
       </c>
       <c r="H241" s="5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="242" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -7226,7 +7257,7 @@
         <v>315</v>
       </c>
       <c r="H242" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="243" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -7248,7 +7279,7 @@
         <v>316</v>
       </c>
       <c r="H243" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="244" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -7270,7 +7301,7 @@
         <v>274</v>
       </c>
       <c r="H244" s="5" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="245" spans="1:8" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
@@ -7306,7 +7337,7 @@
         <v>317</v>
       </c>
       <c r="H246" s="4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="247" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -7326,7 +7357,7 @@
         <v>298</v>
       </c>
       <c r="H247" s="4" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="248" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -7346,7 +7377,7 @@
         <v>298</v>
       </c>
       <c r="H248" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="249" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -7366,7 +7397,7 @@
         <v>317</v>
       </c>
       <c r="H249" s="4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="250" spans="1:8" s="13" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -7402,7 +7433,7 @@
         <v>275</v>
       </c>
       <c r="H251" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="252" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -7422,7 +7453,7 @@
         <v>284</v>
       </c>
       <c r="H252" s="4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="253" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -7442,7 +7473,7 @@
         <v>275</v>
       </c>
       <c r="H253" s="5" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="254" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -7462,7 +7493,7 @@
         <v>318</v>
       </c>
       <c r="H254" s="4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="255" spans="1:8" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -7509,7 +7540,7 @@
         <v>276</v>
       </c>
       <c r="H257" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="258" spans="1:8" ht="102" x14ac:dyDescent="0.2">
@@ -7529,7 +7560,7 @@
         <v>273</v>
       </c>
       <c r="H258" s="4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="259" spans="1:8" s="13" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -7565,7 +7596,7 @@
         <v>258</v>
       </c>
       <c r="H260" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
   </sheetData>
